--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87BB6D79-443E-44F4-8319-490E8C7C1855}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D106A55-5E71-452A-A4F7-FC92D365D71D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/20/20</t>
+    <t>Created 02/21/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -391,7 +391,7 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genres exclude Documentary, Action/Adventure, Children (Plan ID 1850) | Program include BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
+      <d:t xml:space="preserve">Genre Excludes Documentary, Action/Adventure, Children (Plan ID 1850) | Program Includes BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -408,7 +408,7 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genres include Documentary (Plan ID 1850) | Program exclude The Big Bang Theory (Plan ID 1850)</d:t>
+      <d:t xml:space="preserve">Genre Includes Documentary (Plan ID 1850) | Program Excludes The Big Bang Theory (Plan ID 1850)</d:t>
     </d:r>
   </si>
   <si>
@@ -1810,7 +1810,7 @@
   </sheetPr>
   <dimension ref="A2:P187"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -11046,11 +11046,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -11060,6 +11055,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -13383,6 +13383,14 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="F61:U61"/>
     <mergeCell ref="F53:U53"/>
     <mergeCell ref="H17:N17"/>
@@ -13391,14 +13399,6 @@
     <mergeCell ref="F57:U57"/>
     <mergeCell ref="F59:U59"/>
     <mergeCell ref="O17:U17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="I28:N28"/>
     <mergeCell ref="O28:U28"/>
     <mergeCell ref="I36:N36"/>
@@ -13494,15 +13494,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000192CE90DA120240A67EE82BE1FBFF43" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623d129459d6fae29ac2c5d491c3782f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e2beb7e-37df-4602-aab8-4f6673c75e9a" xmlns:ns4="eaec1813-26bf-4c98-9021-907af21e1945" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd2e6b22ac1ad737273b5b960116aad" ns3:_="" ns4:_="">
     <xsd:import namespace="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
@@ -13725,6 +13716,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13732,14 +13732,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53520415-44BC-4FFA-B7D1-C1B985B55107}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13754,6 +13746,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D106A55-5E71-452A-A4F7-FC92D365D71D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95FF1907-A241-4455-BD7A-9BC1FC65151D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>Imp.</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -307,7 +304,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/21/20</t>
+    <t>Created 02/24/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -2048,7 +2045,7 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="B11" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C11" s="101">
         <v>0</v>
@@ -2142,7 +2139,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="61">
         <v>0</v>
@@ -2189,7 +2186,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="119"/>
       <c r="D14" s="120"/>
@@ -2208,7 +2205,7 @@
     </row>
     <row r="16">
       <c r="B16" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="127" t="s">
         <v>55</v>
@@ -2372,7 +2369,7 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C20" s="101">
         <v>0</v>
@@ -2466,7 +2463,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="61">
         <v>0</v>
@@ -2513,7 +2510,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="119"/>
       <c r="D23" s="120"/>
@@ -2532,7 +2529,7 @@
     </row>
     <row r="25">
       <c r="B25" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="127" t="s">
         <v>55</v>
@@ -2696,7 +2693,7 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="B29" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C29" s="101">
         <v>0</v>
@@ -2790,7 +2787,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="61">
         <v>0</v>
@@ -2837,7 +2834,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="119"/>
       <c r="D32" s="120"/>
@@ -2856,7 +2853,7 @@
     </row>
     <row r="34">
       <c r="B34" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="127" t="s">
         <v>55</v>
@@ -3020,7 +3017,7 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="B38" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C38" s="101">
         <v>0</v>
@@ -3114,7 +3111,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="61">
         <v>0</v>
@@ -3161,7 +3158,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="119"/>
       <c r="D41" s="120"/>
@@ -3180,7 +3177,7 @@
     </row>
     <row r="43">
       <c r="B43" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="127" t="s">
         <v>55</v>
@@ -3344,7 +3341,7 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="B47" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C47" s="101">
         <v>0</v>
@@ -3438,7 +3435,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="61">
         <v>0</v>
@@ -3485,7 +3482,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="119"/>
       <c r="D50" s="120"/>
@@ -3504,7 +3501,7 @@
     </row>
     <row r="52">
       <c r="B52" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="127" t="s">
         <v>55</v>
@@ -3668,7 +3665,7 @@
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="B56" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C56" s="101">
         <v>0</v>
@@ -3762,7 +3759,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="61">
         <v>0</v>
@@ -3809,7 +3806,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="119"/>
       <c r="D59" s="120"/>
@@ -3828,7 +3825,7 @@
     </row>
     <row r="61">
       <c r="B61" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="127" t="s">
         <v>55</v>
@@ -3992,7 +3989,7 @@
     </row>
     <row r="65" ht="24" customHeight="1">
       <c r="B65" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C65" s="101">
         <v>0</v>
@@ -4086,7 +4083,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="B67" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="61">
         <v>0</v>
@@ -4133,7 +4130,7 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="119"/>
       <c r="D68" s="120"/>
@@ -4152,7 +4149,7 @@
     </row>
     <row r="70">
       <c r="B70" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="127" t="s">
         <v>55</v>
@@ -4316,7 +4313,7 @@
     </row>
     <row r="74" ht="24" customHeight="1">
       <c r="B74" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C74" s="101">
         <v>0</v>
@@ -4410,7 +4407,7 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="B76" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="61">
         <v>0</v>
@@ -4457,7 +4454,7 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="119"/>
       <c r="D77" s="120"/>
@@ -4476,22 +4473,22 @@
     </row>
     <row r="79">
       <c r="B79" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="127" t="s">
         <v>69</v>
-      </c>
-      <c r="C79" s="127" t="s">
-        <v>70</v>
       </c>
       <c r="D79" s="128"/>
       <c r="E79" s="128"/>
       <c r="F79" s="129"/>
       <c r="G79" s="128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H79" s="128"/>
       <c r="I79" s="128"/>
       <c r="J79" s="129"/>
       <c r="K79" s="127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L79" s="128"/>
       <c r="M79" s="128"/>
@@ -4640,7 +4637,7 @@
     </row>
     <row r="83" ht="24" customHeight="1">
       <c r="B83" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C83" s="101">
         <v>384.61538461538464</v>
@@ -4734,7 +4731,7 @@
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="B85" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C85" s="61">
         <v>9615.3846153846</v>
@@ -4781,7 +4778,7 @@
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="B86" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C86" s="119"/>
       <c r="D86" s="120"/>
@@ -4800,22 +4797,22 @@
     </row>
     <row r="88">
       <c r="B88" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88" s="127" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D88" s="128"/>
       <c r="E88" s="128"/>
       <c r="F88" s="129"/>
       <c r="G88" s="128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H88" s="128"/>
       <c r="I88" s="128"/>
       <c r="J88" s="129"/>
       <c r="K88" s="127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L88" s="128"/>
       <c r="M88" s="128"/>
@@ -4964,7 +4961,7 @@
     </row>
     <row r="92" ht="24" customHeight="1">
       <c r="B92" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C92" s="101">
         <v>384.61538461538464</v>
@@ -5058,7 +5055,7 @@
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="B94" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" s="61">
         <v>9615.3846153846</v>
@@ -5105,7 +5102,7 @@
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="B95" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" s="119"/>
       <c r="D95" s="120"/>
@@ -5124,22 +5121,22 @@
     </row>
     <row r="97">
       <c r="B97" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C97" s="127" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D97" s="128"/>
       <c r="E97" s="128"/>
       <c r="F97" s="129"/>
       <c r="G97" s="128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H97" s="128"/>
       <c r="I97" s="128"/>
       <c r="J97" s="129"/>
       <c r="K97" s="127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L97" s="128"/>
       <c r="M97" s="128"/>
@@ -5288,7 +5285,7 @@
     </row>
     <row r="101" ht="24" customHeight="1">
       <c r="B101" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C101" s="101">
         <v>384.61538461538464</v>
@@ -5382,7 +5379,7 @@
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="B103" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C103" s="61">
         <v>9615.3846153846</v>
@@ -5429,7 +5426,7 @@
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="B104" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C104" s="119"/>
       <c r="D104" s="120"/>
@@ -5448,22 +5445,22 @@
     </row>
     <row r="106">
       <c r="B106" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C106" s="127" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D106" s="128"/>
       <c r="E106" s="128"/>
       <c r="F106" s="129"/>
       <c r="G106" s="128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H106" s="128"/>
       <c r="I106" s="128"/>
       <c r="J106" s="129"/>
       <c r="K106" s="127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L106" s="128"/>
       <c r="M106" s="128"/>
@@ -5612,7 +5609,7 @@
     </row>
     <row r="110" ht="24" customHeight="1">
       <c r="B110" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C110" s="101">
         <v>384.61538461538464</v>
@@ -5706,7 +5703,7 @@
     </row>
     <row r="112" ht="24" customHeight="1">
       <c r="B112" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C112" s="61">
         <v>9615.3846153846</v>
@@ -5753,7 +5750,7 @@
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="B113" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C113" s="119"/>
       <c r="D113" s="120"/>
@@ -5772,22 +5769,22 @@
     </row>
     <row r="115">
       <c r="B115" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C115" s="127" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D115" s="128"/>
       <c r="E115" s="128"/>
       <c r="F115" s="129"/>
       <c r="G115" s="128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H115" s="128"/>
       <c r="I115" s="128"/>
       <c r="J115" s="129"/>
       <c r="K115" s="127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L115" s="128"/>
       <c r="M115" s="128"/>
@@ -5936,7 +5933,7 @@
     </row>
     <row r="119" ht="24" customHeight="1">
       <c r="B119" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C119" s="101">
         <v>5000</v>
@@ -6030,7 +6027,7 @@
     </row>
     <row r="121" ht="24" customHeight="1">
       <c r="B121" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C121" s="61">
         <v>125000</v>
@@ -6077,7 +6074,7 @@
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="B122" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C122" s="119"/>
       <c r="D122" s="120"/>
@@ -6096,22 +6093,22 @@
     </row>
     <row r="124">
       <c r="B124" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C124" s="127" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D124" s="128"/>
       <c r="E124" s="128"/>
       <c r="F124" s="129"/>
       <c r="G124" s="128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H124" s="128"/>
       <c r="I124" s="128"/>
       <c r="J124" s="129"/>
       <c r="K124" s="127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L124" s="128"/>
       <c r="M124" s="128"/>
@@ -6260,7 +6257,7 @@
     </row>
     <row r="128" ht="24" customHeight="1">
       <c r="B128" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C128" s="101">
         <v>5000</v>
@@ -6354,7 +6351,7 @@
     </row>
     <row r="130" ht="24" customHeight="1">
       <c r="B130" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C130" s="61">
         <v>125000</v>
@@ -6401,7 +6398,7 @@
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="B131" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C131" s="119"/>
       <c r="D131" s="120"/>
@@ -6420,22 +6417,22 @@
     </row>
     <row r="133">
       <c r="B133" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C133" s="127" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D133" s="128"/>
       <c r="E133" s="128"/>
       <c r="F133" s="129"/>
       <c r="G133" s="128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H133" s="128"/>
       <c r="I133" s="128"/>
       <c r="J133" s="129"/>
       <c r="K133" s="127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L133" s="128"/>
       <c r="M133" s="128"/>
@@ -6584,7 +6581,7 @@
     </row>
     <row r="137" ht="24" customHeight="1">
       <c r="B137" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C137" s="101">
         <v>5000</v>
@@ -6678,7 +6675,7 @@
     </row>
     <row r="139" ht="24" customHeight="1">
       <c r="B139" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C139" s="61">
         <v>125000</v>
@@ -6725,7 +6722,7 @@
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="B140" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C140" s="119"/>
       <c r="D140" s="120"/>
@@ -6744,22 +6741,22 @@
     </row>
     <row r="142">
       <c r="B142" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C142" s="127" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D142" s="128"/>
       <c r="E142" s="128"/>
       <c r="F142" s="129"/>
       <c r="G142" s="128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H142" s="128"/>
       <c r="I142" s="128"/>
       <c r="J142" s="129"/>
       <c r="K142" s="127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L142" s="128"/>
       <c r="M142" s="128"/>
@@ -6908,7 +6905,7 @@
     </row>
     <row r="146" ht="24" customHeight="1">
       <c r="B146" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C146" s="101">
         <v>5000</v>
@@ -7002,7 +6999,7 @@
     </row>
     <row r="148" ht="24" customHeight="1">
       <c r="B148" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C148" s="61">
         <v>125000</v>
@@ -7049,7 +7046,7 @@
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="B149" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C149" s="119"/>
       <c r="D149" s="120"/>
@@ -7068,23 +7065,23 @@
     </row>
     <row r="151">
       <c r="B151" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C151" s="127" t="s">
         <v>80</v>
-      </c>
-      <c r="C151" s="127" t="s">
-        <v>81</v>
       </c>
       <c r="D151" s="128"/>
       <c r="E151" s="128"/>
       <c r="F151" s="129"/>
       <c r="G151" s="128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H151" s="128"/>
       <c r="I151" s="128"/>
       <c r="J151" s="128"/>
       <c r="K151" s="129"/>
       <c r="L151" s="127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M151" s="128"/>
       <c r="N151" s="128"/>
@@ -7232,7 +7229,7 @@
     </row>
     <row r="155" ht="24" customHeight="1">
       <c r="B155" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C155" s="101">
         <v>384.61538461538464</v>
@@ -7326,7 +7323,7 @@
     </row>
     <row r="157" ht="24" customHeight="1">
       <c r="B157" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C157" s="61">
         <v>9615.3846153846</v>
@@ -7373,7 +7370,7 @@
     </row>
     <row r="158" ht="30" customHeight="1">
       <c r="B158" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C158" s="119"/>
       <c r="D158" s="120"/>
@@ -7392,23 +7389,23 @@
     </row>
     <row r="160">
       <c r="B160" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C160" s="127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D160" s="128"/>
       <c r="E160" s="128"/>
       <c r="F160" s="129"/>
       <c r="G160" s="128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H160" s="128"/>
       <c r="I160" s="128"/>
       <c r="J160" s="128"/>
       <c r="K160" s="129"/>
       <c r="L160" s="127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M160" s="128"/>
       <c r="N160" s="128"/>
@@ -7556,7 +7553,7 @@
     </row>
     <row r="164" ht="24" customHeight="1">
       <c r="B164" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C164" s="101">
         <v>384.61538461538464</v>
@@ -7650,7 +7647,7 @@
     </row>
     <row r="166" ht="24" customHeight="1">
       <c r="B166" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C166" s="61">
         <v>9615.3846153846</v>
@@ -7697,7 +7694,7 @@
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="B167" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C167" s="119"/>
       <c r="D167" s="120"/>
@@ -7716,23 +7713,23 @@
     </row>
     <row r="169">
       <c r="B169" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C169" s="127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D169" s="128"/>
       <c r="E169" s="128"/>
       <c r="F169" s="129"/>
       <c r="G169" s="128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H169" s="128"/>
       <c r="I169" s="128"/>
       <c r="J169" s="128"/>
       <c r="K169" s="129"/>
       <c r="L169" s="127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M169" s="128"/>
       <c r="N169" s="128"/>
@@ -7880,7 +7877,7 @@
     </row>
     <row r="173" ht="24" customHeight="1">
       <c r="B173" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C173" s="101">
         <v>384.61538461538464</v>
@@ -7974,7 +7971,7 @@
     </row>
     <row r="175" ht="24" customHeight="1">
       <c r="B175" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C175" s="61">
         <v>9615.3846153846</v>
@@ -8021,7 +8018,7 @@
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="B176" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C176" s="119"/>
       <c r="D176" s="120"/>
@@ -8040,23 +8037,23 @@
     </row>
     <row r="178">
       <c r="B178" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C178" s="127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D178" s="128"/>
       <c r="E178" s="128"/>
       <c r="F178" s="129"/>
       <c r="G178" s="128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H178" s="128"/>
       <c r="I178" s="128"/>
       <c r="J178" s="128"/>
       <c r="K178" s="129"/>
       <c r="L178" s="127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M178" s="128"/>
       <c r="N178" s="128"/>
@@ -8204,7 +8201,7 @@
     </row>
     <row r="182" ht="24" customHeight="1">
       <c r="B182" s="118" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C182" s="101">
         <v>384.61538461538464</v>
@@ -8298,7 +8295,7 @@
     </row>
     <row r="184" ht="24" customHeight="1">
       <c r="B184" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C184" s="61">
         <v>9615.3846153846</v>
@@ -8345,7 +8342,7 @@
     </row>
     <row r="185" ht="30" customHeight="1">
       <c r="B185" s="107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C185" s="119"/>
       <c r="D185" s="120"/>
@@ -8544,7 +8541,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>16</v>
@@ -8577,7 +8574,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -8838,7 +8835,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -11101,10 +11098,10 @@
     <row r="2" ht="24" customHeight="1">
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -11139,25 +11136,25 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
       <c r="C5" s="123" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="123"/>
       <c r="E5" s="123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="123"/>
       <c r="G5" s="123"/>
       <c r="H5" s="70"/>
       <c r="I5" s="123" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" s="123"/>
       <c r="K5" s="123" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L5" s="123"/>
       <c r="M5" s="123" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N5" s="123"/>
       <c r="O5" s="65" t="s">
@@ -11189,7 +11186,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="9"/>
@@ -11205,7 +11202,7 @@
       <c r="M7" s="128"/>
       <c r="N7" s="129"/>
       <c r="O7" s="127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P7" s="128"/>
       <c r="Q7" s="128"/>
@@ -11216,14 +11213,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>23</v>
@@ -11277,14 +11274,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="E9" s="74">
         <v>0</v>
@@ -11338,14 +11335,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="74">
         <v>0</v>
@@ -11399,14 +11396,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="74">
         <v>0</v>
@@ -11460,14 +11457,14 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="74">
         <v>0</v>
@@ -11521,14 +11518,14 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="74">
         <v>0</v>
@@ -11584,7 +11581,7 @@
       <c r="B14" s="27"/>
       <c r="C14" s="38"/>
       <c r="D14" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="50">
         <v>0</v>
@@ -11642,13 +11639,13 @@
     <row r="16" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B16" s="57"/>
       <c r="H16" s="81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B17" s="57"/>
       <c r="H17" s="127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17" s="128"/>
       <c r="J17" s="128"/>
@@ -11711,7 +11708,7 @@
     </row>
     <row r="19" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="A19" s="71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="57"/>
       <c r="H19" s="115">
@@ -11745,7 +11742,7 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="57"/>
       <c r="H20" s="115">
@@ -11779,7 +11776,7 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="57"/>
       <c r="H21" s="115">
@@ -11813,7 +11810,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="57"/>
       <c r="H22" s="115">
@@ -11847,7 +11844,7 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="57"/>
       <c r="H23" s="115">
@@ -11951,7 +11948,7 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="C28" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="52"/>
       <c r="E28" s="9"/>
@@ -11967,7 +11964,7 @@
       <c r="M28" s="128"/>
       <c r="N28" s="129"/>
       <c r="O28" s="127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P28" s="128"/>
       <c r="Q28" s="128"/>
@@ -11978,14 +11975,14 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="39" t="s">
         <v>23</v>
@@ -12039,14 +12036,14 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E30" s="74">
         <v>0</v>
@@ -12100,14 +12097,14 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="74">
         <v>0</v>
@@ -12161,14 +12158,14 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="74">
         <v>0</v>
@@ -12222,14 +12219,14 @@
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" s="74">
         <v>0</v>
@@ -12285,7 +12282,7 @@
       <c r="B34" s="27"/>
       <c r="C34" s="38"/>
       <c r="D34" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E34" s="50">
         <v>0</v>
@@ -12339,7 +12336,7 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="C36" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="9"/>
@@ -12355,7 +12352,7 @@
       <c r="M36" s="128"/>
       <c r="N36" s="129"/>
       <c r="O36" s="127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P36" s="128"/>
       <c r="Q36" s="128"/>
@@ -12366,14 +12363,14 @@
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="A37" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="39" t="s">
         <v>23</v>
@@ -12427,14 +12424,14 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E38" s="74">
         <v>0</v>
@@ -12488,14 +12485,14 @@
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="A39" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" s="74">
         <v>0</v>
@@ -12551,7 +12548,7 @@
       <c r="B40" s="27"/>
       <c r="C40" s="38"/>
       <c r="D40" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="50">
         <v>0</v>
@@ -12621,7 +12618,7 @@
       <c r="M42" s="128"/>
       <c r="N42" s="129"/>
       <c r="O42" s="127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P42" s="128"/>
       <c r="Q42" s="128"/>
@@ -12632,14 +12629,14 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>23</v>
@@ -12693,14 +12690,14 @@
     </row>
     <row r="44" ht="24" customHeight="1">
       <c r="A44" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="E44" s="74">
         <v>0</v>
@@ -12754,14 +12751,14 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="A45" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" s="74">
         <v>0</v>
@@ -12815,14 +12812,14 @@
     </row>
     <row r="46" ht="24" customHeight="1">
       <c r="A46" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E46" s="74">
         <v>0</v>
@@ -12876,14 +12873,14 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="A47" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="74">
         <v>0</v>
@@ -12937,14 +12934,14 @@
     </row>
     <row r="48" ht="24" customHeight="1">
       <c r="A48" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E48" s="74">
         <v>0</v>
@@ -12998,14 +12995,14 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="A49" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" s="27"/>
       <c r="C49" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E49" s="74">
         <v>0</v>
@@ -13059,14 +13056,14 @@
     </row>
     <row r="50" ht="24" customHeight="1">
       <c r="A50" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" s="74">
         <v>0</v>
@@ -13122,7 +13119,7 @@
       <c r="B51" s="27"/>
       <c r="C51" s="38"/>
       <c r="D51" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="50">
         <v>0</v>
@@ -13182,7 +13179,7 @@
       <c r="D53" s="54"/>
       <c r="E53" s="72"/>
       <c r="F53" s="133" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G53" s="133"/>
       <c r="H53" s="133"/>
@@ -13228,7 +13225,7 @@
       </c>
       <c r="D55" s="54"/>
       <c r="F55" s="133" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G55" s="133"/>
       <c r="H55" s="133"/>
@@ -13274,7 +13271,7 @@
       <c r="D57" s="54"/>
       <c r="E57" s="72"/>
       <c r="F57" s="133" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G57" s="133"/>
       <c r="H57" s="133"/>
@@ -13363,7 +13360,7 @@
       </c>
       <c r="D61" s="54"/>
       <c r="F61" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G61" s="124"/>
       <c r="H61" s="124"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -196,7 +196,7 @@
     <t>Posting</t>
   </si>
   <si>
-    <t xml:space="preserve">4Q '19 DAY :30s </t>
+    <t>4Q '19 DAY :30s</t>
   </si>
   <si>
     <t>October</t>
@@ -223,7 +223,7 @@
     <t>4Q '19 DAY Total</t>
   </si>
   <si>
-    <t xml:space="preserve">4Q '19 EMN :30s </t>
+    <t>4Q '19 EMN :30s</t>
   </si>
   <si>
     <t>4Q '19 EMN :15s eq.</t>
@@ -232,13 +232,13 @@
     <t>4Q '19 EMN Total</t>
   </si>
   <si>
-    <t xml:space="preserve">4Q '19 PT :30s </t>
+    <t>4Q '19 PT :30s</t>
   </si>
   <si>
     <t>4Q '19 PT Total</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 MDN :90s </t>
+    <t>1Q '20 MDN :90s</t>
   </si>
   <si>
     <t>January</t>
@@ -253,7 +253,7 @@
     <t>1Q '20 MDN Total</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 PA :90s </t>
+    <t>1Q '20 PA :90s</t>
   </si>
   <si>
     <t>1Q '20 PA Total</t>
@@ -271,7 +271,7 @@
     <t>1Q '20 EMN Total</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 MDN :90s </t>
+    <t>2Q '20 MDN :90s</t>
   </si>
   <si>
     <t>April</t>
@@ -286,7 +286,7 @@
     <t>2Q '20 MDN Total</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 PA :90s </t>
+    <t>2Q '20 PA :90s</t>
   </si>
   <si>
     <t>2Q '20 PA Total</t>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95FF1907-A241-4455-BD7A-9BC1FC65151D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D312C421-F63C-4CA8-95C5-97BA3F7CB93C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11043,6 +11043,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -11052,11 +11057,6 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -13380,6 +13380,14 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="F53:U53"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="F55:U55"/>
+    <mergeCell ref="F57:U57"/>
+    <mergeCell ref="F59:U59"/>
+    <mergeCell ref="O17:U17"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="E5:G5"/>
@@ -13388,14 +13396,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="F61:U61"/>
-    <mergeCell ref="F53:U53"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="F55:U55"/>
-    <mergeCell ref="F57:U57"/>
-    <mergeCell ref="F59:U59"/>
-    <mergeCell ref="O17:U17"/>
     <mergeCell ref="I28:N28"/>
     <mergeCell ref="O28:U28"/>
     <mergeCell ref="I36:N36"/>
@@ -13491,6 +13491,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000192CE90DA120240A67EE82BE1FBFF43" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623d129459d6fae29ac2c5d491c3782f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e2beb7e-37df-4602-aab8-4f6673c75e9a" xmlns:ns4="eaec1813-26bf-4c98-9021-907af21e1945" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd2e6b22ac1ad737273b5b960116aad" ns3:_="" ns4:_="">
     <xsd:import namespace="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
@@ -13713,15 +13722,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13729,6 +13729,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53520415-44BC-4FFA-B7D1-C1B985B55107}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13743,14 +13751,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D312C421-F63C-4CA8-95C5-97BA3F7CB93C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4FFE7DFA-B30C-4ED1-B48F-559D69B40A92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,6 +196,9 @@
     <t>Posting</t>
   </si>
   <si>
+    <t>DAY - M-SU 09:00am - 04:00pm, EMN - M-SU 04:00am - 10:00am, MDN - M-F,SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm, PT - M-SU 08:00pm - 11:00pm</t>
+  </si>
+  <si>
     <t>4Q '19 DAY :30s</t>
   </si>
   <si>
@@ -304,7 +307,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/24/20</t>
+    <t>Created 02/25/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -368,9 +371,6 @@
   </si>
   <si>
     <t>~80% Minimum TV HH Coverage</t>
-  </si>
-  <si>
-    <t>DAY - M-SU 09:00am - 04:00pm, EMN - M-SU 04:00am - 10:00am, MDN - M-F,SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm, PT - M-SU 08:00pm - 11:00pm</t>
   </si>
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1807,7 +1807,7 @@
   </sheetPr>
   <dimension ref="A2:P187"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
+    <sheetView showGridLines="0" tabSelected="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1834,8 +1834,9 @@
       </c>
       <c r="G2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="P2" s="8" t="s">
-        <v>1</v>
+      <c r="P2" s="8" t="str">
+        <f>'PROPOSAL'!U2</f>
+        <v>Created 02/25/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1859,9 +1860,8 @@
         <f>'PROPOSAL'!O5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="123">
-        <f>'PROPOSAL'!F79</f>
-        <v>0</v>
+      <c r="D5" s="123" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="123"/>
       <c r="F5" s="123"/>
@@ -1881,22 +1881,22 @@
     </row>
     <row r="7">
       <c r="B7" s="52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="128"/>
       <c r="E7" s="128"/>
       <c r="F7" s="129"/>
       <c r="G7" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="128"/>
       <c r="I7" s="128"/>
       <c r="J7" s="129"/>
       <c r="K7" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" s="128"/>
       <c r="M7" s="128"/>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="B9" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="99">
         <v>0</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="61">
         <v>0</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="119"/>
       <c r="D14" s="120"/>
@@ -2205,22 +2205,22 @@
     </row>
     <row r="16">
       <c r="B16" s="52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="128"/>
       <c r="E16" s="128"/>
       <c r="F16" s="129"/>
       <c r="G16" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" s="128"/>
       <c r="I16" s="128"/>
       <c r="J16" s="129"/>
       <c r="K16" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L16" s="128"/>
       <c r="M16" s="128"/>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="B18" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="99">
         <v>0</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="61">
         <v>0</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="119"/>
       <c r="D23" s="120"/>
@@ -2529,22 +2529,22 @@
     </row>
     <row r="25">
       <c r="B25" s="52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="128"/>
       <c r="E25" s="128"/>
       <c r="F25" s="129"/>
       <c r="G25" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" s="128"/>
       <c r="I25" s="128"/>
       <c r="J25" s="129"/>
       <c r="K25" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L25" s="128"/>
       <c r="M25" s="128"/>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="B27" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="99">
         <v>0</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="61">
         <v>0</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="119"/>
       <c r="D32" s="120"/>
@@ -2853,22 +2853,22 @@
     </row>
     <row r="34">
       <c r="B34" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="128"/>
       <c r="E34" s="128"/>
       <c r="F34" s="129"/>
       <c r="G34" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" s="128"/>
       <c r="I34" s="128"/>
       <c r="J34" s="129"/>
       <c r="K34" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L34" s="128"/>
       <c r="M34" s="128"/>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="B36" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="99">
         <v>0</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="61">
         <v>0</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="119"/>
       <c r="D41" s="120"/>
@@ -3177,22 +3177,22 @@
     </row>
     <row r="43">
       <c r="B43" s="52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="128"/>
       <c r="E43" s="128"/>
       <c r="F43" s="129"/>
       <c r="G43" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H43" s="128"/>
       <c r="I43" s="128"/>
       <c r="J43" s="129"/>
       <c r="K43" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L43" s="128"/>
       <c r="M43" s="128"/>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="B45" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="99">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="61">
         <v>0</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="119"/>
       <c r="D50" s="120"/>
@@ -3501,22 +3501,22 @@
     </row>
     <row r="52">
       <c r="B52" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="128"/>
       <c r="E52" s="128"/>
       <c r="F52" s="129"/>
       <c r="G52" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H52" s="128"/>
       <c r="I52" s="128"/>
       <c r="J52" s="129"/>
       <c r="K52" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L52" s="128"/>
       <c r="M52" s="128"/>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="54" ht="24" customHeight="1">
       <c r="B54" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="99">
         <v>0</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="61">
         <v>0</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="119"/>
       <c r="D59" s="120"/>
@@ -3825,22 +3825,22 @@
     </row>
     <row r="61">
       <c r="B61" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C61" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61" s="128"/>
       <c r="E61" s="128"/>
       <c r="F61" s="129"/>
       <c r="G61" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H61" s="128"/>
       <c r="I61" s="128"/>
       <c r="J61" s="129"/>
       <c r="K61" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L61" s="128"/>
       <c r="M61" s="128"/>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="63" ht="24" customHeight="1">
       <c r="B63" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="99">
         <v>0</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="B67" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" s="61">
         <v>0</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68" s="119"/>
       <c r="D68" s="120"/>
@@ -4149,22 +4149,22 @@
     </row>
     <row r="70">
       <c r="B70" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" s="127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70" s="128"/>
       <c r="E70" s="128"/>
       <c r="F70" s="129"/>
       <c r="G70" s="128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H70" s="128"/>
       <c r="I70" s="128"/>
       <c r="J70" s="129"/>
       <c r="K70" s="127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L70" s="128"/>
       <c r="M70" s="128"/>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="72" ht="24" customHeight="1">
       <c r="B72" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="99">
         <v>0</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="B76" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" s="61">
         <v>0</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C77" s="119"/>
       <c r="D77" s="120"/>
@@ -4473,22 +4473,22 @@
     </row>
     <row r="79">
       <c r="B79" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C79" s="127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D79" s="128"/>
       <c r="E79" s="128"/>
       <c r="F79" s="129"/>
       <c r="G79" s="128" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H79" s="128"/>
       <c r="I79" s="128"/>
       <c r="J79" s="129"/>
       <c r="K79" s="127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L79" s="128"/>
       <c r="M79" s="128"/>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="81" ht="24" customHeight="1">
       <c r="B81" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C81" s="99">
         <v>0.0064102564102564135</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="B85" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" s="61">
         <v>9615.3846153846</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="B86" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C86" s="119"/>
       <c r="D86" s="120"/>
@@ -4797,22 +4797,22 @@
     </row>
     <row r="88">
       <c r="B88" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C88" s="127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D88" s="128"/>
       <c r="E88" s="128"/>
       <c r="F88" s="129"/>
       <c r="G88" s="128" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H88" s="128"/>
       <c r="I88" s="128"/>
       <c r="J88" s="129"/>
       <c r="K88" s="127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L88" s="128"/>
       <c r="M88" s="128"/>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="90" ht="24" customHeight="1">
       <c r="B90" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C90" s="99">
         <v>0.0064102564102564135</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="B94" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" s="61">
         <v>9615.3846153846</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="B95" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C95" s="119"/>
       <c r="D95" s="120"/>
@@ -5121,22 +5121,22 @@
     </row>
     <row r="97">
       <c r="B97" s="52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C97" s="127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D97" s="128"/>
       <c r="E97" s="128"/>
       <c r="F97" s="129"/>
       <c r="G97" s="128" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H97" s="128"/>
       <c r="I97" s="128"/>
       <c r="J97" s="129"/>
       <c r="K97" s="127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L97" s="128"/>
       <c r="M97" s="128"/>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="99" ht="24" customHeight="1">
       <c r="B99" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" s="99">
         <v>0.0064102564102564135</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="B103" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C103" s="61">
         <v>9615.3846153846</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="B104" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C104" s="119"/>
       <c r="D104" s="120"/>
@@ -5445,22 +5445,22 @@
     </row>
     <row r="106">
       <c r="B106" s="52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C106" s="127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D106" s="128"/>
       <c r="E106" s="128"/>
       <c r="F106" s="129"/>
       <c r="G106" s="128" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H106" s="128"/>
       <c r="I106" s="128"/>
       <c r="J106" s="129"/>
       <c r="K106" s="127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L106" s="128"/>
       <c r="M106" s="128"/>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="108" ht="24" customHeight="1">
       <c r="B108" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C108" s="99">
         <v>0.0064102564102564135</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="112" ht="24" customHeight="1">
       <c r="B112" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C112" s="61">
         <v>9615.3846153846</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="B113" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" s="119"/>
       <c r="D113" s="120"/>
@@ -5769,22 +5769,22 @@
     </row>
     <row r="115">
       <c r="B115" s="52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C115" s="127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D115" s="128"/>
       <c r="E115" s="128"/>
       <c r="F115" s="129"/>
       <c r="G115" s="128" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H115" s="128"/>
       <c r="I115" s="128"/>
       <c r="J115" s="129"/>
       <c r="K115" s="127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L115" s="128"/>
       <c r="M115" s="128"/>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="117" ht="24" customHeight="1">
       <c r="B117" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C117" s="99">
         <v>0.08333333333333337</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="121" ht="24" customHeight="1">
       <c r="B121" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C121" s="61">
         <v>125000</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="B122" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C122" s="119"/>
       <c r="D122" s="120"/>
@@ -6093,22 +6093,22 @@
     </row>
     <row r="124">
       <c r="B124" s="52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C124" s="127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D124" s="128"/>
       <c r="E124" s="128"/>
       <c r="F124" s="129"/>
       <c r="G124" s="128" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H124" s="128"/>
       <c r="I124" s="128"/>
       <c r="J124" s="129"/>
       <c r="K124" s="127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L124" s="128"/>
       <c r="M124" s="128"/>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="126" ht="24" customHeight="1">
       <c r="B126" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C126" s="99">
         <v>0.08333333333333337</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="130" ht="24" customHeight="1">
       <c r="B130" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C130" s="61">
         <v>125000</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="B131" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C131" s="119"/>
       <c r="D131" s="120"/>
@@ -6417,22 +6417,22 @@
     </row>
     <row r="133">
       <c r="B133" s="52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C133" s="127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D133" s="128"/>
       <c r="E133" s="128"/>
       <c r="F133" s="129"/>
       <c r="G133" s="128" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H133" s="128"/>
       <c r="I133" s="128"/>
       <c r="J133" s="129"/>
       <c r="K133" s="127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L133" s="128"/>
       <c r="M133" s="128"/>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="135" ht="24" customHeight="1">
       <c r="B135" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C135" s="99">
         <v>0.08333333333333337</v>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="139" ht="24" customHeight="1">
       <c r="B139" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C139" s="61">
         <v>125000</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="B140" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C140" s="119"/>
       <c r="D140" s="120"/>
@@ -6741,22 +6741,22 @@
     </row>
     <row r="142">
       <c r="B142" s="52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C142" s="127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D142" s="128"/>
       <c r="E142" s="128"/>
       <c r="F142" s="129"/>
       <c r="G142" s="128" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H142" s="128"/>
       <c r="I142" s="128"/>
       <c r="J142" s="129"/>
       <c r="K142" s="127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L142" s="128"/>
       <c r="M142" s="128"/>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="144" ht="24" customHeight="1">
       <c r="B144" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C144" s="99">
         <v>0.08333333333333337</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="148" ht="24" customHeight="1">
       <c r="B148" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C148" s="61">
         <v>125000</v>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="B149" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C149" s="119"/>
       <c r="D149" s="120"/>
@@ -7065,23 +7065,23 @@
     </row>
     <row r="151">
       <c r="B151" s="52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C151" s="127" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D151" s="128"/>
       <c r="E151" s="128"/>
       <c r="F151" s="129"/>
       <c r="G151" s="128" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H151" s="128"/>
       <c r="I151" s="128"/>
       <c r="J151" s="128"/>
       <c r="K151" s="129"/>
       <c r="L151" s="127" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M151" s="128"/>
       <c r="N151" s="128"/>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="153" ht="24" customHeight="1">
       <c r="B153" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C153" s="99">
         <v>0.0064102564102564135</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="157" ht="24" customHeight="1">
       <c r="B157" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C157" s="61">
         <v>9615.3846153846</v>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="158" ht="30" customHeight="1">
       <c r="B158" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C158" s="119"/>
       <c r="D158" s="120"/>
@@ -7389,23 +7389,23 @@
     </row>
     <row r="160">
       <c r="B160" s="52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C160" s="127" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D160" s="128"/>
       <c r="E160" s="128"/>
       <c r="F160" s="129"/>
       <c r="G160" s="128" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H160" s="128"/>
       <c r="I160" s="128"/>
       <c r="J160" s="128"/>
       <c r="K160" s="129"/>
       <c r="L160" s="127" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M160" s="128"/>
       <c r="N160" s="128"/>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="162" ht="24" customHeight="1">
       <c r="B162" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C162" s="99">
         <v>0.0064102564102564135</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="166" ht="24" customHeight="1">
       <c r="B166" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C166" s="61">
         <v>9615.3846153846</v>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="B167" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C167" s="119"/>
       <c r="D167" s="120"/>
@@ -7713,23 +7713,23 @@
     </row>
     <row r="169">
       <c r="B169" s="52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C169" s="127" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D169" s="128"/>
       <c r="E169" s="128"/>
       <c r="F169" s="129"/>
       <c r="G169" s="128" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H169" s="128"/>
       <c r="I169" s="128"/>
       <c r="J169" s="128"/>
       <c r="K169" s="129"/>
       <c r="L169" s="127" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M169" s="128"/>
       <c r="N169" s="128"/>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="171" ht="24" customHeight="1">
       <c r="B171" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C171" s="99">
         <v>0.0064102564102564135</v>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="175" ht="24" customHeight="1">
       <c r="B175" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C175" s="61">
         <v>9615.3846153846</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="B176" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C176" s="119"/>
       <c r="D176" s="120"/>
@@ -8037,23 +8037,23 @@
     </row>
     <row r="178">
       <c r="B178" s="52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C178" s="127" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D178" s="128"/>
       <c r="E178" s="128"/>
       <c r="F178" s="129"/>
       <c r="G178" s="128" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H178" s="128"/>
       <c r="I178" s="128"/>
       <c r="J178" s="128"/>
       <c r="K178" s="129"/>
       <c r="L178" s="127" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M178" s="128"/>
       <c r="N178" s="128"/>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="180" ht="24" customHeight="1">
       <c r="B180" s="117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C180" s="99">
         <v>0.0064102564102564135</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="184" ht="24" customHeight="1">
       <c r="B184" s="118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C184" s="61">
         <v>9615.3846153846</v>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="185" ht="30" customHeight="1">
       <c r="B185" s="107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C185" s="119"/>
       <c r="D185" s="120"/>
@@ -8541,7 +8541,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>16</v>
@@ -8574,7 +8574,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -11098,10 +11098,10 @@
     <row r="2" ht="24" customHeight="1">
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -11136,25 +11136,25 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
       <c r="C5" s="123" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" s="123"/>
       <c r="E5" s="123" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F5" s="123"/>
       <c r="G5" s="123"/>
       <c r="H5" s="70"/>
       <c r="I5" s="123" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J5" s="123"/>
       <c r="K5" s="123" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" s="123"/>
       <c r="M5" s="123" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N5" s="123"/>
       <c r="O5" s="65" t="s">
@@ -11186,7 +11186,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="9"/>
@@ -11202,7 +11202,7 @@
       <c r="M7" s="128"/>
       <c r="N7" s="129"/>
       <c r="O7" s="127" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P7" s="128"/>
       <c r="Q7" s="128"/>
@@ -11213,14 +11213,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>23</v>
@@ -11274,14 +11274,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="74">
         <v>0</v>
@@ -11335,14 +11335,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" s="74">
         <v>0</v>
@@ -11396,14 +11396,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="74">
         <v>0</v>
@@ -11457,14 +11457,14 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E12" s="74">
         <v>0</v>
@@ -11518,14 +11518,14 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="74">
         <v>0</v>
@@ -11581,7 +11581,7 @@
       <c r="B14" s="27"/>
       <c r="C14" s="38"/>
       <c r="D14" s="39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E14" s="50">
         <v>0</v>
@@ -11639,13 +11639,13 @@
     <row r="16" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B16" s="57"/>
       <c r="H16" s="81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B17" s="57"/>
       <c r="H17" s="127" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I17" s="128"/>
       <c r="J17" s="128"/>
@@ -11708,7 +11708,7 @@
     </row>
     <row r="19" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="A19" s="71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="57"/>
       <c r="H19" s="115">
@@ -11742,7 +11742,7 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="57"/>
       <c r="H20" s="115">
@@ -11776,7 +11776,7 @@
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" s="57"/>
       <c r="H21" s="115">
@@ -11810,7 +11810,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="57"/>
       <c r="H22" s="115">
@@ -11844,7 +11844,7 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" s="57"/>
       <c r="H23" s="115">
@@ -11948,7 +11948,7 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="C28" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="52"/>
       <c r="E28" s="9"/>
@@ -11964,7 +11964,7 @@
       <c r="M28" s="128"/>
       <c r="N28" s="129"/>
       <c r="O28" s="127" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P28" s="128"/>
       <c r="Q28" s="128"/>
@@ -11975,14 +11975,14 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" s="39" t="s">
         <v>23</v>
@@ -12036,14 +12036,14 @@
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" s="74">
         <v>0</v>
@@ -12097,14 +12097,14 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="E31" s="74">
         <v>0</v>
@@ -12158,14 +12158,14 @@
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32" s="74">
         <v>0</v>
@@ -12219,14 +12219,14 @@
     </row>
     <row r="33" ht="24" customHeight="1">
       <c r="A33" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E33" s="74">
         <v>0</v>
@@ -12282,7 +12282,7 @@
       <c r="B34" s="27"/>
       <c r="C34" s="38"/>
       <c r="D34" s="39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E34" s="50">
         <v>0</v>
@@ -12336,7 +12336,7 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="C36" s="52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="9"/>
@@ -12352,7 +12352,7 @@
       <c r="M36" s="128"/>
       <c r="N36" s="129"/>
       <c r="O36" s="127" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P36" s="128"/>
       <c r="Q36" s="128"/>
@@ -12363,14 +12363,14 @@
     </row>
     <row r="37" ht="24" customHeight="1">
       <c r="A37" s="69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E37" s="39" t="s">
         <v>23</v>
@@ -12424,14 +12424,14 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E38" s="74">
         <v>0</v>
@@ -12485,14 +12485,14 @@
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="A39" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="E39" s="74">
         <v>0</v>
@@ -12548,7 +12548,7 @@
       <c r="B40" s="27"/>
       <c r="C40" s="38"/>
       <c r="D40" s="39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E40" s="50">
         <v>0</v>
@@ -12618,7 +12618,7 @@
       <c r="M42" s="128"/>
       <c r="N42" s="129"/>
       <c r="O42" s="127" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P42" s="128"/>
       <c r="Q42" s="128"/>
@@ -12629,14 +12629,14 @@
     </row>
     <row r="43" ht="24" customHeight="1">
       <c r="A43" s="69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>23</v>
@@ -12690,14 +12690,14 @@
     </row>
     <row r="44" ht="24" customHeight="1">
       <c r="A44" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E44" s="74">
         <v>0</v>
@@ -12751,14 +12751,14 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="A45" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="74">
         <v>0</v>
@@ -12812,14 +12812,14 @@
     </row>
     <row r="46" ht="24" customHeight="1">
       <c r="A46" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E46" s="74">
         <v>0</v>
@@ -12873,14 +12873,14 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="A47" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E47" s="74">
         <v>0</v>
@@ -12934,14 +12934,14 @@
     </row>
     <row r="48" ht="24" customHeight="1">
       <c r="A48" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="74">
         <v>0</v>
@@ -12995,14 +12995,14 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="A49" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" s="27"/>
       <c r="C49" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E49" s="74">
         <v>0</v>
@@ -13056,14 +13056,14 @@
     </row>
     <row r="50" ht="24" customHeight="1">
       <c r="A50" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="E50" s="74">
         <v>0</v>
@@ -13119,7 +13119,7 @@
       <c r="B51" s="27"/>
       <c r="C51" s="38"/>
       <c r="D51" s="39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" s="50">
         <v>0</v>
@@ -13179,7 +13179,7 @@
       <c r="D53" s="54"/>
       <c r="E53" s="72"/>
       <c r="F53" s="133" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G53" s="133"/>
       <c r="H53" s="133"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D55" s="54"/>
       <c r="F55" s="133" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="G55" s="133"/>
       <c r="H55" s="133"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>A18-54</t>
+  </si>
+  <si>
+    <t>A35-49</t>
+  </si>
+  <si>
+    <t>A25+</t>
   </si>
   <si>
     <t>MDN</t>
@@ -739,7 +745,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="128">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -1057,24 +1063,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
@@ -1860,21 +1848,21 @@
         <f>'PROPOSAL'!O5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
     </row>
     <row r="6" ht="24" customHeight="1">
       <c r="P6" s="57"/>
@@ -1883,25 +1871,25 @@
       <c r="B7" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="128" t="s">
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="127" t="s">
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="129"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="123"/>
       <c r="P7" s="32"/>
     </row>
     <row r="8" ht="24" customHeight="1">
@@ -1950,7 +1938,7 @@
       </c>
     </row>
     <row r="9" ht="24" customHeight="1">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="99">
@@ -1997,7 +1985,7 @@
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="102">
@@ -2044,7 +2032,7 @@
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="101">
@@ -2091,7 +2079,7 @@
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="104">
@@ -2138,7 +2126,7 @@
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="61">
@@ -2188,44 +2176,44 @@
       <c r="B14" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="122"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="116"/>
     </row>
     <row r="16">
       <c r="B16" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="128" t="s">
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="127" t="s">
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="129"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="32"/>
     </row>
     <row r="17" ht="24" customHeight="1">
@@ -2274,7 +2262,7 @@
       </c>
     </row>
     <row r="18" ht="24" customHeight="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="99">
@@ -2321,7 +2309,7 @@
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="102">
@@ -2368,7 +2356,7 @@
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="101">
@@ -2415,7 +2403,7 @@
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="104">
@@ -2462,7 +2450,7 @@
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="61">
@@ -2512,44 +2500,44 @@
       <c r="B23" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="122"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="116"/>
     </row>
     <row r="25">
       <c r="B25" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="128" t="s">
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="127" t="s">
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="129"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="123"/>
       <c r="P25" s="32"/>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -2598,7 +2586,7 @@
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="99">
@@ -2645,7 +2633,7 @@
       </c>
     </row>
     <row r="28" ht="24" customHeight="1">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="102">
@@ -2692,7 +2680,7 @@
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="101">
@@ -2739,7 +2727,7 @@
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="104">
@@ -2786,7 +2774,7 @@
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="61">
@@ -2836,44 +2824,44 @@
       <c r="B32" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="122"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="116"/>
     </row>
     <row r="34">
       <c r="B34" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="128" t="s">
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="127" t="s">
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="129"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="123"/>
       <c r="P34" s="32"/>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -2922,7 +2910,7 @@
       </c>
     </row>
     <row r="36" ht="24" customHeight="1">
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="99">
@@ -2969,7 +2957,7 @@
       </c>
     </row>
     <row r="37" ht="24" customHeight="1">
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="102">
@@ -3016,7 +3004,7 @@
       </c>
     </row>
     <row r="38" ht="24" customHeight="1">
-      <c r="B38" s="118" t="s">
+      <c r="B38" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="101">
@@ -3063,7 +3051,7 @@
       </c>
     </row>
     <row r="39" ht="24" customHeight="1">
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="104">
@@ -3110,7 +3098,7 @@
       </c>
     </row>
     <row r="40" ht="24" customHeight="1">
-      <c r="B40" s="118" t="s">
+      <c r="B40" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="61">
@@ -3160,44 +3148,44 @@
       <c r="B41" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="121"/>
-      <c r="P41" s="122"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="115"/>
+      <c r="P41" s="116"/>
     </row>
     <row r="43">
       <c r="B43" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="127" t="s">
+      <c r="C43" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="128" t="s">
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="127" t="s">
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="128"/>
-      <c r="O43" s="129"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="123"/>
       <c r="P43" s="32"/>
     </row>
     <row r="44" ht="24" customHeight="1">
@@ -3246,7 +3234,7 @@
       </c>
     </row>
     <row r="45" ht="24" customHeight="1">
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="99">
@@ -3293,7 +3281,7 @@
       </c>
     </row>
     <row r="46" ht="24" customHeight="1">
-      <c r="B46" s="118" t="s">
+      <c r="B46" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="102">
@@ -3340,7 +3328,7 @@
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="101">
@@ -3387,7 +3375,7 @@
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
-      <c r="B48" s="118" t="s">
+      <c r="B48" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="104">
@@ -3434,7 +3422,7 @@
       </c>
     </row>
     <row r="49" ht="24" customHeight="1">
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C49" s="61">
@@ -3484,44 +3472,44 @@
       <c r="B50" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="119"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="121"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="121"/>
-      <c r="P50" s="122"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="115"/>
+      <c r="P50" s="116"/>
     </row>
     <row r="52">
       <c r="B52" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="128" t="s">
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="127" t="s">
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L52" s="128"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="128"/>
-      <c r="O52" s="129"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="123"/>
       <c r="P52" s="32"/>
     </row>
     <row r="53" ht="24" customHeight="1">
@@ -3570,7 +3558,7 @@
       </c>
     </row>
     <row r="54" ht="24" customHeight="1">
-      <c r="B54" s="117" t="s">
+      <c r="B54" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C54" s="99">
@@ -3617,7 +3605,7 @@
       </c>
     </row>
     <row r="55" ht="24" customHeight="1">
-      <c r="B55" s="118" t="s">
+      <c r="B55" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="102">
@@ -3664,7 +3652,7 @@
       </c>
     </row>
     <row r="56" ht="24" customHeight="1">
-      <c r="B56" s="118" t="s">
+      <c r="B56" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="101">
@@ -3711,7 +3699,7 @@
       </c>
     </row>
     <row r="57" ht="24" customHeight="1">
-      <c r="B57" s="118" t="s">
+      <c r="B57" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="104">
@@ -3758,7 +3746,7 @@
       </c>
     </row>
     <row r="58" ht="24" customHeight="1">
-      <c r="B58" s="118" t="s">
+      <c r="B58" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="61">
@@ -3808,44 +3796,44 @@
       <c r="B59" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="121"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="120"/>
-      <c r="M59" s="120"/>
-      <c r="N59" s="120"/>
-      <c r="O59" s="121"/>
-      <c r="P59" s="122"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="114"/>
+      <c r="N59" s="114"/>
+      <c r="O59" s="115"/>
+      <c r="P59" s="116"/>
     </row>
     <row r="61">
       <c r="B61" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="127" t="s">
+      <c r="C61" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="128"/>
-      <c r="E61" s="128"/>
-      <c r="F61" s="129"/>
-      <c r="G61" s="128" t="s">
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="128"/>
-      <c r="I61" s="128"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="127" t="s">
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="123"/>
+      <c r="K61" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L61" s="128"/>
-      <c r="M61" s="128"/>
-      <c r="N61" s="128"/>
-      <c r="O61" s="129"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="122"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="123"/>
       <c r="P61" s="32"/>
     </row>
     <row r="62" ht="24" customHeight="1">
@@ -3894,7 +3882,7 @@
       </c>
     </row>
     <row r="63" ht="24" customHeight="1">
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C63" s="99">
@@ -3941,7 +3929,7 @@
       </c>
     </row>
     <row r="64" ht="24" customHeight="1">
-      <c r="B64" s="118" t="s">
+      <c r="B64" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="102">
@@ -3988,7 +3976,7 @@
       </c>
     </row>
     <row r="65" ht="24" customHeight="1">
-      <c r="B65" s="118" t="s">
+      <c r="B65" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="101">
@@ -4035,7 +4023,7 @@
       </c>
     </row>
     <row r="66" ht="24" customHeight="1">
-      <c r="B66" s="118" t="s">
+      <c r="B66" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="104">
@@ -4082,7 +4070,7 @@
       </c>
     </row>
     <row r="67" ht="24" customHeight="1">
-      <c r="B67" s="118" t="s">
+      <c r="B67" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C67" s="61">
@@ -4132,44 +4120,44 @@
       <c r="B68" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="119"/>
-      <c r="D68" s="120"/>
-      <c r="E68" s="120"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="119"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="120"/>
-      <c r="J68" s="121"/>
-      <c r="K68" s="119"/>
-      <c r="L68" s="120"/>
-      <c r="M68" s="120"/>
-      <c r="N68" s="120"/>
-      <c r="O68" s="121"/>
-      <c r="P68" s="122"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="113"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="115"/>
+      <c r="K68" s="113"/>
+      <c r="L68" s="114"/>
+      <c r="M68" s="114"/>
+      <c r="N68" s="114"/>
+      <c r="O68" s="115"/>
+      <c r="P68" s="116"/>
     </row>
     <row r="70">
       <c r="B70" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="127" t="s">
+      <c r="C70" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="128"/>
-      <c r="E70" s="128"/>
-      <c r="F70" s="129"/>
-      <c r="G70" s="128" t="s">
+      <c r="D70" s="122"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="123"/>
+      <c r="G70" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H70" s="128"/>
-      <c r="I70" s="128"/>
-      <c r="J70" s="129"/>
-      <c r="K70" s="127" t="s">
+      <c r="H70" s="122"/>
+      <c r="I70" s="122"/>
+      <c r="J70" s="123"/>
+      <c r="K70" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="L70" s="128"/>
-      <c r="M70" s="128"/>
-      <c r="N70" s="128"/>
-      <c r="O70" s="129"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="122"/>
+      <c r="N70" s="122"/>
+      <c r="O70" s="123"/>
       <c r="P70" s="32"/>
     </row>
     <row r="71" ht="24" customHeight="1">
@@ -4218,7 +4206,7 @@
       </c>
     </row>
     <row r="72" ht="24" customHeight="1">
-      <c r="B72" s="117" t="s">
+      <c r="B72" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C72" s="99">
@@ -4265,7 +4253,7 @@
       </c>
     </row>
     <row r="73" ht="24" customHeight="1">
-      <c r="B73" s="118" t="s">
+      <c r="B73" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="102">
@@ -4312,7 +4300,7 @@
       </c>
     </row>
     <row r="74" ht="24" customHeight="1">
-      <c r="B74" s="118" t="s">
+      <c r="B74" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="101">
@@ -4359,7 +4347,7 @@
       </c>
     </row>
     <row r="75" ht="24" customHeight="1">
-      <c r="B75" s="118" t="s">
+      <c r="B75" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C75" s="104">
@@ -4406,7 +4394,7 @@
       </c>
     </row>
     <row r="76" ht="24" customHeight="1">
-      <c r="B76" s="118" t="s">
+      <c r="B76" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C76" s="61">
@@ -4456,44 +4444,44 @@
       <c r="B77" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="119"/>
-      <c r="D77" s="120"/>
-      <c r="E77" s="120"/>
-      <c r="F77" s="120"/>
-      <c r="G77" s="119"/>
-      <c r="H77" s="120"/>
-      <c r="I77" s="120"/>
-      <c r="J77" s="121"/>
-      <c r="K77" s="119"/>
-      <c r="L77" s="120"/>
-      <c r="M77" s="120"/>
-      <c r="N77" s="120"/>
-      <c r="O77" s="121"/>
-      <c r="P77" s="122"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="113"/>
+      <c r="H77" s="114"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="113"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="114"/>
+      <c r="N77" s="114"/>
+      <c r="O77" s="115"/>
+      <c r="P77" s="116"/>
     </row>
     <row r="79">
       <c r="B79" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="127" t="s">
+      <c r="C79" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="128"/>
-      <c r="E79" s="128"/>
-      <c r="F79" s="129"/>
-      <c r="G79" s="128" t="s">
+      <c r="D79" s="122"/>
+      <c r="E79" s="122"/>
+      <c r="F79" s="123"/>
+      <c r="G79" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="H79" s="128"/>
-      <c r="I79" s="128"/>
-      <c r="J79" s="129"/>
-      <c r="K79" s="127" t="s">
+      <c r="H79" s="122"/>
+      <c r="I79" s="122"/>
+      <c r="J79" s="123"/>
+      <c r="K79" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="L79" s="128"/>
-      <c r="M79" s="128"/>
-      <c r="N79" s="128"/>
-      <c r="O79" s="129"/>
+      <c r="L79" s="122"/>
+      <c r="M79" s="122"/>
+      <c r="N79" s="122"/>
+      <c r="O79" s="123"/>
       <c r="P79" s="32"/>
     </row>
     <row r="80" ht="24" customHeight="1">
@@ -4542,7 +4530,7 @@
       </c>
     </row>
     <row r="81" ht="24" customHeight="1">
-      <c r="B81" s="117" t="s">
+      <c r="B81" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C81" s="99">
@@ -4589,7 +4577,7 @@
       </c>
     </row>
     <row r="82" ht="24" customHeight="1">
-      <c r="B82" s="118" t="s">
+      <c r="B82" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="102">
@@ -4636,7 +4624,7 @@
       </c>
     </row>
     <row r="83" ht="24" customHeight="1">
-      <c r="B83" s="118" t="s">
+      <c r="B83" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="101">
@@ -4683,7 +4671,7 @@
       </c>
     </row>
     <row r="84" ht="24" customHeight="1">
-      <c r="B84" s="118" t="s">
+      <c r="B84" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C84" s="104">
@@ -4730,7 +4718,7 @@
       </c>
     </row>
     <row r="85" ht="24" customHeight="1">
-      <c r="B85" s="118" t="s">
+      <c r="B85" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C85" s="61">
@@ -4780,44 +4768,44 @@
       <c r="B86" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="119"/>
-      <c r="D86" s="120"/>
-      <c r="E86" s="120"/>
-      <c r="F86" s="120"/>
-      <c r="G86" s="119"/>
-      <c r="H86" s="120"/>
-      <c r="I86" s="120"/>
-      <c r="J86" s="121"/>
-      <c r="K86" s="119"/>
-      <c r="L86" s="120"/>
-      <c r="M86" s="120"/>
-      <c r="N86" s="120"/>
-      <c r="O86" s="121"/>
-      <c r="P86" s="122"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="114"/>
+      <c r="G86" s="113"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="114"/>
+      <c r="J86" s="115"/>
+      <c r="K86" s="113"/>
+      <c r="L86" s="114"/>
+      <c r="M86" s="114"/>
+      <c r="N86" s="114"/>
+      <c r="O86" s="115"/>
+      <c r="P86" s="116"/>
     </row>
     <row r="88">
       <c r="B88" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="127" t="s">
+      <c r="C88" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="D88" s="128"/>
-      <c r="E88" s="128"/>
-      <c r="F88" s="129"/>
-      <c r="G88" s="128" t="s">
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="123"/>
+      <c r="G88" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="H88" s="128"/>
-      <c r="I88" s="128"/>
-      <c r="J88" s="129"/>
-      <c r="K88" s="127" t="s">
+      <c r="H88" s="122"/>
+      <c r="I88" s="122"/>
+      <c r="J88" s="123"/>
+      <c r="K88" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="L88" s="128"/>
-      <c r="M88" s="128"/>
-      <c r="N88" s="128"/>
-      <c r="O88" s="129"/>
+      <c r="L88" s="122"/>
+      <c r="M88" s="122"/>
+      <c r="N88" s="122"/>
+      <c r="O88" s="123"/>
       <c r="P88" s="32"/>
     </row>
     <row r="89" ht="24" customHeight="1">
@@ -4866,7 +4854,7 @@
       </c>
     </row>
     <row r="90" ht="24" customHeight="1">
-      <c r="B90" s="117" t="s">
+      <c r="B90" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C90" s="99">
@@ -4913,7 +4901,7 @@
       </c>
     </row>
     <row r="91" ht="24" customHeight="1">
-      <c r="B91" s="118" t="s">
+      <c r="B91" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C91" s="102">
@@ -4960,7 +4948,7 @@
       </c>
     </row>
     <row r="92" ht="24" customHeight="1">
-      <c r="B92" s="118" t="s">
+      <c r="B92" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="101">
@@ -5007,7 +4995,7 @@
       </c>
     </row>
     <row r="93" ht="24" customHeight="1">
-      <c r="B93" s="118" t="s">
+      <c r="B93" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="104">
@@ -5054,7 +5042,7 @@
       </c>
     </row>
     <row r="94" ht="24" customHeight="1">
-      <c r="B94" s="118" t="s">
+      <c r="B94" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C94" s="61">
@@ -5104,44 +5092,44 @@
       <c r="B95" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="119"/>
-      <c r="D95" s="120"/>
-      <c r="E95" s="120"/>
-      <c r="F95" s="120"/>
-      <c r="G95" s="119"/>
-      <c r="H95" s="120"/>
-      <c r="I95" s="120"/>
-      <c r="J95" s="121"/>
-      <c r="K95" s="119"/>
-      <c r="L95" s="120"/>
-      <c r="M95" s="120"/>
-      <c r="N95" s="120"/>
-      <c r="O95" s="121"/>
-      <c r="P95" s="122"/>
+      <c r="C95" s="113"/>
+      <c r="D95" s="114"/>
+      <c r="E95" s="114"/>
+      <c r="F95" s="114"/>
+      <c r="G95" s="113"/>
+      <c r="H95" s="114"/>
+      <c r="I95" s="114"/>
+      <c r="J95" s="115"/>
+      <c r="K95" s="113"/>
+      <c r="L95" s="114"/>
+      <c r="M95" s="114"/>
+      <c r="N95" s="114"/>
+      <c r="O95" s="115"/>
+      <c r="P95" s="116"/>
     </row>
     <row r="97">
       <c r="B97" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C97" s="127" t="s">
+      <c r="C97" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="D97" s="128"/>
-      <c r="E97" s="128"/>
-      <c r="F97" s="129"/>
-      <c r="G97" s="128" t="s">
+      <c r="D97" s="122"/>
+      <c r="E97" s="122"/>
+      <c r="F97" s="123"/>
+      <c r="G97" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="H97" s="128"/>
-      <c r="I97" s="128"/>
-      <c r="J97" s="129"/>
-      <c r="K97" s="127" t="s">
+      <c r="H97" s="122"/>
+      <c r="I97" s="122"/>
+      <c r="J97" s="123"/>
+      <c r="K97" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="L97" s="128"/>
-      <c r="M97" s="128"/>
-      <c r="N97" s="128"/>
-      <c r="O97" s="129"/>
+      <c r="L97" s="122"/>
+      <c r="M97" s="122"/>
+      <c r="N97" s="122"/>
+      <c r="O97" s="123"/>
       <c r="P97" s="32"/>
     </row>
     <row r="98" ht="24" customHeight="1">
@@ -5190,7 +5178,7 @@
       </c>
     </row>
     <row r="99" ht="24" customHeight="1">
-      <c r="B99" s="117" t="s">
+      <c r="B99" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C99" s="99">
@@ -5237,7 +5225,7 @@
       </c>
     </row>
     <row r="100" ht="24" customHeight="1">
-      <c r="B100" s="118" t="s">
+      <c r="B100" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C100" s="102">
@@ -5284,7 +5272,7 @@
       </c>
     </row>
     <row r="101" ht="24" customHeight="1">
-      <c r="B101" s="118" t="s">
+      <c r="B101" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C101" s="101">
@@ -5331,7 +5319,7 @@
       </c>
     </row>
     <row r="102" ht="24" customHeight="1">
-      <c r="B102" s="118" t="s">
+      <c r="B102" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C102" s="104">
@@ -5378,7 +5366,7 @@
       </c>
     </row>
     <row r="103" ht="24" customHeight="1">
-      <c r="B103" s="118" t="s">
+      <c r="B103" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C103" s="61">
@@ -5428,44 +5416,44 @@
       <c r="B104" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C104" s="119"/>
-      <c r="D104" s="120"/>
-      <c r="E104" s="120"/>
-      <c r="F104" s="120"/>
-      <c r="G104" s="119"/>
-      <c r="H104" s="120"/>
-      <c r="I104" s="120"/>
-      <c r="J104" s="121"/>
-      <c r="K104" s="119"/>
-      <c r="L104" s="120"/>
-      <c r="M104" s="120"/>
-      <c r="N104" s="120"/>
-      <c r="O104" s="121"/>
-      <c r="P104" s="122"/>
+      <c r="C104" s="113"/>
+      <c r="D104" s="114"/>
+      <c r="E104" s="114"/>
+      <c r="F104" s="114"/>
+      <c r="G104" s="113"/>
+      <c r="H104" s="114"/>
+      <c r="I104" s="114"/>
+      <c r="J104" s="115"/>
+      <c r="K104" s="113"/>
+      <c r="L104" s="114"/>
+      <c r="M104" s="114"/>
+      <c r="N104" s="114"/>
+      <c r="O104" s="115"/>
+      <c r="P104" s="116"/>
     </row>
     <row r="106">
       <c r="B106" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C106" s="127" t="s">
+      <c r="C106" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="D106" s="128"/>
-      <c r="E106" s="128"/>
-      <c r="F106" s="129"/>
-      <c r="G106" s="128" t="s">
+      <c r="D106" s="122"/>
+      <c r="E106" s="122"/>
+      <c r="F106" s="123"/>
+      <c r="G106" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="H106" s="128"/>
-      <c r="I106" s="128"/>
-      <c r="J106" s="129"/>
-      <c r="K106" s="127" t="s">
+      <c r="H106" s="122"/>
+      <c r="I106" s="122"/>
+      <c r="J106" s="123"/>
+      <c r="K106" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="L106" s="128"/>
-      <c r="M106" s="128"/>
-      <c r="N106" s="128"/>
-      <c r="O106" s="129"/>
+      <c r="L106" s="122"/>
+      <c r="M106" s="122"/>
+      <c r="N106" s="122"/>
+      <c r="O106" s="123"/>
       <c r="P106" s="32"/>
     </row>
     <row r="107" ht="24" customHeight="1">
@@ -5514,7 +5502,7 @@
       </c>
     </row>
     <row r="108" ht="24" customHeight="1">
-      <c r="B108" s="117" t="s">
+      <c r="B108" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C108" s="99">
@@ -5561,7 +5549,7 @@
       </c>
     </row>
     <row r="109" ht="24" customHeight="1">
-      <c r="B109" s="118" t="s">
+      <c r="B109" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C109" s="102">
@@ -5608,7 +5596,7 @@
       </c>
     </row>
     <row r="110" ht="24" customHeight="1">
-      <c r="B110" s="118" t="s">
+      <c r="B110" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C110" s="101">
@@ -5655,7 +5643,7 @@
       </c>
     </row>
     <row r="111" ht="24" customHeight="1">
-      <c r="B111" s="118" t="s">
+      <c r="B111" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C111" s="104">
@@ -5702,7 +5690,7 @@
       </c>
     </row>
     <row r="112" ht="24" customHeight="1">
-      <c r="B112" s="118" t="s">
+      <c r="B112" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C112" s="61">
@@ -5752,44 +5740,44 @@
       <c r="B113" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C113" s="119"/>
-      <c r="D113" s="120"/>
-      <c r="E113" s="120"/>
-      <c r="F113" s="120"/>
-      <c r="G113" s="119"/>
-      <c r="H113" s="120"/>
-      <c r="I113" s="120"/>
-      <c r="J113" s="121"/>
-      <c r="K113" s="119"/>
-      <c r="L113" s="120"/>
-      <c r="M113" s="120"/>
-      <c r="N113" s="120"/>
-      <c r="O113" s="121"/>
-      <c r="P113" s="122"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
+      <c r="G113" s="113"/>
+      <c r="H113" s="114"/>
+      <c r="I113" s="114"/>
+      <c r="J113" s="115"/>
+      <c r="K113" s="113"/>
+      <c r="L113" s="114"/>
+      <c r="M113" s="114"/>
+      <c r="N113" s="114"/>
+      <c r="O113" s="115"/>
+      <c r="P113" s="116"/>
     </row>
     <row r="115">
       <c r="B115" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C115" s="127" t="s">
+      <c r="C115" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="D115" s="128"/>
-      <c r="E115" s="128"/>
-      <c r="F115" s="129"/>
-      <c r="G115" s="128" t="s">
+      <c r="D115" s="122"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="123"/>
+      <c r="G115" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="H115" s="128"/>
-      <c r="I115" s="128"/>
-      <c r="J115" s="129"/>
-      <c r="K115" s="127" t="s">
+      <c r="H115" s="122"/>
+      <c r="I115" s="122"/>
+      <c r="J115" s="123"/>
+      <c r="K115" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="L115" s="128"/>
-      <c r="M115" s="128"/>
-      <c r="N115" s="128"/>
-      <c r="O115" s="129"/>
+      <c r="L115" s="122"/>
+      <c r="M115" s="122"/>
+      <c r="N115" s="122"/>
+      <c r="O115" s="123"/>
       <c r="P115" s="32"/>
     </row>
     <row r="116" ht="24" customHeight="1">
@@ -5838,7 +5826,7 @@
       </c>
     </row>
     <row r="117" ht="24" customHeight="1">
-      <c r="B117" s="117" t="s">
+      <c r="B117" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C117" s="99">
@@ -5885,7 +5873,7 @@
       </c>
     </row>
     <row r="118" ht="24" customHeight="1">
-      <c r="B118" s="118" t="s">
+      <c r="B118" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C118" s="102">
@@ -5932,7 +5920,7 @@
       </c>
     </row>
     <row r="119" ht="24" customHeight="1">
-      <c r="B119" s="118" t="s">
+      <c r="B119" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="101">
@@ -5979,7 +5967,7 @@
       </c>
     </row>
     <row r="120" ht="24" customHeight="1">
-      <c r="B120" s="118" t="s">
+      <c r="B120" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C120" s="104">
@@ -6026,7 +6014,7 @@
       </c>
     </row>
     <row r="121" ht="24" customHeight="1">
-      <c r="B121" s="118" t="s">
+      <c r="B121" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C121" s="61">
@@ -6076,44 +6064,44 @@
       <c r="B122" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C122" s="119"/>
-      <c r="D122" s="120"/>
-      <c r="E122" s="120"/>
-      <c r="F122" s="120"/>
-      <c r="G122" s="119"/>
-      <c r="H122" s="120"/>
-      <c r="I122" s="120"/>
-      <c r="J122" s="121"/>
-      <c r="K122" s="119"/>
-      <c r="L122" s="120"/>
-      <c r="M122" s="120"/>
-      <c r="N122" s="120"/>
-      <c r="O122" s="121"/>
-      <c r="P122" s="122"/>
+      <c r="C122" s="113"/>
+      <c r="D122" s="114"/>
+      <c r="E122" s="114"/>
+      <c r="F122" s="114"/>
+      <c r="G122" s="113"/>
+      <c r="H122" s="114"/>
+      <c r="I122" s="114"/>
+      <c r="J122" s="115"/>
+      <c r="K122" s="113"/>
+      <c r="L122" s="114"/>
+      <c r="M122" s="114"/>
+      <c r="N122" s="114"/>
+      <c r="O122" s="115"/>
+      <c r="P122" s="116"/>
     </row>
     <row r="124">
       <c r="B124" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="127" t="s">
+      <c r="C124" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="D124" s="128"/>
-      <c r="E124" s="128"/>
-      <c r="F124" s="129"/>
-      <c r="G124" s="128" t="s">
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="123"/>
+      <c r="G124" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="H124" s="128"/>
-      <c r="I124" s="128"/>
-      <c r="J124" s="129"/>
-      <c r="K124" s="127" t="s">
+      <c r="H124" s="122"/>
+      <c r="I124" s="122"/>
+      <c r="J124" s="123"/>
+      <c r="K124" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="L124" s="128"/>
-      <c r="M124" s="128"/>
-      <c r="N124" s="128"/>
-      <c r="O124" s="129"/>
+      <c r="L124" s="122"/>
+      <c r="M124" s="122"/>
+      <c r="N124" s="122"/>
+      <c r="O124" s="123"/>
       <c r="P124" s="32"/>
     </row>
     <row r="125" ht="24" customHeight="1">
@@ -6162,7 +6150,7 @@
       </c>
     </row>
     <row r="126" ht="24" customHeight="1">
-      <c r="B126" s="117" t="s">
+      <c r="B126" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C126" s="99">
@@ -6209,7 +6197,7 @@
       </c>
     </row>
     <row r="127" ht="24" customHeight="1">
-      <c r="B127" s="118" t="s">
+      <c r="B127" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C127" s="102">
@@ -6256,7 +6244,7 @@
       </c>
     </row>
     <row r="128" ht="24" customHeight="1">
-      <c r="B128" s="118" t="s">
+      <c r="B128" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C128" s="101">
@@ -6303,7 +6291,7 @@
       </c>
     </row>
     <row r="129" ht="24" customHeight="1">
-      <c r="B129" s="118" t="s">
+      <c r="B129" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C129" s="104">
@@ -6350,7 +6338,7 @@
       </c>
     </row>
     <row r="130" ht="24" customHeight="1">
-      <c r="B130" s="118" t="s">
+      <c r="B130" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C130" s="61">
@@ -6400,44 +6388,44 @@
       <c r="B131" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C131" s="119"/>
-      <c r="D131" s="120"/>
-      <c r="E131" s="120"/>
-      <c r="F131" s="120"/>
-      <c r="G131" s="119"/>
-      <c r="H131" s="120"/>
-      <c r="I131" s="120"/>
-      <c r="J131" s="121"/>
-      <c r="K131" s="119"/>
-      <c r="L131" s="120"/>
-      <c r="M131" s="120"/>
-      <c r="N131" s="120"/>
-      <c r="O131" s="121"/>
-      <c r="P131" s="122"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
+      <c r="G131" s="113"/>
+      <c r="H131" s="114"/>
+      <c r="I131" s="114"/>
+      <c r="J131" s="115"/>
+      <c r="K131" s="113"/>
+      <c r="L131" s="114"/>
+      <c r="M131" s="114"/>
+      <c r="N131" s="114"/>
+      <c r="O131" s="115"/>
+      <c r="P131" s="116"/>
     </row>
     <row r="133">
       <c r="B133" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C133" s="127" t="s">
+      <c r="C133" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="D133" s="128"/>
-      <c r="E133" s="128"/>
-      <c r="F133" s="129"/>
-      <c r="G133" s="128" t="s">
+      <c r="D133" s="122"/>
+      <c r="E133" s="122"/>
+      <c r="F133" s="123"/>
+      <c r="G133" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="H133" s="128"/>
-      <c r="I133" s="128"/>
-      <c r="J133" s="129"/>
-      <c r="K133" s="127" t="s">
+      <c r="H133" s="122"/>
+      <c r="I133" s="122"/>
+      <c r="J133" s="123"/>
+      <c r="K133" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="L133" s="128"/>
-      <c r="M133" s="128"/>
-      <c r="N133" s="128"/>
-      <c r="O133" s="129"/>
+      <c r="L133" s="122"/>
+      <c r="M133" s="122"/>
+      <c r="N133" s="122"/>
+      <c r="O133" s="123"/>
       <c r="P133" s="32"/>
     </row>
     <row r="134" ht="24" customHeight="1">
@@ -6486,7 +6474,7 @@
       </c>
     </row>
     <row r="135" ht="24" customHeight="1">
-      <c r="B135" s="117" t="s">
+      <c r="B135" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C135" s="99">
@@ -6533,7 +6521,7 @@
       </c>
     </row>
     <row r="136" ht="24" customHeight="1">
-      <c r="B136" s="118" t="s">
+      <c r="B136" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C136" s="102">
@@ -6580,7 +6568,7 @@
       </c>
     </row>
     <row r="137" ht="24" customHeight="1">
-      <c r="B137" s="118" t="s">
+      <c r="B137" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="101">
@@ -6627,7 +6615,7 @@
       </c>
     </row>
     <row r="138" ht="24" customHeight="1">
-      <c r="B138" s="118" t="s">
+      <c r="B138" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C138" s="104">
@@ -6674,7 +6662,7 @@
       </c>
     </row>
     <row r="139" ht="24" customHeight="1">
-      <c r="B139" s="118" t="s">
+      <c r="B139" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C139" s="61">
@@ -6724,44 +6712,44 @@
       <c r="B140" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C140" s="119"/>
-      <c r="D140" s="120"/>
-      <c r="E140" s="120"/>
-      <c r="F140" s="120"/>
-      <c r="G140" s="119"/>
-      <c r="H140" s="120"/>
-      <c r="I140" s="120"/>
-      <c r="J140" s="121"/>
-      <c r="K140" s="119"/>
-      <c r="L140" s="120"/>
-      <c r="M140" s="120"/>
-      <c r="N140" s="120"/>
-      <c r="O140" s="121"/>
-      <c r="P140" s="122"/>
+      <c r="C140" s="113"/>
+      <c r="D140" s="114"/>
+      <c r="E140" s="114"/>
+      <c r="F140" s="114"/>
+      <c r="G140" s="113"/>
+      <c r="H140" s="114"/>
+      <c r="I140" s="114"/>
+      <c r="J140" s="115"/>
+      <c r="K140" s="113"/>
+      <c r="L140" s="114"/>
+      <c r="M140" s="114"/>
+      <c r="N140" s="114"/>
+      <c r="O140" s="115"/>
+      <c r="P140" s="116"/>
     </row>
     <row r="142">
       <c r="B142" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C142" s="127" t="s">
+      <c r="C142" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="D142" s="128"/>
-      <c r="E142" s="128"/>
-      <c r="F142" s="129"/>
-      <c r="G142" s="128" t="s">
+      <c r="D142" s="122"/>
+      <c r="E142" s="122"/>
+      <c r="F142" s="123"/>
+      <c r="G142" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="H142" s="128"/>
-      <c r="I142" s="128"/>
-      <c r="J142" s="129"/>
-      <c r="K142" s="127" t="s">
+      <c r="H142" s="122"/>
+      <c r="I142" s="122"/>
+      <c r="J142" s="123"/>
+      <c r="K142" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="L142" s="128"/>
-      <c r="M142" s="128"/>
-      <c r="N142" s="128"/>
-      <c r="O142" s="129"/>
+      <c r="L142" s="122"/>
+      <c r="M142" s="122"/>
+      <c r="N142" s="122"/>
+      <c r="O142" s="123"/>
       <c r="P142" s="32"/>
     </row>
     <row r="143" ht="24" customHeight="1">
@@ -6810,7 +6798,7 @@
       </c>
     </row>
     <row r="144" ht="24" customHeight="1">
-      <c r="B144" s="117" t="s">
+      <c r="B144" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C144" s="99">
@@ -6857,7 +6845,7 @@
       </c>
     </row>
     <row r="145" ht="24" customHeight="1">
-      <c r="B145" s="118" t="s">
+      <c r="B145" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C145" s="102">
@@ -6904,7 +6892,7 @@
       </c>
     </row>
     <row r="146" ht="24" customHeight="1">
-      <c r="B146" s="118" t="s">
+      <c r="B146" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C146" s="101">
@@ -6951,7 +6939,7 @@
       </c>
     </row>
     <row r="147" ht="24" customHeight="1">
-      <c r="B147" s="118" t="s">
+      <c r="B147" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C147" s="104">
@@ -6998,7 +6986,7 @@
       </c>
     </row>
     <row r="148" ht="24" customHeight="1">
-      <c r="B148" s="118" t="s">
+      <c r="B148" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C148" s="61">
@@ -7048,44 +7036,44 @@
       <c r="B149" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C149" s="119"/>
-      <c r="D149" s="120"/>
-      <c r="E149" s="120"/>
-      <c r="F149" s="120"/>
-      <c r="G149" s="119"/>
-      <c r="H149" s="120"/>
-      <c r="I149" s="120"/>
-      <c r="J149" s="121"/>
-      <c r="K149" s="119"/>
-      <c r="L149" s="120"/>
-      <c r="M149" s="120"/>
-      <c r="N149" s="120"/>
-      <c r="O149" s="121"/>
-      <c r="P149" s="122"/>
+      <c r="C149" s="113"/>
+      <c r="D149" s="114"/>
+      <c r="E149" s="114"/>
+      <c r="F149" s="114"/>
+      <c r="G149" s="113"/>
+      <c r="H149" s="114"/>
+      <c r="I149" s="114"/>
+      <c r="J149" s="115"/>
+      <c r="K149" s="113"/>
+      <c r="L149" s="114"/>
+      <c r="M149" s="114"/>
+      <c r="N149" s="114"/>
+      <c r="O149" s="115"/>
+      <c r="P149" s="116"/>
     </row>
     <row r="151">
       <c r="B151" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C151" s="127" t="s">
+      <c r="C151" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="D151" s="128"/>
-      <c r="E151" s="128"/>
-      <c r="F151" s="129"/>
-      <c r="G151" s="128" t="s">
+      <c r="D151" s="122"/>
+      <c r="E151" s="122"/>
+      <c r="F151" s="123"/>
+      <c r="G151" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="H151" s="128"/>
-      <c r="I151" s="128"/>
-      <c r="J151" s="128"/>
-      <c r="K151" s="129"/>
-      <c r="L151" s="127" t="s">
+      <c r="H151" s="122"/>
+      <c r="I151" s="122"/>
+      <c r="J151" s="122"/>
+      <c r="K151" s="123"/>
+      <c r="L151" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="M151" s="128"/>
-      <c r="N151" s="128"/>
-      <c r="O151" s="129"/>
+      <c r="M151" s="122"/>
+      <c r="N151" s="122"/>
+      <c r="O151" s="123"/>
       <c r="P151" s="32"/>
     </row>
     <row r="152" ht="24" customHeight="1">
@@ -7134,7 +7122,7 @@
       </c>
     </row>
     <row r="153" ht="24" customHeight="1">
-      <c r="B153" s="117" t="s">
+      <c r="B153" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C153" s="99">
@@ -7181,7 +7169,7 @@
       </c>
     </row>
     <row r="154" ht="24" customHeight="1">
-      <c r="B154" s="118" t="s">
+      <c r="B154" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C154" s="102">
@@ -7228,7 +7216,7 @@
       </c>
     </row>
     <row r="155" ht="24" customHeight="1">
-      <c r="B155" s="118" t="s">
+      <c r="B155" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C155" s="101">
@@ -7275,7 +7263,7 @@
       </c>
     </row>
     <row r="156" ht="24" customHeight="1">
-      <c r="B156" s="118" t="s">
+      <c r="B156" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C156" s="104">
@@ -7322,7 +7310,7 @@
       </c>
     </row>
     <row r="157" ht="24" customHeight="1">
-      <c r="B157" s="118" t="s">
+      <c r="B157" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C157" s="61">
@@ -7372,44 +7360,44 @@
       <c r="B158" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C158" s="119"/>
-      <c r="D158" s="120"/>
-      <c r="E158" s="120"/>
-      <c r="F158" s="120"/>
-      <c r="G158" s="119"/>
-      <c r="H158" s="120"/>
-      <c r="I158" s="120"/>
-      <c r="J158" s="120"/>
-      <c r="K158" s="121"/>
-      <c r="L158" s="119"/>
-      <c r="M158" s="120"/>
-      <c r="N158" s="120"/>
-      <c r="O158" s="121"/>
-      <c r="P158" s="122"/>
+      <c r="C158" s="113"/>
+      <c r="D158" s="114"/>
+      <c r="E158" s="114"/>
+      <c r="F158" s="114"/>
+      <c r="G158" s="113"/>
+      <c r="H158" s="114"/>
+      <c r="I158" s="114"/>
+      <c r="J158" s="114"/>
+      <c r="K158" s="115"/>
+      <c r="L158" s="113"/>
+      <c r="M158" s="114"/>
+      <c r="N158" s="114"/>
+      <c r="O158" s="115"/>
+      <c r="P158" s="116"/>
     </row>
     <row r="160">
       <c r="B160" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C160" s="127" t="s">
+      <c r="C160" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="D160" s="128"/>
-      <c r="E160" s="128"/>
-      <c r="F160" s="129"/>
-      <c r="G160" s="128" t="s">
+      <c r="D160" s="122"/>
+      <c r="E160" s="122"/>
+      <c r="F160" s="123"/>
+      <c r="G160" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="H160" s="128"/>
-      <c r="I160" s="128"/>
-      <c r="J160" s="128"/>
-      <c r="K160" s="129"/>
-      <c r="L160" s="127" t="s">
+      <c r="H160" s="122"/>
+      <c r="I160" s="122"/>
+      <c r="J160" s="122"/>
+      <c r="K160" s="123"/>
+      <c r="L160" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="M160" s="128"/>
-      <c r="N160" s="128"/>
-      <c r="O160" s="129"/>
+      <c r="M160" s="122"/>
+      <c r="N160" s="122"/>
+      <c r="O160" s="123"/>
       <c r="P160" s="32"/>
     </row>
     <row r="161" ht="24" customHeight="1">
@@ -7458,7 +7446,7 @@
       </c>
     </row>
     <row r="162" ht="24" customHeight="1">
-      <c r="B162" s="117" t="s">
+      <c r="B162" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C162" s="99">
@@ -7505,7 +7493,7 @@
       </c>
     </row>
     <row r="163" ht="24" customHeight="1">
-      <c r="B163" s="118" t="s">
+      <c r="B163" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C163" s="102">
@@ -7552,7 +7540,7 @@
       </c>
     </row>
     <row r="164" ht="24" customHeight="1">
-      <c r="B164" s="118" t="s">
+      <c r="B164" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C164" s="101">
@@ -7599,7 +7587,7 @@
       </c>
     </row>
     <row r="165" ht="24" customHeight="1">
-      <c r="B165" s="118" t="s">
+      <c r="B165" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C165" s="104">
@@ -7646,7 +7634,7 @@
       </c>
     </row>
     <row r="166" ht="24" customHeight="1">
-      <c r="B166" s="118" t="s">
+      <c r="B166" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C166" s="61">
@@ -7696,44 +7684,44 @@
       <c r="B167" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C167" s="119"/>
-      <c r="D167" s="120"/>
-      <c r="E167" s="120"/>
-      <c r="F167" s="120"/>
-      <c r="G167" s="119"/>
-      <c r="H167" s="120"/>
-      <c r="I167" s="120"/>
-      <c r="J167" s="120"/>
-      <c r="K167" s="121"/>
-      <c r="L167" s="119"/>
-      <c r="M167" s="120"/>
-      <c r="N167" s="120"/>
-      <c r="O167" s="121"/>
-      <c r="P167" s="122"/>
+      <c r="C167" s="113"/>
+      <c r="D167" s="114"/>
+      <c r="E167" s="114"/>
+      <c r="F167" s="114"/>
+      <c r="G167" s="113"/>
+      <c r="H167" s="114"/>
+      <c r="I167" s="114"/>
+      <c r="J167" s="114"/>
+      <c r="K167" s="115"/>
+      <c r="L167" s="113"/>
+      <c r="M167" s="114"/>
+      <c r="N167" s="114"/>
+      <c r="O167" s="115"/>
+      <c r="P167" s="116"/>
     </row>
     <row r="169">
       <c r="B169" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C169" s="127" t="s">
+      <c r="C169" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="D169" s="128"/>
-      <c r="E169" s="128"/>
-      <c r="F169" s="129"/>
-      <c r="G169" s="128" t="s">
+      <c r="D169" s="122"/>
+      <c r="E169" s="122"/>
+      <c r="F169" s="123"/>
+      <c r="G169" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="H169" s="128"/>
-      <c r="I169" s="128"/>
-      <c r="J169" s="128"/>
-      <c r="K169" s="129"/>
-      <c r="L169" s="127" t="s">
+      <c r="H169" s="122"/>
+      <c r="I169" s="122"/>
+      <c r="J169" s="122"/>
+      <c r="K169" s="123"/>
+      <c r="L169" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="M169" s="128"/>
-      <c r="N169" s="128"/>
-      <c r="O169" s="129"/>
+      <c r="M169" s="122"/>
+      <c r="N169" s="122"/>
+      <c r="O169" s="123"/>
       <c r="P169" s="32"/>
     </row>
     <row r="170" ht="24" customHeight="1">
@@ -7782,7 +7770,7 @@
       </c>
     </row>
     <row r="171" ht="24" customHeight="1">
-      <c r="B171" s="117" t="s">
+      <c r="B171" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C171" s="99">
@@ -7829,7 +7817,7 @@
       </c>
     </row>
     <row r="172" ht="24" customHeight="1">
-      <c r="B172" s="118" t="s">
+      <c r="B172" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C172" s="102">
@@ -7876,7 +7864,7 @@
       </c>
     </row>
     <row r="173" ht="24" customHeight="1">
-      <c r="B173" s="118" t="s">
+      <c r="B173" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C173" s="101">
@@ -7923,7 +7911,7 @@
       </c>
     </row>
     <row r="174" ht="24" customHeight="1">
-      <c r="B174" s="118" t="s">
+      <c r="B174" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C174" s="104">
@@ -7970,7 +7958,7 @@
       </c>
     </row>
     <row r="175" ht="24" customHeight="1">
-      <c r="B175" s="118" t="s">
+      <c r="B175" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C175" s="61">
@@ -8020,44 +8008,44 @@
       <c r="B176" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C176" s="119"/>
-      <c r="D176" s="120"/>
-      <c r="E176" s="120"/>
-      <c r="F176" s="120"/>
-      <c r="G176" s="119"/>
-      <c r="H176" s="120"/>
-      <c r="I176" s="120"/>
-      <c r="J176" s="120"/>
-      <c r="K176" s="121"/>
-      <c r="L176" s="119"/>
-      <c r="M176" s="120"/>
-      <c r="N176" s="120"/>
-      <c r="O176" s="121"/>
-      <c r="P176" s="122"/>
+      <c r="C176" s="113"/>
+      <c r="D176" s="114"/>
+      <c r="E176" s="114"/>
+      <c r="F176" s="114"/>
+      <c r="G176" s="113"/>
+      <c r="H176" s="114"/>
+      <c r="I176" s="114"/>
+      <c r="J176" s="114"/>
+      <c r="K176" s="115"/>
+      <c r="L176" s="113"/>
+      <c r="M176" s="114"/>
+      <c r="N176" s="114"/>
+      <c r="O176" s="115"/>
+      <c r="P176" s="116"/>
     </row>
     <row r="178">
       <c r="B178" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C178" s="127" t="s">
+      <c r="C178" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="D178" s="128"/>
-      <c r="E178" s="128"/>
-      <c r="F178" s="129"/>
-      <c r="G178" s="128" t="s">
+      <c r="D178" s="122"/>
+      <c r="E178" s="122"/>
+      <c r="F178" s="123"/>
+      <c r="G178" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="H178" s="128"/>
-      <c r="I178" s="128"/>
-      <c r="J178" s="128"/>
-      <c r="K178" s="129"/>
-      <c r="L178" s="127" t="s">
+      <c r="H178" s="122"/>
+      <c r="I178" s="122"/>
+      <c r="J178" s="122"/>
+      <c r="K178" s="123"/>
+      <c r="L178" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="M178" s="128"/>
-      <c r="N178" s="128"/>
-      <c r="O178" s="129"/>
+      <c r="M178" s="122"/>
+      <c r="N178" s="122"/>
+      <c r="O178" s="123"/>
       <c r="P178" s="32"/>
     </row>
     <row r="179" ht="24" customHeight="1">
@@ -8106,7 +8094,7 @@
       </c>
     </row>
     <row r="180" ht="24" customHeight="1">
-      <c r="B180" s="117" t="s">
+      <c r="B180" s="111" t="s">
         <v>59</v>
       </c>
       <c r="C180" s="99">
@@ -8153,7 +8141,7 @@
       </c>
     </row>
     <row r="181" ht="24" customHeight="1">
-      <c r="B181" s="118" t="s">
+      <c r="B181" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C181" s="102">
@@ -8200,7 +8188,7 @@
       </c>
     </row>
     <row r="182" ht="24" customHeight="1">
-      <c r="B182" s="118" t="s">
+      <c r="B182" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C182" s="101">
@@ -8247,7 +8235,7 @@
       </c>
     </row>
     <row r="183" ht="24" customHeight="1">
-      <c r="B183" s="118" t="s">
+      <c r="B183" s="112" t="s">
         <v>30</v>
       </c>
       <c r="C183" s="104">
@@ -8294,7 +8282,7 @@
       </c>
     </row>
     <row r="184" ht="24" customHeight="1">
-      <c r="B184" s="118" t="s">
+      <c r="B184" s="112" t="s">
         <v>60</v>
       </c>
       <c r="C184" s="61">
@@ -8344,20 +8332,20 @@
       <c r="B185" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C185" s="119"/>
-      <c r="D185" s="120"/>
-      <c r="E185" s="120"/>
-      <c r="F185" s="120"/>
-      <c r="G185" s="119"/>
-      <c r="H185" s="120"/>
-      <c r="I185" s="120"/>
-      <c r="J185" s="120"/>
-      <c r="K185" s="121"/>
-      <c r="L185" s="119"/>
-      <c r="M185" s="120"/>
-      <c r="N185" s="120"/>
-      <c r="O185" s="121"/>
-      <c r="P185" s="122"/>
+      <c r="C185" s="113"/>
+      <c r="D185" s="114"/>
+      <c r="E185" s="114"/>
+      <c r="F185" s="114"/>
+      <c r="G185" s="113"/>
+      <c r="H185" s="114"/>
+      <c r="I185" s="114"/>
+      <c r="J185" s="114"/>
+      <c r="K185" s="115"/>
+      <c r="L185" s="113"/>
+      <c r="M185" s="114"/>
+      <c r="N185" s="114"/>
+      <c r="O185" s="115"/>
+      <c r="P185" s="116"/>
     </row>
     <row r="187" ht="24" customHeight="1" s="91" customFormat="1">
       <c r="C187" s="92"/>
@@ -8580,24 +8568,24 @@
       <c r="D7" s="9"/>
       <c r="E7" s="23"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="131"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="130" t="s">
+      <c r="N7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="131"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="125"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="27"/>
@@ -8841,24 +8829,24 @@
       <c r="D13" s="9"/>
       <c r="E13" s="23"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="127" t="s">
+      <c r="G13" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="127" t="s">
+      <c r="N13" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="129"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="123"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="38" t="s">
@@ -9098,24 +9086,24 @@
       <c r="D19" s="9"/>
       <c r="E19" s="23"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="123"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="127" t="s">
+      <c r="N19" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="129"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="123"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="38" t="s">
@@ -9385,25 +9373,25 @@
       <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="132" t="s">
+      <c r="D25" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
     </row>
     <row r="26" ht="8.1" customHeight="1">
       <c r="B26" s="4"/>
@@ -9429,25 +9417,25 @@
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="132" t="s">
+      <c r="D27" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="132"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="126"/>
     </row>
     <row r="28" ht="8.1" customHeight="1">
       <c r="B28" s="4"/>
@@ -9473,25 +9461,25 @@
       <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="132" t="s">
+      <c r="D29" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="126"/>
     </row>
     <row r="30" ht="8.1" customHeight="1">
       <c r="B30" s="4"/>
@@ -9517,25 +9505,25 @@
       <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="132" t="s">
+      <c r="D31" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="126"/>
+      <c r="T31" s="126"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="4"/>
@@ -9561,25 +9549,25 @@
       <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="132" t="s">
+      <c r="D33" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="132"/>
-      <c r="Q33" s="132"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="126"/>
+      <c r="T33" s="126"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="4"/>
@@ -9605,25 +9593,25 @@
       <c r="B35" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="126" t="s">
+      <c r="D35" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="126"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="120"/>
+      <c r="T35" s="120"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9766,24 +9754,24 @@
       <c r="D7" s="9"/>
       <c r="E7" s="23"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="131"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="130" t="s">
+      <c r="N7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="131"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="125"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="27"/>
@@ -10025,24 +10013,24 @@
       <c r="D13" s="9"/>
       <c r="E13" s="23"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="127" t="s">
+      <c r="G13" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="127" t="s">
+      <c r="N13" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="129"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="123"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="38" t="s">
@@ -10280,24 +10268,24 @@
       <c r="D19" s="9"/>
       <c r="E19" s="23"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="123"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="127" t="s">
+      <c r="N19" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="129"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="123"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="38" t="s">
@@ -10535,24 +10523,24 @@
       <c r="D25" s="9"/>
       <c r="E25" s="23"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="127" t="s">
+      <c r="G25" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="129"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="123"/>
       <c r="M25" s="33"/>
-      <c r="N25" s="127" t="s">
+      <c r="N25" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="129"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="123"/>
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="B26" s="38" t="s">
@@ -10790,26 +10778,26 @@
       <c r="B31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="117"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="4"/>
@@ -10836,26 +10824,26 @@
       <c r="B33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="4"/>
@@ -10882,26 +10870,26 @@
       <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="123"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="117"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="117"/>
     </row>
     <row r="36" ht="8.1" customHeight="1">
       <c r="B36" s="4"/>
@@ -10928,26 +10916,26 @@
       <c r="B37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="123"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="117"/>
+      <c r="R37" s="117"/>
+      <c r="S37" s="117"/>
+      <c r="T37" s="117"/>
     </row>
     <row r="38" ht="8.1" customHeight="1">
       <c r="B38" s="4"/>
@@ -10974,26 +10962,26 @@
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="123"/>
-      <c r="K39" s="123"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="123"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="123"/>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="123"/>
-      <c r="S39" s="123"/>
-      <c r="T39" s="123"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="117"/>
+      <c r="T39" s="117"/>
     </row>
     <row r="40" ht="8.1" customHeight="1">
       <c r="B40" s="4"/>
@@ -11020,26 +11008,26 @@
       <c r="B41" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="124" t="s">
+      <c r="C41" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="124"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="124"/>
-      <c r="S41" s="124"/>
-      <c r="T41" s="124"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="118"/>
+      <c r="N41" s="118"/>
+      <c r="O41" s="118"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="118"/>
+      <c r="R41" s="118"/>
+      <c r="S41" s="118"/>
+      <c r="T41" s="118"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -11070,7 +11058,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V61"/>
+  <dimension ref="A2:V89"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScalePageLayoutView="90" workbookViewId="0" tabSelected="1">
       <selection activeCell="C5" sqref="C5:D5"/>
@@ -11135,36 +11123,36 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123" t="s">
+      <c r="D5" s="117"/>
+      <c r="E5" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
       <c r="H5" s="70"/>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123" t="s">
+      <c r="J5" s="117"/>
+      <c r="K5" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123" t="s">
+      <c r="L5" s="117"/>
+      <c r="M5" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="123"/>
+      <c r="N5" s="117"/>
       <c r="O5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
       <c r="U5" s="5" t="s">
         <v>19</v>
       </c>
@@ -11193,23 +11181,23 @@
       <c r="F7" s="9"/>
       <c r="G7" s="23"/>
       <c r="H7" s="58"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="127" t="s">
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="129"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="123"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="69" t="s">
@@ -11293,7 +11281,7 @@
         <v>125000</v>
       </c>
       <c r="H9" s="76"/>
-      <c r="I9" s="116">
+      <c r="I9" s="110">
         <v>0</v>
       </c>
       <c r="J9" s="78">
@@ -11354,7 +11342,7 @@
         <v>125000</v>
       </c>
       <c r="H10" s="76"/>
-      <c r="I10" s="116">
+      <c r="I10" s="110">
         <v>0</v>
       </c>
       <c r="J10" s="78">
@@ -11415,7 +11403,7 @@
         <v>250000</v>
       </c>
       <c r="H11" s="76"/>
-      <c r="I11" s="116">
+      <c r="I11" s="110">
         <v>0</v>
       </c>
       <c r="J11" s="78">
@@ -11476,7 +11464,7 @@
         <v>125000</v>
       </c>
       <c r="H12" s="76"/>
-      <c r="I12" s="116">
+      <c r="I12" s="110">
         <v>0</v>
       </c>
       <c r="J12" s="78">
@@ -11537,7 +11525,7 @@
         <v>125000</v>
       </c>
       <c r="H13" s="76"/>
-      <c r="I13" s="116">
+      <c r="I13" s="110">
         <v>0</v>
       </c>
       <c r="J13" s="78">
@@ -11644,22 +11632,24 @@
     </row>
     <row r="17" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B17" s="57"/>
-      <c r="H17" s="127" t="s">
+      <c r="H17" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="129"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="123"/>
     </row>
     <row r="18" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B18" s="57"/>
@@ -11711,7 +11701,7 @@
         <v>102</v>
       </c>
       <c r="B19" s="57"/>
-      <c r="H19" s="115">
+      <c r="H19" s="109">
         <v>1.2249285870629532</v>
       </c>
       <c r="I19" s="83">
@@ -11732,20 +11722,34 @@
       <c r="N19" s="86">
         <v>13472.199970912983</v>
       </c>
-      <c r="O19" s="87"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="86"/>
+      <c r="O19" s="87">
+        <v>0</v>
+      </c>
+      <c r="P19" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="84">
+        <v>0</v>
+      </c>
+      <c r="R19" s="82">
+        <v>0</v>
+      </c>
+      <c r="S19" s="82">
+        <v>0</v>
+      </c>
+      <c r="T19" s="85">
+        <v>0</v>
+      </c>
+      <c r="U19" s="86">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="69" t="s">
         <v>99</v>
       </c>
       <c r="B20" s="57"/>
-      <c r="H20" s="115">
+      <c r="H20" s="109">
         <v>1.2249285870629532</v>
       </c>
       <c r="I20" s="83">
@@ -11766,20 +11770,34 @@
       <c r="N20" s="86">
         <v>13472.199970912983</v>
       </c>
-      <c r="O20" s="87"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="86"/>
+      <c r="O20" s="87">
+        <v>0</v>
+      </c>
+      <c r="P20" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="84">
+        <v>0</v>
+      </c>
+      <c r="R20" s="82">
+        <v>0</v>
+      </c>
+      <c r="S20" s="82">
+        <v>0</v>
+      </c>
+      <c r="T20" s="85">
+        <v>0</v>
+      </c>
+      <c r="U20" s="86">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="69" t="s">
         <v>102</v>
       </c>
       <c r="B21" s="57"/>
-      <c r="H21" s="115">
+      <c r="H21" s="109">
         <v>1.2249285870629532</v>
       </c>
       <c r="I21" s="83">
@@ -11800,20 +11818,34 @@
       <c r="N21" s="86">
         <v>13472.199970913012</v>
       </c>
-      <c r="O21" s="87"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="86"/>
+      <c r="O21" s="87">
+        <v>0</v>
+      </c>
+      <c r="P21" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="84">
+        <v>0</v>
+      </c>
+      <c r="R21" s="82">
+        <v>0</v>
+      </c>
+      <c r="S21" s="82">
+        <v>0</v>
+      </c>
+      <c r="T21" s="85">
+        <v>0</v>
+      </c>
+      <c r="U21" s="86">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="A22" s="69" t="s">
         <v>99</v>
       </c>
       <c r="B22" s="57"/>
-      <c r="H22" s="115">
+      <c r="H22" s="109">
         <v>1.2249285870629532</v>
       </c>
       <c r="I22" s="83">
@@ -11834,20 +11866,34 @@
       <c r="N22" s="86">
         <v>13472.199970912983</v>
       </c>
-      <c r="O22" s="87"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="86"/>
+      <c r="O22" s="87">
+        <v>0.49617646224600087</v>
+      </c>
+      <c r="P22" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="84">
+        <v>9.2035113125460555</v>
+      </c>
+      <c r="R22" s="82">
+        <v>0</v>
+      </c>
+      <c r="S22" s="82">
+        <v>4961.7646224600085</v>
+      </c>
+      <c r="T22" s="85">
+        <v>25.192650097542479</v>
+      </c>
+      <c r="U22" s="86">
+        <v>13581.772842458753</v>
+      </c>
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="69" t="s">
         <v>102</v>
       </c>
       <c r="B23" s="57"/>
-      <c r="H23" s="115">
+      <c r="H23" s="109">
         <v>1.2249285870629532</v>
       </c>
       <c r="I23" s="83">
@@ -11868,13 +11914,27 @@
       <c r="N23" s="86">
         <v>13472.199970912983</v>
       </c>
-      <c r="O23" s="87"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="86"/>
+      <c r="O23" s="87">
+        <v>0.49617646224600087</v>
+      </c>
+      <c r="P23" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="84">
+        <v>9.2035113125460555</v>
+      </c>
+      <c r="R23" s="82">
+        <v>0</v>
+      </c>
+      <c r="S23" s="82">
+        <v>4961.7646224600085</v>
+      </c>
+      <c r="T23" s="85">
+        <v>25.192650097542479</v>
+      </c>
+      <c r="U23" s="86">
+        <v>13581.772842458753</v>
+      </c>
     </row>
     <row r="24" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B24" s="57"/>
@@ -11899,600 +11959,414 @@
       <c r="N24" s="42">
         <v>13472.199970912987</v>
       </c>
-      <c r="O24" s="44"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="42"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" s="108" customFormat="1">
-      <c r="B25" s="98"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="114"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" s="71" customFormat="1">
-      <c r="A26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
+      <c r="O24" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="68">
+        <v>18.407022625092111</v>
+      </c>
+      <c r="R24" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="50">
+        <v>9923.5292449200169</v>
+      </c>
+      <c r="T24" s="46">
+        <v>75.577950292627449</v>
+      </c>
+      <c r="U24" s="42">
+        <v>40745.318527376308</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1">
+      <c r="B26" s="57"/>
+      <c r="H26" s="121" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="123"/>
+    </row>
+    <row r="27" ht="24" customHeight="1">
+      <c r="B27" s="57"/>
+      <c r="H27" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="43" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" ht="24" customHeight="1">
-      <c r="C28" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="127" t="s">
-        <v>95</v>
-      </c>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="129"/>
+      <c r="A28" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="H28" s="109">
+        <v>0</v>
+      </c>
+      <c r="I28" s="83">
+        <v>0</v>
+      </c>
+      <c r="J28" s="84">
+        <v>0</v>
+      </c>
+      <c r="K28" s="82">
+        <v>0</v>
+      </c>
+      <c r="L28" s="82">
+        <v>0</v>
+      </c>
+      <c r="M28" s="85">
+        <v>0</v>
+      </c>
+      <c r="N28" s="86">
+        <v>0</v>
+      </c>
+      <c r="O28" s="87"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="86"/>
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R29" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="S29" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T29" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U29" s="43" t="s">
-        <v>31</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B29" s="57"/>
+      <c r="H29" s="109">
+        <v>0</v>
+      </c>
+      <c r="I29" s="83">
+        <v>0</v>
+      </c>
+      <c r="J29" s="84">
+        <v>0</v>
+      </c>
+      <c r="K29" s="82">
+        <v>0</v>
+      </c>
+      <c r="L29" s="82">
+        <v>0</v>
+      </c>
+      <c r="M29" s="85">
+        <v>0</v>
+      </c>
+      <c r="N29" s="86">
+        <v>0</v>
+      </c>
+      <c r="O29" s="87"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="86"/>
     </row>
     <row r="30" ht="24" customHeight="1">
       <c r="A30" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="74">
-        <v>0</v>
-      </c>
-      <c r="F30" s="75">
-        <v>0</v>
-      </c>
-      <c r="G30" s="88">
-        <v>125000</v>
-      </c>
-      <c r="H30" s="76"/>
-      <c r="I30" s="116">
-        <v>0</v>
-      </c>
-      <c r="J30" s="78">
-        <v>9.072918318693878</v>
-      </c>
-      <c r="K30" s="74">
-        <v>0</v>
-      </c>
-      <c r="L30" s="74">
-        <v>10000</v>
-      </c>
-      <c r="M30" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N30" s="76">
-        <v>13777.264999999996</v>
-      </c>
-      <c r="O30" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P30" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="78">
-        <v>37.361500916104</v>
-      </c>
-      <c r="R30" s="74">
-        <v>0</v>
-      </c>
-      <c r="S30" s="74">
-        <v>5000</v>
-      </c>
-      <c r="T30" s="79">
-        <v>25</v>
-      </c>
-      <c r="U30" s="76">
-        <v>3345.69</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="H30" s="109">
+        <v>0</v>
+      </c>
+      <c r="I30" s="83">
+        <v>0</v>
+      </c>
+      <c r="J30" s="84">
+        <v>0</v>
+      </c>
+      <c r="K30" s="82">
+        <v>0</v>
+      </c>
+      <c r="L30" s="82">
+        <v>0</v>
+      </c>
+      <c r="M30" s="85">
+        <v>0</v>
+      </c>
+      <c r="N30" s="86">
+        <v>0</v>
+      </c>
+      <c r="O30" s="87"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="86"/>
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="A31" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="74">
-        <v>0</v>
-      </c>
-      <c r="F31" s="75">
-        <v>0</v>
-      </c>
-      <c r="G31" s="88">
-        <v>125000</v>
-      </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="116">
-        <v>0</v>
-      </c>
-      <c r="J31" s="78">
-        <v>9.072918318693878</v>
-      </c>
-      <c r="K31" s="74">
-        <v>0</v>
-      </c>
-      <c r="L31" s="74">
-        <v>10000</v>
-      </c>
-      <c r="M31" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N31" s="76">
-        <v>13777.264999999996</v>
-      </c>
-      <c r="O31" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P31" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="78">
-        <v>37.361500916104</v>
-      </c>
-      <c r="R31" s="74">
-        <v>0</v>
-      </c>
-      <c r="S31" s="74">
-        <v>5000</v>
-      </c>
-      <c r="T31" s="79">
-        <v>25</v>
-      </c>
-      <c r="U31" s="76">
-        <v>3345.69</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B31" s="57"/>
+      <c r="H31" s="109">
+        <v>1.7819581121403867</v>
+      </c>
+      <c r="I31" s="83">
+        <v>0</v>
+      </c>
+      <c r="J31" s="84">
+        <v>9.0290705417449413</v>
+      </c>
+      <c r="K31" s="82">
+        <v>0</v>
+      </c>
+      <c r="L31" s="82">
+        <v>17819.581121403866</v>
+      </c>
+      <c r="M31" s="85">
+        <v>7.014755237420081</v>
+      </c>
+      <c r="N31" s="86">
+        <v>13844.171381990636</v>
+      </c>
+      <c r="O31" s="87"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="86"/>
     </row>
     <row r="32" ht="24" customHeight="1">
       <c r="A32" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="74">
-        <v>0</v>
-      </c>
-      <c r="F32" s="75">
-        <v>0</v>
-      </c>
-      <c r="G32" s="88">
-        <v>125000</v>
-      </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="116">
-        <v>0</v>
-      </c>
-      <c r="J32" s="78">
-        <v>9.072918318693878</v>
-      </c>
-      <c r="K32" s="74">
-        <v>0</v>
-      </c>
-      <c r="L32" s="74">
-        <v>10000</v>
-      </c>
-      <c r="M32" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N32" s="76">
-        <v>13777.264999999996</v>
-      </c>
-      <c r="O32" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P32" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="78">
-        <v>37.361500916104</v>
-      </c>
-      <c r="R32" s="74">
-        <v>0</v>
-      </c>
-      <c r="S32" s="74">
-        <v>5000</v>
-      </c>
-      <c r="T32" s="79">
-        <v>25</v>
-      </c>
-      <c r="U32" s="76">
-        <v>3345.69</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="H32" s="109">
+        <v>1.7819581121403867</v>
+      </c>
+      <c r="I32" s="83">
+        <v>0</v>
+      </c>
+      <c r="J32" s="84">
+        <v>9.0290705417449413</v>
+      </c>
+      <c r="K32" s="82">
+        <v>0</v>
+      </c>
+      <c r="L32" s="82">
+        <v>17819.581121403866</v>
+      </c>
+      <c r="M32" s="85">
+        <v>7.014755237420081</v>
+      </c>
+      <c r="N32" s="86">
+        <v>13844.171381990636</v>
+      </c>
+      <c r="O32" s="87"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="86"/>
     </row>
     <row r="33" ht="24" customHeight="1">
-      <c r="A33" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="74">
-        <v>0</v>
-      </c>
-      <c r="F33" s="75">
-        <v>0</v>
-      </c>
-      <c r="G33" s="88">
-        <v>125000</v>
-      </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="116">
-        <v>0</v>
-      </c>
-      <c r="J33" s="78">
-        <v>9.072918318693878</v>
-      </c>
-      <c r="K33" s="74">
-        <v>0</v>
-      </c>
-      <c r="L33" s="74">
-        <v>10000</v>
-      </c>
-      <c r="M33" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N33" s="76">
-        <v>13777.264999999996</v>
-      </c>
-      <c r="O33" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P33" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="78">
-        <v>37.361500916104</v>
-      </c>
-      <c r="R33" s="74">
-        <v>0</v>
-      </c>
-      <c r="S33" s="74">
-        <v>5000</v>
-      </c>
-      <c r="T33" s="79">
-        <v>25</v>
-      </c>
-      <c r="U33" s="76">
-        <v>3345.69</v>
-      </c>
-    </row>
-    <row r="34" ht="24" customHeight="1">
-      <c r="B34" s="27"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="50">
-        <v>0</v>
-      </c>
-      <c r="F34" s="41" t="s">
+      <c r="B33" s="57"/>
+      <c r="H33" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="41">
-        <v>500000</v>
-      </c>
-      <c r="H34" s="42"/>
-      <c r="I34" s="51" t="s">
+      <c r="I33" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="68">
-        <v>36.291673274775512</v>
-      </c>
-      <c r="K34" s="50" t="s">
+      <c r="J33" s="68">
+        <v>18.058141083489883</v>
+      </c>
+      <c r="K33" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="50">
-        <v>40000</v>
-      </c>
-      <c r="M34" s="46">
-        <v>12.5</v>
-      </c>
-      <c r="N34" s="42">
-        <v>13777.265000000005</v>
-      </c>
-      <c r="O34" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="P34" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q34" s="68">
-        <v>149.446003664416</v>
-      </c>
-      <c r="R34" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="S34" s="50">
-        <v>20000</v>
-      </c>
-      <c r="T34" s="46">
-        <v>25</v>
-      </c>
-      <c r="U34" s="42">
-        <v>3345.69</v>
-      </c>
-    </row>
-    <row r="36" ht="24" customHeight="1">
-      <c r="C36" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="127" t="s">
+      <c r="L33" s="50">
+        <v>35639.162242807732</v>
+      </c>
+      <c r="M33" s="46">
+        <v>21.044265712260298</v>
+      </c>
+      <c r="N33" s="42">
+        <v>41532.514145971872</v>
+      </c>
+      <c r="O33" s="44"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="42"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" s="108" customFormat="1"/>
+    <row r="35" ht="13.5" customHeight="1" s="71" customFormat="1">
+      <c r="A35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="37" ht="24" customHeight="1">
+      <c r="C37" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="129"/>
-      <c r="O36" s="127" t="s">
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="128"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="128"/>
-      <c r="U36" s="129"/>
-    </row>
-    <row r="37" ht="24" customHeight="1">
-      <c r="A37" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N37" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q37" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R37" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="S37" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T37" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U37" s="43" t="s">
-        <v>31</v>
-      </c>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="122"/>
+      <c r="T37" s="122"/>
+      <c r="U37" s="123"/>
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="27"/>
-      <c r="C38" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="74">
-        <v>0</v>
-      </c>
-      <c r="F38" s="75">
-        <v>0</v>
-      </c>
-      <c r="G38" s="88">
-        <v>125000</v>
-      </c>
-      <c r="H38" s="76"/>
-      <c r="I38" s="116">
-        <v>0</v>
-      </c>
-      <c r="J38" s="78">
-        <v>9.072918318693878</v>
-      </c>
-      <c r="K38" s="74">
-        <v>0</v>
-      </c>
-      <c r="L38" s="74">
-        <v>10000</v>
-      </c>
-      <c r="M38" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N38" s="76">
-        <v>13777.264999999996</v>
-      </c>
-      <c r="O38" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P38" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="78">
-        <v>37.361500916104</v>
-      </c>
-      <c r="R38" s="74">
-        <v>0</v>
-      </c>
-      <c r="S38" s="74">
-        <v>5000</v>
-      </c>
-      <c r="T38" s="79">
+      <c r="C38" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="U38" s="76">
-        <v>3345.69</v>
+      <c r="H38" s="40"/>
+      <c r="I38" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R38" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T38" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U38" s="43" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1">
       <c r="A39" s="69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E39" s="74">
         <v>0</v>
@@ -12504,7 +12378,7 @@
         <v>125000</v>
       </c>
       <c r="H39" s="76"/>
-      <c r="I39" s="116">
+      <c r="I39" s="110">
         <v>0</v>
       </c>
       <c r="J39" s="78">
@@ -12545,848 +12419,1862 @@
       </c>
     </row>
     <row r="40" ht="24" customHeight="1">
+      <c r="A40" s="69" t="s">
+        <v>102</v>
+      </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39" t="s">
+      <c r="C40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="74">
+        <v>0</v>
+      </c>
+      <c r="F40" s="75">
+        <v>0</v>
+      </c>
+      <c r="G40" s="88">
+        <v>125000</v>
+      </c>
+      <c r="H40" s="76"/>
+      <c r="I40" s="110">
+        <v>0</v>
+      </c>
+      <c r="J40" s="78">
+        <v>9.072918318693878</v>
+      </c>
+      <c r="K40" s="74">
+        <v>0</v>
+      </c>
+      <c r="L40" s="74">
+        <v>10000</v>
+      </c>
+      <c r="M40" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N40" s="76">
+        <v>13777.264999999996</v>
+      </c>
+      <c r="O40" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P40" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="78">
+        <v>37.361500916104</v>
+      </c>
+      <c r="R40" s="74">
+        <v>0</v>
+      </c>
+      <c r="S40" s="74">
+        <v>5000</v>
+      </c>
+      <c r="T40" s="79">
+        <v>25</v>
+      </c>
+      <c r="U40" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="41" ht="24" customHeight="1">
+      <c r="A41" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="74">
+        <v>0</v>
+      </c>
+      <c r="F41" s="75">
+        <v>0</v>
+      </c>
+      <c r="G41" s="88">
+        <v>125000</v>
+      </c>
+      <c r="H41" s="76"/>
+      <c r="I41" s="110">
+        <v>0</v>
+      </c>
+      <c r="J41" s="78">
+        <v>9.072918318693878</v>
+      </c>
+      <c r="K41" s="74">
+        <v>0</v>
+      </c>
+      <c r="L41" s="74">
+        <v>10000</v>
+      </c>
+      <c r="M41" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N41" s="76">
+        <v>13777.264999999996</v>
+      </c>
+      <c r="O41" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P41" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="78">
+        <v>37.361500916104</v>
+      </c>
+      <c r="R41" s="74">
+        <v>0</v>
+      </c>
+      <c r="S41" s="74">
+        <v>5000</v>
+      </c>
+      <c r="T41" s="79">
+        <v>25</v>
+      </c>
+      <c r="U41" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="42" ht="24" customHeight="1">
+      <c r="A42" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="74">
+        <v>0</v>
+      </c>
+      <c r="F42" s="75">
+        <v>0</v>
+      </c>
+      <c r="G42" s="88">
+        <v>125000</v>
+      </c>
+      <c r="H42" s="76"/>
+      <c r="I42" s="110">
+        <v>0</v>
+      </c>
+      <c r="J42" s="78">
+        <v>9.072918318693878</v>
+      </c>
+      <c r="K42" s="74">
+        <v>0</v>
+      </c>
+      <c r="L42" s="74">
+        <v>10000</v>
+      </c>
+      <c r="M42" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N42" s="76">
+        <v>13777.264999999996</v>
+      </c>
+      <c r="O42" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P42" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="78">
+        <v>37.361500916104</v>
+      </c>
+      <c r="R42" s="74">
+        <v>0</v>
+      </c>
+      <c r="S42" s="74">
+        <v>5000</v>
+      </c>
+      <c r="T42" s="79">
+        <v>25</v>
+      </c>
+      <c r="U42" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="43" ht="24" customHeight="1">
+      <c r="B43" s="27"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="50">
-        <v>0</v>
-      </c>
-      <c r="F40" s="41" t="s">
+      <c r="E43" s="50">
+        <v>0</v>
+      </c>
+      <c r="F43" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="41">
-        <v>250000</v>
-      </c>
-      <c r="H40" s="42"/>
-      <c r="I40" s="51" t="s">
+      <c r="G43" s="41">
+        <v>500000</v>
+      </c>
+      <c r="H43" s="42"/>
+      <c r="I43" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="68">
-        <v>18.145836637387756</v>
-      </c>
-      <c r="K40" s="50" t="s">
+      <c r="J43" s="68">
+        <v>36.291673274775512</v>
+      </c>
+      <c r="K43" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="L40" s="50">
+      <c r="L43" s="50">
+        <v>40000</v>
+      </c>
+      <c r="M43" s="46">
+        <v>12.5</v>
+      </c>
+      <c r="N43" s="42">
+        <v>13777.265000000005</v>
+      </c>
+      <c r="O43" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q43" s="68">
+        <v>149.446003664416</v>
+      </c>
+      <c r="R43" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S43" s="50">
         <v>20000</v>
       </c>
-      <c r="M40" s="46">
-        <v>12.5</v>
-      </c>
-      <c r="N40" s="42">
-        <v>13777.264999999967</v>
-      </c>
-      <c r="O40" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="P40" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q40" s="68">
-        <v>74.723001832208</v>
-      </c>
-      <c r="R40" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="S40" s="50">
-        <v>10000</v>
-      </c>
-      <c r="T40" s="46">
+      <c r="T43" s="46">
         <v>25</v>
       </c>
-      <c r="U40" s="42">
+      <c r="U43" s="42">
         <v>3345.69</v>
       </c>
     </row>
-    <row r="42" ht="24" customHeight="1">
-      <c r="C42" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="129"/>
-      <c r="O42" s="127" t="s">
-        <v>95</v>
-      </c>
-      <c r="P42" s="128"/>
-      <c r="Q42" s="128"/>
-      <c r="R42" s="128"/>
-      <c r="S42" s="128"/>
-      <c r="T42" s="128"/>
-      <c r="U42" s="129"/>
-    </row>
-    <row r="43" ht="24" customHeight="1">
-      <c r="A43" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" s="26" t="s">
+    <row r="44">
+      <c r="B44" s="57"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="57"/>
+      <c r="H45" s="81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" ht="24" customHeight="1">
+      <c r="B46" s="57"/>
+      <c r="H46" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="123"/>
+      <c r="O46" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="122"/>
+      <c r="S46" s="122"/>
+      <c r="T46" s="122"/>
+      <c r="U46" s="123"/>
+    </row>
+    <row r="47" ht="24" customHeight="1">
+      <c r="B47" s="57"/>
+      <c r="H47" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L47" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="M43" s="26" t="s">
+      <c r="M47" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="43" t="s">
+      <c r="N47" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="O43" s="31" t="s">
+      <c r="O47" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="P43" s="26" t="s">
+      <c r="P47" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="26" t="s">
+      <c r="Q47" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="R43" s="26" t="s">
+      <c r="R47" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="S43" s="26" t="s">
+      <c r="S47" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="T43" s="26" t="s">
+      <c r="T47" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="U43" s="43" t="s">
+      <c r="U47" s="43" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="44" ht="24" customHeight="1">
-      <c r="A44" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="74">
-        <v>0</v>
-      </c>
-      <c r="F44" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="88">
-        <v>125000</v>
-      </c>
-      <c r="H44" s="76"/>
-      <c r="I44" s="116">
-        <v>0</v>
-      </c>
-      <c r="J44" s="78">
-        <v>9.072918318693878</v>
-      </c>
-      <c r="K44" s="74">
-        <v>0</v>
-      </c>
-      <c r="L44" s="74">
-        <v>10000</v>
-      </c>
-      <c r="M44" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N44" s="76">
-        <v>13777.264999999996</v>
-      </c>
-      <c r="O44" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P44" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="78">
-        <v>37.361500916104</v>
-      </c>
-      <c r="R44" s="74">
-        <v>0</v>
-      </c>
-      <c r="S44" s="74">
-        <v>5000</v>
-      </c>
-      <c r="T44" s="79">
-        <v>25</v>
-      </c>
-      <c r="U44" s="76">
-        <v>3345.69</v>
-      </c>
-    </row>
-    <row r="45" ht="24" customHeight="1">
-      <c r="A45" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="74">
-        <v>0</v>
-      </c>
-      <c r="F45" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="88">
-        <v>125000</v>
-      </c>
-      <c r="H45" s="76"/>
-      <c r="I45" s="116">
-        <v>0</v>
-      </c>
-      <c r="J45" s="78">
-        <v>9.072918318693878</v>
-      </c>
-      <c r="K45" s="74">
-        <v>0</v>
-      </c>
-      <c r="L45" s="74">
-        <v>10000</v>
-      </c>
-      <c r="M45" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N45" s="76">
-        <v>13777.264999999996</v>
-      </c>
-      <c r="O45" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P45" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="78">
-        <v>37.361500916104</v>
-      </c>
-      <c r="R45" s="74">
-        <v>0</v>
-      </c>
-      <c r="S45" s="74">
-        <v>5000</v>
-      </c>
-      <c r="T45" s="79">
-        <v>25</v>
-      </c>
-      <c r="U45" s="76">
-        <v>3345.69</v>
-      </c>
-    </row>
-    <row r="46" ht="24" customHeight="1">
-      <c r="A46" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="74">
-        <v>0</v>
-      </c>
-      <c r="F46" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="88">
-        <v>250000</v>
-      </c>
-      <c r="H46" s="76"/>
-      <c r="I46" s="116">
-        <v>0</v>
-      </c>
-      <c r="J46" s="78">
-        <v>18.145836637387756</v>
-      </c>
-      <c r="K46" s="74">
-        <v>0</v>
-      </c>
-      <c r="L46" s="74">
-        <v>20000</v>
-      </c>
-      <c r="M46" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N46" s="76">
-        <v>13777.264999999967</v>
-      </c>
-      <c r="O46" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P46" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="78">
-        <v>74.723001832208</v>
-      </c>
-      <c r="R46" s="74">
-        <v>0</v>
-      </c>
-      <c r="S46" s="74">
-        <v>10000</v>
-      </c>
-      <c r="T46" s="79">
-        <v>25</v>
-      </c>
-      <c r="U46" s="76">
-        <v>3345.69</v>
-      </c>
-    </row>
-    <row r="47" ht="24" customHeight="1">
-      <c r="A47" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="74">
-        <v>0</v>
-      </c>
-      <c r="F47" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="88">
-        <v>250000</v>
-      </c>
-      <c r="H47" s="76"/>
-      <c r="I47" s="116">
-        <v>0</v>
-      </c>
-      <c r="J47" s="78">
-        <v>18.145836637387756</v>
-      </c>
-      <c r="K47" s="74">
-        <v>0</v>
-      </c>
-      <c r="L47" s="74">
-        <v>20000</v>
-      </c>
-      <c r="M47" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N47" s="76">
-        <v>13777.264999999967</v>
-      </c>
-      <c r="O47" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P47" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="78">
-        <v>74.723001832208</v>
-      </c>
-      <c r="R47" s="74">
-        <v>0</v>
-      </c>
-      <c r="S47" s="74">
-        <v>10000</v>
-      </c>
-      <c r="T47" s="79">
-        <v>25</v>
-      </c>
-      <c r="U47" s="76">
-        <v>3345.69</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
       <c r="A48" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="74">
-        <v>0</v>
-      </c>
-      <c r="F48" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="88">
-        <v>250000</v>
-      </c>
-      <c r="H48" s="76"/>
-      <c r="I48" s="116">
-        <v>0</v>
-      </c>
-      <c r="J48" s="78">
-        <v>18.145836637387756</v>
-      </c>
-      <c r="K48" s="74">
-        <v>0</v>
-      </c>
-      <c r="L48" s="74">
-        <v>20000</v>
-      </c>
-      <c r="M48" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N48" s="76">
-        <v>13777.264999999967</v>
-      </c>
-      <c r="O48" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P48" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="78">
-        <v>74.723001832208</v>
-      </c>
-      <c r="R48" s="74">
-        <v>0</v>
-      </c>
-      <c r="S48" s="74">
-        <v>10000</v>
-      </c>
-      <c r="T48" s="79">
-        <v>25</v>
-      </c>
-      <c r="U48" s="76">
-        <v>3345.69</v>
+        <v>102</v>
+      </c>
+      <c r="B48" s="57"/>
+      <c r="H48" s="109">
+        <v>0</v>
+      </c>
+      <c r="I48" s="83">
+        <v>0</v>
+      </c>
+      <c r="J48" s="84">
+        <v>0</v>
+      </c>
+      <c r="K48" s="82">
+        <v>0</v>
+      </c>
+      <c r="L48" s="82">
+        <v>0</v>
+      </c>
+      <c r="M48" s="85">
+        <v>0</v>
+      </c>
+      <c r="N48" s="86">
+        <v>0</v>
+      </c>
+      <c r="O48" s="87">
+        <v>0</v>
+      </c>
+      <c r="P48" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="84">
+        <v>0</v>
+      </c>
+      <c r="R48" s="82">
+        <v>0</v>
+      </c>
+      <c r="S48" s="82">
+        <v>0</v>
+      </c>
+      <c r="T48" s="85">
+        <v>0</v>
+      </c>
+      <c r="U48" s="86">
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="A49" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="74">
-        <v>0</v>
-      </c>
-      <c r="F49" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="88">
-        <v>250000</v>
-      </c>
-      <c r="H49" s="76"/>
-      <c r="I49" s="116">
-        <v>0</v>
-      </c>
-      <c r="J49" s="78">
-        <v>18.145836637387756</v>
-      </c>
-      <c r="K49" s="74">
-        <v>0</v>
-      </c>
-      <c r="L49" s="74">
-        <v>20000</v>
-      </c>
-      <c r="M49" s="79">
-        <v>12.5</v>
-      </c>
-      <c r="N49" s="76">
-        <v>13777.264999999967</v>
-      </c>
-      <c r="O49" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="P49" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="78">
-        <v>74.723001832208</v>
-      </c>
-      <c r="R49" s="74">
-        <v>0</v>
-      </c>
-      <c r="S49" s="74">
-        <v>10000</v>
-      </c>
-      <c r="T49" s="79">
-        <v>25</v>
-      </c>
-      <c r="U49" s="76">
-        <v>3345.69</v>
+        <v>99</v>
+      </c>
+      <c r="B49" s="57"/>
+      <c r="H49" s="109">
+        <v>0</v>
+      </c>
+      <c r="I49" s="83">
+        <v>0</v>
+      </c>
+      <c r="J49" s="84">
+        <v>0</v>
+      </c>
+      <c r="K49" s="82">
+        <v>0</v>
+      </c>
+      <c r="L49" s="82">
+        <v>0</v>
+      </c>
+      <c r="M49" s="85">
+        <v>0</v>
+      </c>
+      <c r="N49" s="86">
+        <v>0</v>
+      </c>
+      <c r="O49" s="87">
+        <v>0</v>
+      </c>
+      <c r="P49" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="84">
+        <v>0</v>
+      </c>
+      <c r="R49" s="82">
+        <v>0</v>
+      </c>
+      <c r="S49" s="82">
+        <v>0</v>
+      </c>
+      <c r="T49" s="85">
+        <v>0</v>
+      </c>
+      <c r="U49" s="86">
+        <v>0</v>
       </c>
     </row>
     <row r="50" ht="24" customHeight="1">
       <c r="A50" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="57"/>
+      <c r="H50" s="109">
+        <v>1.2249285870629532</v>
+      </c>
+      <c r="I50" s="83">
+        <v>0</v>
+      </c>
+      <c r="J50" s="84">
+        <v>9.27836584001722</v>
+      </c>
+      <c r="K50" s="82">
+        <v>0</v>
+      </c>
+      <c r="L50" s="82">
+        <v>12249.285870629532</v>
+      </c>
+      <c r="M50" s="85">
+        <v>10.204676527283638</v>
+      </c>
+      <c r="N50" s="86">
+        <v>13472.199970912983</v>
+      </c>
+      <c r="O50" s="87">
+        <v>0.49617646224600087</v>
+      </c>
+      <c r="P50" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="84">
+        <v>9.2035113125460555</v>
+      </c>
+      <c r="R50" s="82">
+        <v>0</v>
+      </c>
+      <c r="S50" s="82">
+        <v>4961.7646224600085</v>
+      </c>
+      <c r="T50" s="85">
+        <v>25.192650097542479</v>
+      </c>
+      <c r="U50" s="86">
+        <v>13581.772842458753</v>
+      </c>
+    </row>
+    <row r="51" ht="24" customHeight="1">
+      <c r="A51" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="10" t="s">
+      <c r="B51" s="57"/>
+      <c r="H51" s="109">
+        <v>1.2249285870629532</v>
+      </c>
+      <c r="I51" s="83">
+        <v>0</v>
+      </c>
+      <c r="J51" s="84">
+        <v>9.27836584001722</v>
+      </c>
+      <c r="K51" s="82">
+        <v>0</v>
+      </c>
+      <c r="L51" s="82">
+        <v>12249.285870629532</v>
+      </c>
+      <c r="M51" s="85">
+        <v>10.204676527283638</v>
+      </c>
+      <c r="N51" s="86">
+        <v>13472.199970912983</v>
+      </c>
+      <c r="O51" s="87">
+        <v>0.49617646224600087</v>
+      </c>
+      <c r="P51" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="84">
+        <v>9.2035113125460555</v>
+      </c>
+      <c r="R51" s="82">
+        <v>0</v>
+      </c>
+      <c r="S51" s="82">
+        <v>4961.7646224600085</v>
+      </c>
+      <c r="T51" s="85">
+        <v>25.192650097542479</v>
+      </c>
+      <c r="U51" s="86">
+        <v>13581.772842458753</v>
+      </c>
+    </row>
+    <row r="52" ht="24" customHeight="1">
+      <c r="B52" s="57"/>
+      <c r="H52" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" s="68">
+        <v>18.556731680034439</v>
+      </c>
+      <c r="K52" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" s="50">
+        <v>24498.571741259064</v>
+      </c>
+      <c r="M52" s="46">
+        <v>20.409353054567195</v>
+      </c>
+      <c r="N52" s="42">
+        <v>26944.399941826025</v>
+      </c>
+      <c r="O52" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P52" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q52" s="68">
+        <v>18.407022625092111</v>
+      </c>
+      <c r="R52" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S52" s="50">
+        <v>9923.5292449200169</v>
+      </c>
+      <c r="T52" s="46">
+        <v>50.385300195084959</v>
+      </c>
+      <c r="U52" s="42">
+        <v>27163.545684917539</v>
+      </c>
+    </row>
+    <row r="54" ht="24" customHeight="1">
+      <c r="B54" s="57"/>
+      <c r="H54" s="121" t="s">
+        <v>109</v>
+      </c>
+      <c r="I54" s="122"/>
+      <c r="J54" s="122"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="121"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="122"/>
+      <c r="T54" s="122"/>
+      <c r="U54" s="123"/>
+    </row>
+    <row r="55" ht="24" customHeight="1">
+      <c r="B55" s="57"/>
+      <c r="H55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N55" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q55" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R55" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S55" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T55" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U55" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" ht="24" customHeight="1">
+      <c r="A56" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="57"/>
+      <c r="H56" s="109">
+        <v>0</v>
+      </c>
+      <c r="I56" s="83">
+        <v>0</v>
+      </c>
+      <c r="J56" s="84">
+        <v>0</v>
+      </c>
+      <c r="K56" s="82">
+        <v>0</v>
+      </c>
+      <c r="L56" s="82">
+        <v>0</v>
+      </c>
+      <c r="M56" s="85">
+        <v>0</v>
+      </c>
+      <c r="N56" s="86">
+        <v>0</v>
+      </c>
+      <c r="O56" s="87"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="82"/>
+      <c r="T56" s="85"/>
+      <c r="U56" s="86"/>
+    </row>
+    <row r="57" ht="24" customHeight="1">
+      <c r="A57" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="57"/>
+      <c r="H57" s="109">
+        <v>0</v>
+      </c>
+      <c r="I57" s="83">
+        <v>0</v>
+      </c>
+      <c r="J57" s="84">
+        <v>0</v>
+      </c>
+      <c r="K57" s="82">
+        <v>0</v>
+      </c>
+      <c r="L57" s="82">
+        <v>0</v>
+      </c>
+      <c r="M57" s="85">
+        <v>0</v>
+      </c>
+      <c r="N57" s="86">
+        <v>0</v>
+      </c>
+      <c r="O57" s="87"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="84"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="82"/>
+      <c r="T57" s="85"/>
+      <c r="U57" s="86"/>
+    </row>
+    <row r="58" ht="24" customHeight="1">
+      <c r="A58" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="57"/>
+      <c r="H58" s="109">
+        <v>1.7819581121403867</v>
+      </c>
+      <c r="I58" s="83">
+        <v>0</v>
+      </c>
+      <c r="J58" s="84">
+        <v>9.0290705417449413</v>
+      </c>
+      <c r="K58" s="82">
+        <v>0</v>
+      </c>
+      <c r="L58" s="82">
+        <v>17819.581121403866</v>
+      </c>
+      <c r="M58" s="85">
+        <v>7.014755237420081</v>
+      </c>
+      <c r="N58" s="86">
+        <v>13844.171381990636</v>
+      </c>
+      <c r="O58" s="87"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="84"/>
+      <c r="R58" s="82"/>
+      <c r="S58" s="82"/>
+      <c r="T58" s="85"/>
+      <c r="U58" s="86"/>
+    </row>
+    <row r="59" ht="24" customHeight="1">
+      <c r="A59" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="57"/>
+      <c r="H59" s="109">
+        <v>1.7819581121403867</v>
+      </c>
+      <c r="I59" s="83">
+        <v>0</v>
+      </c>
+      <c r="J59" s="84">
+        <v>9.0290705417449413</v>
+      </c>
+      <c r="K59" s="82">
+        <v>0</v>
+      </c>
+      <c r="L59" s="82">
+        <v>17819.581121403866</v>
+      </c>
+      <c r="M59" s="85">
+        <v>7.014755237420081</v>
+      </c>
+      <c r="N59" s="86">
+        <v>13844.171381990636</v>
+      </c>
+      <c r="O59" s="87"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="82"/>
+      <c r="S59" s="82"/>
+      <c r="T59" s="85"/>
+      <c r="U59" s="86"/>
+    </row>
+    <row r="60" ht="24" customHeight="1">
+      <c r="B60" s="57"/>
+      <c r="H60" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" s="68">
+        <v>18.058141083489883</v>
+      </c>
+      <c r="K60" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60" s="50">
+        <v>35639.162242807732</v>
+      </c>
+      <c r="M60" s="46">
+        <v>14.0295104748402</v>
+      </c>
+      <c r="N60" s="42">
+        <v>27688.342763981243</v>
+      </c>
+      <c r="O60" s="44"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="42"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="64" ht="24" customHeight="1">
+      <c r="C64" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="52"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="122"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="122"/>
+      <c r="M64" s="122"/>
+      <c r="N64" s="123"/>
+      <c r="O64" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="P64" s="122"/>
+      <c r="Q64" s="122"/>
+      <c r="R64" s="122"/>
+      <c r="S64" s="122"/>
+      <c r="T64" s="122"/>
+      <c r="U64" s="123"/>
+    </row>
+    <row r="65" ht="24" customHeight="1">
+      <c r="A65" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="40"/>
+      <c r="I65" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R65" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S65" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T65" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U65" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" ht="24" customHeight="1">
+      <c r="A66" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="74">
-        <v>0</v>
-      </c>
-      <c r="F50" s="75" t="s">
+      <c r="D66" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="74">
+        <v>0</v>
+      </c>
+      <c r="F66" s="75">
+        <v>0</v>
+      </c>
+      <c r="G66" s="88">
+        <v>125000</v>
+      </c>
+      <c r="H66" s="76"/>
+      <c r="I66" s="110">
+        <v>0</v>
+      </c>
+      <c r="J66" s="78">
+        <v>9.072918318693878</v>
+      </c>
+      <c r="K66" s="74">
+        <v>0</v>
+      </c>
+      <c r="L66" s="74">
+        <v>10000</v>
+      </c>
+      <c r="M66" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N66" s="76">
+        <v>13777.264999999996</v>
+      </c>
+      <c r="O66" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P66" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="78">
+        <v>37.361500916104</v>
+      </c>
+      <c r="R66" s="74">
+        <v>0</v>
+      </c>
+      <c r="S66" s="74">
+        <v>5000</v>
+      </c>
+      <c r="T66" s="79">
+        <v>25</v>
+      </c>
+      <c r="U66" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="67" ht="24" customHeight="1">
+      <c r="A67" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="74">
+        <v>0</v>
+      </c>
+      <c r="F67" s="75">
+        <v>0</v>
+      </c>
+      <c r="G67" s="88">
+        <v>125000</v>
+      </c>
+      <c r="H67" s="76"/>
+      <c r="I67" s="110">
+        <v>0</v>
+      </c>
+      <c r="J67" s="78">
+        <v>9.072918318693878</v>
+      </c>
+      <c r="K67" s="74">
+        <v>0</v>
+      </c>
+      <c r="L67" s="74">
+        <v>10000</v>
+      </c>
+      <c r="M67" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N67" s="76">
+        <v>13777.264999999996</v>
+      </c>
+      <c r="O67" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P67" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="78">
+        <v>37.361500916104</v>
+      </c>
+      <c r="R67" s="74">
+        <v>0</v>
+      </c>
+      <c r="S67" s="74">
+        <v>5000</v>
+      </c>
+      <c r="T67" s="79">
+        <v>25</v>
+      </c>
+      <c r="U67" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="68" ht="24" customHeight="1">
+      <c r="B68" s="27"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="50">
+        <v>0</v>
+      </c>
+      <c r="F68" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G50" s="88">
+      <c r="G68" s="41">
         <v>250000</v>
       </c>
-      <c r="H50" s="76"/>
-      <c r="I50" s="116">
-        <v>0</v>
-      </c>
-      <c r="J50" s="78">
+      <c r="H68" s="42"/>
+      <c r="I68" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" s="68">
         <v>18.145836637387756</v>
       </c>
-      <c r="K50" s="74">
-        <v>0</v>
-      </c>
-      <c r="L50" s="74">
+      <c r="K68" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68" s="50">
         <v>20000</v>
       </c>
-      <c r="M50" s="79">
+      <c r="M68" s="46">
         <v>12.5</v>
       </c>
-      <c r="N50" s="76">
+      <c r="N68" s="42">
         <v>13777.264999999967</v>
       </c>
-      <c r="O50" s="80">
+      <c r="O68" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P68" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q68" s="68">
+        <v>74.723001832208</v>
+      </c>
+      <c r="R68" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S68" s="50">
+        <v>10000</v>
+      </c>
+      <c r="T68" s="46">
+        <v>25</v>
+      </c>
+      <c r="U68" s="42">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="70" ht="24" customHeight="1">
+      <c r="C70" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="52"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" s="122"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="122"/>
+      <c r="N70" s="123"/>
+      <c r="O70" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="122"/>
+      <c r="R70" s="122"/>
+      <c r="S70" s="122"/>
+      <c r="T70" s="122"/>
+      <c r="U70" s="123"/>
+    </row>
+    <row r="71" ht="24" customHeight="1">
+      <c r="A71" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="40"/>
+      <c r="I71" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N71" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q71" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R71" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S71" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T71" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U71" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" ht="24" customHeight="1">
+      <c r="A72" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="27"/>
+      <c r="C72" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="74">
+        <v>0</v>
+      </c>
+      <c r="F72" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="88">
+        <v>125000</v>
+      </c>
+      <c r="H72" s="76"/>
+      <c r="I72" s="110">
+        <v>0</v>
+      </c>
+      <c r="J72" s="78">
+        <v>9.072918318693878</v>
+      </c>
+      <c r="K72" s="74">
+        <v>0</v>
+      </c>
+      <c r="L72" s="74">
+        <v>10000</v>
+      </c>
+      <c r="M72" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N72" s="76">
+        <v>13777.264999999996</v>
+      </c>
+      <c r="O72" s="80">
         <v>0.5</v>
       </c>
-      <c r="P50" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="78">
+      <c r="P72" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="78">
+        <v>37.361500916104</v>
+      </c>
+      <c r="R72" s="74">
+        <v>0</v>
+      </c>
+      <c r="S72" s="74">
+        <v>5000</v>
+      </c>
+      <c r="T72" s="79">
+        <v>25</v>
+      </c>
+      <c r="U72" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="73" ht="24" customHeight="1">
+      <c r="A73" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="74">
+        <v>0</v>
+      </c>
+      <c r="F73" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" s="88">
+        <v>125000</v>
+      </c>
+      <c r="H73" s="76"/>
+      <c r="I73" s="110">
+        <v>0</v>
+      </c>
+      <c r="J73" s="78">
+        <v>9.072918318693878</v>
+      </c>
+      <c r="K73" s="74">
+        <v>0</v>
+      </c>
+      <c r="L73" s="74">
+        <v>10000</v>
+      </c>
+      <c r="M73" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N73" s="76">
+        <v>13777.264999999996</v>
+      </c>
+      <c r="O73" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P73" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="78">
+        <v>37.361500916104</v>
+      </c>
+      <c r="R73" s="74">
+        <v>0</v>
+      </c>
+      <c r="S73" s="74">
+        <v>5000</v>
+      </c>
+      <c r="T73" s="79">
+        <v>25</v>
+      </c>
+      <c r="U73" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="74" ht="24" customHeight="1">
+      <c r="A74" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="74">
+        <v>0</v>
+      </c>
+      <c r="F74" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" s="88">
+        <v>250000</v>
+      </c>
+      <c r="H74" s="76"/>
+      <c r="I74" s="110">
+        <v>0</v>
+      </c>
+      <c r="J74" s="78">
+        <v>18.145836637387756</v>
+      </c>
+      <c r="K74" s="74">
+        <v>0</v>
+      </c>
+      <c r="L74" s="74">
+        <v>20000</v>
+      </c>
+      <c r="M74" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N74" s="76">
+        <v>13777.264999999967</v>
+      </c>
+      <c r="O74" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P74" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="78">
         <v>74.723001832208</v>
       </c>
-      <c r="R50" s="74">
-        <v>0</v>
-      </c>
-      <c r="S50" s="74">
+      <c r="R74" s="74">
+        <v>0</v>
+      </c>
+      <c r="S74" s="74">
         <v>10000</v>
       </c>
-      <c r="T50" s="79">
+      <c r="T74" s="79">
         <v>25</v>
       </c>
-      <c r="U50" s="76">
+      <c r="U74" s="76">
         <v>3345.69</v>
       </c>
     </row>
-    <row r="51" ht="24" customHeight="1">
-      <c r="B51" s="27"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39" t="s">
+    <row r="75" ht="24" customHeight="1">
+      <c r="A75" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="74">
+        <v>0</v>
+      </c>
+      <c r="F75" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="88">
+        <v>250000</v>
+      </c>
+      <c r="H75" s="76"/>
+      <c r="I75" s="110">
+        <v>0</v>
+      </c>
+      <c r="J75" s="78">
+        <v>18.145836637387756</v>
+      </c>
+      <c r="K75" s="74">
+        <v>0</v>
+      </c>
+      <c r="L75" s="74">
+        <v>20000</v>
+      </c>
+      <c r="M75" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N75" s="76">
+        <v>13777.264999999967</v>
+      </c>
+      <c r="O75" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P75" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="78">
+        <v>74.723001832208</v>
+      </c>
+      <c r="R75" s="74">
+        <v>0</v>
+      </c>
+      <c r="S75" s="74">
+        <v>10000</v>
+      </c>
+      <c r="T75" s="79">
+        <v>25</v>
+      </c>
+      <c r="U75" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="76" ht="24" customHeight="1">
+      <c r="A76" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="74">
+        <v>0</v>
+      </c>
+      <c r="F76" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" s="88">
+        <v>250000</v>
+      </c>
+      <c r="H76" s="76"/>
+      <c r="I76" s="110">
+        <v>0</v>
+      </c>
+      <c r="J76" s="78">
+        <v>18.145836637387756</v>
+      </c>
+      <c r="K76" s="74">
+        <v>0</v>
+      </c>
+      <c r="L76" s="74">
+        <v>20000</v>
+      </c>
+      <c r="M76" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N76" s="76">
+        <v>13777.264999999967</v>
+      </c>
+      <c r="O76" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P76" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="78">
+        <v>74.723001832208</v>
+      </c>
+      <c r="R76" s="74">
+        <v>0</v>
+      </c>
+      <c r="S76" s="74">
+        <v>10000</v>
+      </c>
+      <c r="T76" s="79">
+        <v>25</v>
+      </c>
+      <c r="U76" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="77" ht="24" customHeight="1">
+      <c r="A77" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="74">
+        <v>0</v>
+      </c>
+      <c r="F77" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="88">
+        <v>250000</v>
+      </c>
+      <c r="H77" s="76"/>
+      <c r="I77" s="110">
+        <v>0</v>
+      </c>
+      <c r="J77" s="78">
+        <v>18.145836637387756</v>
+      </c>
+      <c r="K77" s="74">
+        <v>0</v>
+      </c>
+      <c r="L77" s="74">
+        <v>20000</v>
+      </c>
+      <c r="M77" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N77" s="76">
+        <v>13777.264999999967</v>
+      </c>
+      <c r="O77" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P77" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="78">
+        <v>74.723001832208</v>
+      </c>
+      <c r="R77" s="74">
+        <v>0</v>
+      </c>
+      <c r="S77" s="74">
+        <v>10000</v>
+      </c>
+      <c r="T77" s="79">
+        <v>25</v>
+      </c>
+      <c r="U77" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="78" ht="24" customHeight="1">
+      <c r="A78" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="27"/>
+      <c r="C78" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="74">
+        <v>0</v>
+      </c>
+      <c r="F78" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="88">
+        <v>250000</v>
+      </c>
+      <c r="H78" s="76"/>
+      <c r="I78" s="110">
+        <v>0</v>
+      </c>
+      <c r="J78" s="78">
+        <v>18.145836637387756</v>
+      </c>
+      <c r="K78" s="74">
+        <v>0</v>
+      </c>
+      <c r="L78" s="74">
+        <v>20000</v>
+      </c>
+      <c r="M78" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="N78" s="76">
+        <v>13777.264999999967</v>
+      </c>
+      <c r="O78" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="P78" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="78">
+        <v>74.723001832208</v>
+      </c>
+      <c r="R78" s="74">
+        <v>0</v>
+      </c>
+      <c r="S78" s="74">
+        <v>10000</v>
+      </c>
+      <c r="T78" s="79">
+        <v>25</v>
+      </c>
+      <c r="U78" s="76">
+        <v>3345.69</v>
+      </c>
+    </row>
+    <row r="79" ht="24" customHeight="1">
+      <c r="B79" s="27"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="50">
-        <v>0</v>
-      </c>
-      <c r="F51" s="41" t="s">
+      <c r="E79" s="50">
+        <v>0</v>
+      </c>
+      <c r="F79" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G51" s="41">
+      <c r="G79" s="41">
         <v>1500000</v>
       </c>
-      <c r="H51" s="42"/>
-      <c r="I51" s="51" t="s">
+      <c r="H79" s="42"/>
+      <c r="I79" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J51" s="68">
+      <c r="J79" s="68">
         <v>108.87501982432654</v>
       </c>
-      <c r="K51" s="50" t="s">
+      <c r="K79" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="L51" s="50">
+      <c r="L79" s="50">
         <v>120000</v>
       </c>
-      <c r="M51" s="46">
+      <c r="M79" s="46">
         <v>12.5</v>
       </c>
-      <c r="N51" s="42">
+      <c r="N79" s="42">
         <v>13777.264999999941</v>
       </c>
-      <c r="O51" s="44" t="s">
+      <c r="O79" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="P51" s="49" t="s">
+      <c r="P79" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="Q51" s="68">
+      <c r="Q79" s="68">
         <v>448.338010993248</v>
       </c>
-      <c r="R51" s="50" t="s">
+      <c r="R79" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="S51" s="50">
+      <c r="S79" s="50">
         <v>60000</v>
       </c>
-      <c r="T51" s="46">
+      <c r="T79" s="46">
         <v>25</v>
       </c>
-      <c r="U51" s="42">
+      <c r="U79" s="42">
         <v>3345.69</v>
       </c>
     </row>
-    <row r="52" ht="24" customHeight="1" s="10" customFormat="1"/>
-    <row r="53" ht="48" customHeight="1" s="90" customFormat="1">
-      <c r="C53" s="54" t="s">
+    <row r="80" ht="24" customHeight="1" s="10" customFormat="1"/>
+    <row r="81" ht="48" customHeight="1" s="90" customFormat="1">
+      <c r="C81" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="133"/>
-      <c r="M53" s="133"/>
-      <c r="N53" s="133"/>
-      <c r="O53" s="133"/>
-      <c r="P53" s="133"/>
-      <c r="Q53" s="133"/>
-      <c r="R53" s="133"/>
-      <c r="S53" s="133"/>
-      <c r="T53" s="133"/>
-      <c r="U53" s="133"/>
-    </row>
-    <row r="54" ht="8.1" customHeight="1" s="90" customFormat="1">
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="89"/>
-      <c r="P54" s="89"/>
-      <c r="Q54" s="89"/>
-      <c r="R54" s="89"/>
-      <c r="S54" s="89"/>
-      <c r="T54" s="89"/>
-      <c r="U54" s="89"/>
-    </row>
-    <row r="55" ht="48" customHeight="1" s="72" customFormat="1">
-      <c r="A55" s="90"/>
-      <c r="B55" s="90"/>
-      <c r="C55" s="54" t="s">
+      <c r="D81" s="54"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="G81" s="127"/>
+      <c r="H81" s="127"/>
+      <c r="I81" s="127"/>
+      <c r="J81" s="127"/>
+      <c r="K81" s="127"/>
+      <c r="L81" s="127"/>
+      <c r="M81" s="127"/>
+      <c r="N81" s="127"/>
+      <c r="O81" s="127"/>
+      <c r="P81" s="127"/>
+      <c r="Q81" s="127"/>
+      <c r="R81" s="127"/>
+      <c r="S81" s="127"/>
+      <c r="T81" s="127"/>
+      <c r="U81" s="127"/>
+    </row>
+    <row r="82" ht="8.1" customHeight="1" s="90" customFormat="1">
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="89"/>
+      <c r="H82" s="89"/>
+      <c r="I82" s="89"/>
+      <c r="J82" s="89"/>
+      <c r="K82" s="89"/>
+      <c r="L82" s="89"/>
+      <c r="M82" s="89"/>
+      <c r="N82" s="89"/>
+      <c r="O82" s="89"/>
+      <c r="P82" s="89"/>
+      <c r="Q82" s="89"/>
+      <c r="R82" s="89"/>
+      <c r="S82" s="89"/>
+      <c r="T82" s="89"/>
+      <c r="U82" s="89"/>
+    </row>
+    <row r="83" ht="48" customHeight="1" s="72" customFormat="1">
+      <c r="A83" s="90"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="54"/>
-      <c r="F55" s="133" t="s">
+      <c r="D83" s="54"/>
+      <c r="F83" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="133"/>
-      <c r="L55" s="133"/>
-      <c r="M55" s="133"/>
-      <c r="N55" s="133"/>
-      <c r="O55" s="133"/>
-      <c r="P55" s="133"/>
-      <c r="Q55" s="133"/>
-      <c r="R55" s="133"/>
-      <c r="S55" s="133"/>
-      <c r="T55" s="133"/>
-      <c r="U55" s="133"/>
-      <c r="V55" s="90"/>
-    </row>
-    <row r="56" ht="8.1" customHeight="1" s="90" customFormat="1">
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-    </row>
-    <row r="57" ht="48" customHeight="1" s="90" customFormat="1">
-      <c r="C57" s="54" t="s">
+      <c r="G83" s="127"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="127"/>
+      <c r="J83" s="127"/>
+      <c r="K83" s="127"/>
+      <c r="L83" s="127"/>
+      <c r="M83" s="127"/>
+      <c r="N83" s="127"/>
+      <c r="O83" s="127"/>
+      <c r="P83" s="127"/>
+      <c r="Q83" s="127"/>
+      <c r="R83" s="127"/>
+      <c r="S83" s="127"/>
+      <c r="T83" s="127"/>
+      <c r="U83" s="127"/>
+      <c r="V83" s="90"/>
+    </row>
+    <row r="84" ht="8.1" customHeight="1" s="90" customFormat="1">
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
+      <c r="K84" s="73"/>
+      <c r="L84" s="73"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="73"/>
+      <c r="O84" s="73"/>
+      <c r="P84" s="73"/>
+      <c r="Q84" s="73"/>
+      <c r="R84" s="73"/>
+      <c r="S84" s="73"/>
+      <c r="T84" s="73"/>
+      <c r="U84" s="73"/>
+    </row>
+    <row r="85" ht="48" customHeight="1" s="90" customFormat="1">
+      <c r="C85" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="54"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="133"/>
-      <c r="M57" s="133"/>
-      <c r="N57" s="133"/>
-      <c r="O57" s="133"/>
-      <c r="P57" s="133"/>
-      <c r="Q57" s="133"/>
-      <c r="R57" s="133"/>
-      <c r="S57" s="133"/>
-      <c r="T57" s="133"/>
-      <c r="U57" s="133"/>
-    </row>
-    <row r="58" ht="8.1" customHeight="1" s="90" customFormat="1">
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="73"/>
-    </row>
-    <row r="59" ht="48.95" customHeight="1" s="72" customFormat="1">
-      <c r="A59" s="90"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="54" t="s">
+      <c r="D85" s="54"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="G85" s="127"/>
+      <c r="H85" s="127"/>
+      <c r="I85" s="127"/>
+      <c r="J85" s="127"/>
+      <c r="K85" s="127"/>
+      <c r="L85" s="127"/>
+      <c r="M85" s="127"/>
+      <c r="N85" s="127"/>
+      <c r="O85" s="127"/>
+      <c r="P85" s="127"/>
+      <c r="Q85" s="127"/>
+      <c r="R85" s="127"/>
+      <c r="S85" s="127"/>
+      <c r="T85" s="127"/>
+      <c r="U85" s="127"/>
+    </row>
+    <row r="86" ht="8.1" customHeight="1" s="90" customFormat="1">
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="73"/>
+      <c r="K86" s="73"/>
+      <c r="L86" s="73"/>
+      <c r="M86" s="73"/>
+      <c r="N86" s="73"/>
+      <c r="O86" s="73"/>
+      <c r="P86" s="73"/>
+      <c r="Q86" s="73"/>
+      <c r="R86" s="73"/>
+      <c r="S86" s="73"/>
+      <c r="T86" s="73"/>
+      <c r="U86" s="73"/>
+    </row>
+    <row r="87" ht="48.95" customHeight="1" s="72" customFormat="1">
+      <c r="A87" s="90"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="54"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
-      <c r="J59" s="125"/>
-      <c r="K59" s="125"/>
-      <c r="L59" s="125"/>
-      <c r="M59" s="125"/>
-      <c r="N59" s="125"/>
-      <c r="O59" s="125"/>
-      <c r="P59" s="125"/>
-      <c r="Q59" s="125"/>
-      <c r="R59" s="125"/>
-      <c r="S59" s="125"/>
-      <c r="T59" s="125"/>
-      <c r="U59" s="125"/>
-      <c r="V59" s="90"/>
-    </row>
-    <row r="60" ht="8.1" customHeight="1" s="90" customFormat="1">
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
-    </row>
-    <row r="61" ht="147" customHeight="1" s="90" customFormat="1">
-      <c r="C61" s="54" t="s">
+      <c r="D87" s="54"/>
+      <c r="F87" s="119"/>
+      <c r="G87" s="119"/>
+      <c r="H87" s="119"/>
+      <c r="I87" s="119"/>
+      <c r="J87" s="119"/>
+      <c r="K87" s="119"/>
+      <c r="L87" s="119"/>
+      <c r="M87" s="119"/>
+      <c r="N87" s="119"/>
+      <c r="O87" s="119"/>
+      <c r="P87" s="119"/>
+      <c r="Q87" s="119"/>
+      <c r="R87" s="119"/>
+      <c r="S87" s="119"/>
+      <c r="T87" s="119"/>
+      <c r="U87" s="119"/>
+      <c r="V87" s="90"/>
+    </row>
+    <row r="88" ht="8.1" customHeight="1" s="90" customFormat="1">
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+      <c r="K88" s="73"/>
+      <c r="L88" s="73"/>
+      <c r="M88" s="73"/>
+      <c r="N88" s="73"/>
+      <c r="O88" s="73"/>
+      <c r="P88" s="73"/>
+      <c r="Q88" s="73"/>
+      <c r="R88" s="73"/>
+      <c r="S88" s="73"/>
+      <c r="T88" s="73"/>
+      <c r="U88" s="73"/>
+    </row>
+    <row r="89" ht="147" customHeight="1" s="90" customFormat="1">
+      <c r="C89" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="54"/>
-      <c r="F61" s="124" t="s">
-        <v>114</v>
-      </c>
-      <c r="G61" s="124"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="124"/>
-      <c r="K61" s="124"/>
-      <c r="L61" s="124"/>
-      <c r="M61" s="124"/>
-      <c r="N61" s="124"/>
-      <c r="O61" s="124"/>
-      <c r="P61" s="124"/>
-      <c r="Q61" s="124"/>
-      <c r="R61" s="124"/>
-      <c r="S61" s="124"/>
-      <c r="T61" s="124"/>
-      <c r="U61" s="124"/>
+      <c r="D89" s="54"/>
+      <c r="F89" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="G89" s="118"/>
+      <c r="H89" s="118"/>
+      <c r="I89" s="118"/>
+      <c r="J89" s="118"/>
+      <c r="K89" s="118"/>
+      <c r="L89" s="118"/>
+      <c r="M89" s="118"/>
+      <c r="N89" s="118"/>
+      <c r="O89" s="118"/>
+      <c r="P89" s="118"/>
+      <c r="Q89" s="118"/>
+      <c r="R89" s="118"/>
+      <c r="S89" s="118"/>
+      <c r="T89" s="118"/>
+      <c r="U89" s="118"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="F61:U61"/>
-    <mergeCell ref="F53:U53"/>
+    <mergeCell ref="F89:U89"/>
+    <mergeCell ref="F81:U81"/>
     <mergeCell ref="H17:N17"/>
     <mergeCell ref="O7:U7"/>
-    <mergeCell ref="F55:U55"/>
-    <mergeCell ref="F57:U57"/>
-    <mergeCell ref="F59:U59"/>
+    <mergeCell ref="F83:U83"/>
+    <mergeCell ref="F85:U85"/>
+    <mergeCell ref="F87:U87"/>
     <mergeCell ref="O17:U17"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:T5"/>
@@ -13396,12 +14284,18 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="O28:U28"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="O36:U36"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="O37:U37"/>
+    <mergeCell ref="H46:N46"/>
+    <mergeCell ref="O46:U46"/>
+    <mergeCell ref="I64:N64"/>
+    <mergeCell ref="O64:U64"/>
+    <mergeCell ref="I70:N70"/>
+    <mergeCell ref="O70:U70"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="O26:U26"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="O54:U54"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:U3 C5 C4:O4 Q4 S4:U4 U5 C6:U10 O14:U17 H15:N15 C20:U28">
     <cfRule type="expression" dxfId="0" priority="76">

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -274,7 +274,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/27/20</t>
+    <t>Created 02/29/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1665,7 +1665,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 02/27/20</v>
+        <v>Created 02/29/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -274,7 +274,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/29/20</t>
+    <t>Created 03/02/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1665,7 +1665,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 02/29/20</v>
+        <v>Created 03/02/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -8805,13 +8805,13 @@
       <c r="G14" s="41">
         <v>750000</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="51">
+      <c r="J14" s="68">
         <v>51.31333249145078</v>
       </c>
-      <c r="J14" s="68"/>
       <c r="K14" s="50" t="s">
         <v>38</v>
       </c>
@@ -9699,13 +9699,13 @@
       <c r="G41" s="41">
         <v>250000</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="42"/>
+      <c r="I41" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="51">
+      <c r="J41" s="68">
         <v>18.145836637387756</v>
       </c>
-      <c r="J41" s="68"/>
       <c r="K41" s="50" t="s">
         <v>38</v>
       </c>
@@ -10520,13 +10520,13 @@
       <c r="G65" s="41">
         <v>1000000</v>
       </c>
-      <c r="H65" s="42" t="s">
+      <c r="H65" s="42"/>
+      <c r="I65" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="51">
+      <c r="J65" s="68">
         <v>69.459169128838539</v>
       </c>
-      <c r="J65" s="68"/>
       <c r="K65" s="50" t="s">
         <v>38</v>
       </c>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -274,7 +274,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/02/20</t>
+    <t>Created 03/03/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1665,7 +1665,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 03/02/20</v>
+        <v>Created 03/03/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -274,7 +274,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/03/20</t>
+    <t>Created 03/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1665,7 +1665,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 03/03/20</v>
+        <v>Created 03/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -274,7 +274,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/05/20</t>
+    <t>Created 03/10/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1665,7 +1665,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 03/05/20</v>
+        <v>Created 03/10/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A34D29D1-3AC8-4B30-B911-AC22546302CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{218018CF-6366-42FE-BA2A-5D89B5843371}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
@@ -274,7 +274,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/10/20</t>
+    <t>Created 06/17/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -304,16 +304,16 @@
     <t>DAY</t>
   </si>
   <si>
-    <t>30</t>
+    <t>15 eq.</t>
   </si>
   <si>
     <t>Even</t>
   </si>
   <si>
-    <t>PT</t>
+    <t>30</t>
   </si>
   <si>
-    <t>15 eq.</t>
+    <t>PT</t>
   </si>
   <si>
     <t>Totals</t>
@@ -676,7 +676,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -1052,6 +1052,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1665,7 +1668,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 03/10/20</v>
+        <v>Created 06/17/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1709,7 +1712,7 @@
       <c r="P6" s="57"/>
     </row>
     <row r="7">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="128" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="121" t="s">
@@ -2033,7 +2036,7 @@
       <c r="P14" s="116"/>
     </row>
     <row r="16">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="128" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="121" t="s">
@@ -2357,7 +2360,7 @@
       <c r="P23" s="116"/>
     </row>
     <row r="25">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="128" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="121" t="s">
@@ -2681,7 +2684,7 @@
       <c r="P32" s="116"/>
     </row>
     <row r="34">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="128" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="121" t="s">
@@ -3005,7 +3008,7 @@
       <c r="P41" s="116"/>
     </row>
     <row r="43">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="128" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="121" t="s">
@@ -3329,7 +3332,7 @@
       <c r="P50" s="116"/>
     </row>
     <row r="52">
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="128" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="121" t="s">
@@ -3653,7 +3656,7 @@
       <c r="P59" s="116"/>
     </row>
     <row r="61">
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="128" t="s">
         <v>67</v>
       </c>
       <c r="C61" s="121" t="s">
@@ -3977,7 +3980,7 @@
       <c r="P68" s="116"/>
     </row>
     <row r="70">
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="128" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="121" t="s">
@@ -4301,7 +4304,7 @@
       <c r="P77" s="116"/>
     </row>
     <row r="79">
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="128" t="s">
         <v>69</v>
       </c>
       <c r="C79" s="121" t="s">
@@ -4625,7 +4628,7 @@
       <c r="P86" s="116"/>
     </row>
     <row r="88">
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="128" t="s">
         <v>73</v>
       </c>
       <c r="C88" s="121" t="s">
@@ -4949,7 +4952,7 @@
       <c r="P95" s="116"/>
     </row>
     <row r="97">
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="128" t="s">
         <v>74</v>
       </c>
       <c r="C97" s="121" t="s">
@@ -5273,7 +5276,7 @@
       <c r="P104" s="116"/>
     </row>
     <row r="106">
-      <c r="B106" s="52" t="s">
+      <c r="B106" s="128" t="s">
         <v>75</v>
       </c>
       <c r="C106" s="121" t="s">
@@ -8256,11 +8259,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -8270,6 +8268,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8510,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="78">
-        <v>8.291873963515755</v>
+        <v>8.275</v>
       </c>
       <c r="K9" s="74">
         <v>0</v>
@@ -8522,7 +8525,7 @@
         <v>12.5</v>
       </c>
       <c r="N9" s="76">
-        <v>15074.999999999991</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O9" s="80">
         <v>0.5</v>
@@ -8531,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="78">
-        <v>37.361500916104</v>
+        <v>31.3</v>
       </c>
       <c r="R9" s="74">
         <v>0</v>
@@ -8543,7 +8546,7 @@
         <v>25</v>
       </c>
       <c r="U9" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -8552,10 +8555,10 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="10" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10" s="74">
         <v>0</v>
@@ -8571,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="78">
-        <v>8.291873963515755</v>
+        <v>8.275</v>
       </c>
       <c r="K10" s="74">
         <v>0</v>
@@ -8583,7 +8586,7 @@
         <v>12.5</v>
       </c>
       <c r="N10" s="76">
-        <v>15074.999999999991</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O10" s="80">
         <v>0.5</v>
@@ -8592,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="78">
-        <v>37.361500916104</v>
+        <v>31.3</v>
       </c>
       <c r="R10" s="74">
         <v>0</v>
@@ -8604,7 +8607,7 @@
         <v>25</v>
       </c>
       <c r="U10" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -8613,7 +8616,7 @@
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="10" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>90</v>
@@ -8625,26 +8628,26 @@
         <v>0</v>
       </c>
       <c r="G11" s="88">
-        <v>250000</v>
+        <v>125000</v>
       </c>
       <c r="H11" s="76"/>
       <c r="I11" s="110">
         <v>0</v>
       </c>
       <c r="J11" s="78">
-        <v>16.58374792703151</v>
+        <v>8.275</v>
       </c>
       <c r="K11" s="74">
         <v>0</v>
       </c>
       <c r="L11" s="74">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M11" s="79">
         <v>12.5</v>
       </c>
       <c r="N11" s="76">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O11" s="80">
         <v>0.5</v>
@@ -8653,19 +8656,19 @@
         <v>0</v>
       </c>
       <c r="Q11" s="78">
-        <v>74.723001832208</v>
+        <v>31.3</v>
       </c>
       <c r="R11" s="74">
         <v>0</v>
       </c>
       <c r="S11" s="74">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="T11" s="79">
         <v>25</v>
       </c>
       <c r="U11" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -8674,10 +8677,10 @@
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="10" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="74">
         <v>0</v>
@@ -8693,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="78">
-        <v>9.072918318693878</v>
+        <v>8.275</v>
       </c>
       <c r="K12" s="74">
         <v>0</v>
@@ -8705,7 +8708,7 @@
         <v>12.5</v>
       </c>
       <c r="N12" s="76">
-        <v>13777.264999999996</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O12" s="80">
         <v>0.5</v>
@@ -8714,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="78">
-        <v>37.361500916104</v>
+        <v>31.3</v>
       </c>
       <c r="R12" s="74">
         <v>0</v>
@@ -8726,7 +8729,7 @@
         <v>25</v>
       </c>
       <c r="U12" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -8735,10 +8738,10 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="10" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="74">
         <v>0</v>
@@ -8747,26 +8750,26 @@
         <v>0</v>
       </c>
       <c r="G13" s="88">
-        <v>125000</v>
+        <v>250000</v>
       </c>
       <c r="H13" s="76"/>
       <c r="I13" s="110">
         <v>0</v>
       </c>
       <c r="J13" s="78">
-        <v>9.072918318693878</v>
+        <v>16.55</v>
       </c>
       <c r="K13" s="74">
         <v>0</v>
       </c>
       <c r="L13" s="74">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M13" s="79">
         <v>12.5</v>
       </c>
       <c r="N13" s="76">
-        <v>13777.264999999996</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O13" s="80">
         <v>0.5</v>
@@ -8775,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="Q13" s="78">
-        <v>37.361500916104</v>
+        <v>62.6</v>
       </c>
       <c r="R13" s="74">
         <v>0</v>
       </c>
       <c r="S13" s="74">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="T13" s="79">
         <v>25</v>
       </c>
       <c r="U13" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1">
@@ -8810,7 +8813,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="68">
-        <v>51.31333249145078</v>
+        <v>49.650000000000006</v>
       </c>
       <c r="K14" s="50" t="s">
         <v>38</v>
@@ -8822,7 +8825,7 @@
         <v>12.5</v>
       </c>
       <c r="N14" s="42">
-        <v>14616.084428446658</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O14" s="44" t="s">
         <v>38</v>
@@ -8831,7 +8834,7 @@
         <v>38</v>
       </c>
       <c r="Q14" s="68">
-        <v>224.169005496624</v>
+        <v>187.8</v>
       </c>
       <c r="R14" s="50" t="s">
         <v>38</v>
@@ -8843,7 +8846,7 @@
         <v>25</v>
       </c>
       <c r="U14" s="42">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" s="71" customFormat="1">
@@ -8932,46 +8935,46 @@
       <c r="F19" s="71"/>
       <c r="G19" s="71"/>
       <c r="H19" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I19" s="83">
         <v>0</v>
       </c>
       <c r="J19" s="84">
-        <v>8.1776392754052551</v>
+        <v>8.175</v>
       </c>
       <c r="K19" s="82">
         <v>0</v>
       </c>
       <c r="L19" s="82">
-        <v>12249.285870629532</v>
+        <v>12249.28575</v>
       </c>
       <c r="M19" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N19" s="86">
-        <v>15285.584970218115</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O19" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P19" s="83">
         <v>0</v>
       </c>
       <c r="Q19" s="84">
-        <v>8.3043998142435758</v>
+        <v>8.3</v>
       </c>
       <c r="R19" s="82">
         <v>0</v>
       </c>
       <c r="S19" s="82">
-        <v>17819.581121403866</v>
+        <v>17819.581</v>
       </c>
       <c r="T19" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U19" s="86">
-        <v>15052.261788456031</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -8985,46 +8988,46 @@
       <c r="F20" s="69"/>
       <c r="G20" s="69"/>
       <c r="H20" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I20" s="83">
         <v>0</v>
       </c>
       <c r="J20" s="84">
-        <v>8.1776392754052551</v>
+        <v>8.175</v>
       </c>
       <c r="K20" s="82">
         <v>0</v>
       </c>
       <c r="L20" s="82">
-        <v>12249.285870629532</v>
+        <v>12249.28575</v>
       </c>
       <c r="M20" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N20" s="86">
-        <v>15285.584970218115</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O20" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P20" s="83">
         <v>0</v>
       </c>
       <c r="Q20" s="84">
-        <v>8.3043998142435758</v>
+        <v>8.3</v>
       </c>
       <c r="R20" s="82">
         <v>0</v>
       </c>
       <c r="S20" s="82">
-        <v>17819.581121403866</v>
+        <v>17819.581</v>
       </c>
       <c r="T20" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U20" s="86">
-        <v>15052.261788456031</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -9038,46 +9041,46 @@
       <c r="F21" s="69"/>
       <c r="G21" s="69"/>
       <c r="H21" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I21" s="83">
         <v>0</v>
       </c>
       <c r="J21" s="84">
-        <v>16.35527855081051</v>
+        <v>8.175</v>
       </c>
       <c r="K21" s="82">
         <v>0</v>
       </c>
       <c r="L21" s="82">
-        <v>24498.571741259064</v>
+        <v>12249.28575</v>
       </c>
       <c r="M21" s="85">
-        <v>10.204676527283597</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N21" s="86">
-        <v>15285.584970218135</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O21" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P21" s="83">
         <v>0</v>
       </c>
       <c r="Q21" s="84">
-        <v>16.608799628487152</v>
+        <v>8.3</v>
       </c>
       <c r="R21" s="82">
         <v>0</v>
       </c>
       <c r="S21" s="82">
-        <v>35639.162242807732</v>
+        <v>17819.581</v>
       </c>
       <c r="T21" s="85">
-        <v>7.0147552374201005</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U21" s="86">
-        <v>15052.261788455995</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
@@ -9091,46 +9094,46 @@
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
       <c r="H22" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I22" s="83">
         <v>0</v>
       </c>
       <c r="J22" s="84">
-        <v>9.27836584001722</v>
+        <v>8.175</v>
       </c>
       <c r="K22" s="82">
         <v>0</v>
       </c>
       <c r="L22" s="82">
-        <v>12249.285870629532</v>
+        <v>12249.28575</v>
       </c>
       <c r="M22" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N22" s="86">
-        <v>13472.199970912983</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O22" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P22" s="83">
         <v>0</v>
       </c>
       <c r="Q22" s="84">
-        <v>9.0290705417449413</v>
+        <v>8.3</v>
       </c>
       <c r="R22" s="82">
         <v>0</v>
       </c>
       <c r="S22" s="82">
-        <v>17819.581121403866</v>
+        <v>17819.581</v>
       </c>
       <c r="T22" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U22" s="86">
-        <v>13844.171381990636</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1">
@@ -9144,46 +9147,46 @@
       <c r="F23" s="69"/>
       <c r="G23" s="69"/>
       <c r="H23" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I23" s="83">
         <v>0</v>
       </c>
       <c r="J23" s="84">
-        <v>9.27836584001722</v>
+        <v>16.35</v>
       </c>
       <c r="K23" s="82">
         <v>0</v>
       </c>
       <c r="L23" s="82">
-        <v>12249.285870629532</v>
+        <v>24498.5715</v>
       </c>
       <c r="M23" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N23" s="86">
-        <v>13472.199970912983</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O23" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P23" s="83">
         <v>0</v>
       </c>
       <c r="Q23" s="84">
-        <v>9.0290705417449413</v>
+        <v>16.6</v>
       </c>
       <c r="R23" s="82">
         <v>0</v>
       </c>
       <c r="S23" s="82">
-        <v>17819.581121403866</v>
+        <v>35639.162</v>
       </c>
       <c r="T23" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U23" s="86">
-        <v>13844.171381990636</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1" s="71" customFormat="1">
@@ -9195,19 +9198,19 @@
         <v>38</v>
       </c>
       <c r="J24" s="68">
-        <v>51.267288781655452</v>
+        <v>49.050000000000004</v>
       </c>
       <c r="K24" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L24" s="50">
-        <v>73495.7152237772</v>
+        <v>73495.7145</v>
       </c>
       <c r="M24" s="46">
-        <v>10.204676527283612</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N24" s="42">
-        <v>14629.211292881302</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O24" s="44" t="s">
         <v>38</v>
@@ -9216,19 +9219,19 @@
         <v>38</v>
       </c>
       <c r="Q24" s="68">
-        <v>51.275740340464189</v>
+        <v>49.800000000000004</v>
       </c>
       <c r="R24" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S24" s="50">
-        <v>106917.4867284232</v>
+        <v>106917.48599999999</v>
       </c>
       <c r="T24" s="46">
-        <v>7.0147552374201059</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U24" s="42">
-        <v>14626.800023170767</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -9278,25 +9281,25 @@
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I28" s="83">
         <v>0</v>
       </c>
       <c r="J28" s="84">
-        <v>8.35173307938059</v>
+        <v>8.35</v>
       </c>
       <c r="K28" s="82">
         <v>0</v>
       </c>
       <c r="L28" s="82">
-        <v>4961.7646224600085</v>
+        <v>4961.7645</v>
       </c>
       <c r="M28" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N28" s="86">
-        <v>14966.953422949991</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -9310,25 +9313,25 @@
       <c r="F29" s="69"/>
       <c r="G29" s="69"/>
       <c r="H29" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I29" s="83">
         <v>0</v>
       </c>
       <c r="J29" s="84">
-        <v>8.35173307938059</v>
+        <v>8.35</v>
       </c>
       <c r="K29" s="82">
         <v>0</v>
       </c>
       <c r="L29" s="82">
-        <v>4961.7646224600085</v>
+        <v>4961.7645</v>
       </c>
       <c r="M29" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N29" s="86">
-        <v>14966.953422949991</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -9342,25 +9345,25 @@
       <c r="F30" s="69"/>
       <c r="G30" s="69"/>
       <c r="H30" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I30" s="83">
         <v>0</v>
       </c>
       <c r="J30" s="84">
-        <v>16.703466158761181</v>
+        <v>8.35</v>
       </c>
       <c r="K30" s="82">
         <v>0</v>
       </c>
       <c r="L30" s="82">
-        <v>9923.5292449200169</v>
+        <v>4961.7645</v>
       </c>
       <c r="M30" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N30" s="86">
-        <v>14966.953422949975</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
@@ -9374,25 +9377,25 @@
       <c r="F31" s="69"/>
       <c r="G31" s="69"/>
       <c r="H31" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I31" s="83">
         <v>0</v>
       </c>
       <c r="J31" s="84">
-        <v>9.2035113125460555</v>
+        <v>8.35</v>
       </c>
       <c r="K31" s="82">
         <v>0</v>
       </c>
       <c r="L31" s="82">
-        <v>4961.7646224600085</v>
+        <v>4961.7645</v>
       </c>
       <c r="M31" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N31" s="86">
-        <v>13581.772842458753</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1">
@@ -9406,25 +9409,25 @@
       <c r="F32" s="69"/>
       <c r="G32" s="69"/>
       <c r="H32" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I32" s="83">
         <v>0</v>
       </c>
       <c r="J32" s="84">
-        <v>9.2035113125460555</v>
+        <v>16.7</v>
       </c>
       <c r="K32" s="82">
         <v>0</v>
       </c>
       <c r="L32" s="82">
-        <v>4961.7646224600085</v>
+        <v>9923.529</v>
       </c>
       <c r="M32" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N32" s="86">
-        <v>13581.772842458753</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1">
@@ -9436,19 +9439,19 @@
         <v>38</v>
       </c>
       <c r="J33" s="68">
-        <v>51.813954942614473</v>
+        <v>50.099999999999994</v>
       </c>
       <c r="K33" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L33" s="50">
-        <v>29770.587734760054</v>
+        <v>29770.587</v>
       </c>
       <c r="M33" s="46">
-        <v>25.192650097542447</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N33" s="42">
-        <v>14474.864943829271</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1" s="108" customFormat="1"/>
@@ -9571,7 +9574,7 @@
         <v>89</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E39" s="74">
         <v>0</v>
@@ -9587,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="78">
-        <v>9.072918318693878</v>
+        <v>8.275</v>
       </c>
       <c r="K39" s="74">
         <v>0</v>
@@ -9599,7 +9602,7 @@
         <v>12.5</v>
       </c>
       <c r="N39" s="76">
-        <v>13777.264999999996</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O39" s="80">
         <v>0.5</v>
@@ -9608,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="78">
-        <v>37.361500916104</v>
+        <v>31.3</v>
       </c>
       <c r="R39" s="74">
         <v>0</v>
@@ -9620,7 +9623,7 @@
         <v>25</v>
       </c>
       <c r="U39" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1">
@@ -9632,7 +9635,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E40" s="74">
         <v>0</v>
@@ -9648,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="78">
-        <v>9.072918318693878</v>
+        <v>8.275</v>
       </c>
       <c r="K40" s="74">
         <v>0</v>
@@ -9660,7 +9663,7 @@
         <v>12.5</v>
       </c>
       <c r="N40" s="76">
-        <v>13777.264999999996</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O40" s="80">
         <v>0.5</v>
@@ -9669,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="78">
-        <v>37.361500916104</v>
+        <v>31.3</v>
       </c>
       <c r="R40" s="74">
         <v>0</v>
@@ -9681,7 +9684,7 @@
         <v>25</v>
       </c>
       <c r="U40" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="41" ht="24" customHeight="1">
@@ -9704,7 +9707,7 @@
         <v>38</v>
       </c>
       <c r="J41" s="68">
-        <v>18.145836637387756</v>
+        <v>16.55</v>
       </c>
       <c r="K41" s="50" t="s">
         <v>38</v>
@@ -9716,7 +9719,7 @@
         <v>12.5</v>
       </c>
       <c r="N41" s="42">
-        <v>13777.264999999967</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O41" s="44" t="s">
         <v>38</v>
@@ -9725,7 +9728,7 @@
         <v>38</v>
       </c>
       <c r="Q41" s="68">
-        <v>74.723001832208</v>
+        <v>62.6</v>
       </c>
       <c r="R41" s="50" t="s">
         <v>38</v>
@@ -9737,7 +9740,7 @@
         <v>25</v>
       </c>
       <c r="U41" s="42">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="42">
@@ -9826,46 +9829,46 @@
       <c r="F46" s="69"/>
       <c r="G46" s="69"/>
       <c r="H46" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I46" s="83">
         <v>0</v>
       </c>
       <c r="J46" s="84">
-        <v>9.27836584001722</v>
+        <v>8.175</v>
       </c>
       <c r="K46" s="82">
         <v>0</v>
       </c>
       <c r="L46" s="82">
-        <v>12249.285870629532</v>
+        <v>12249.28575</v>
       </c>
       <c r="M46" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N46" s="86">
-        <v>13472.199970912983</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O46" s="87">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="P46" s="83">
         <v>0</v>
       </c>
       <c r="Q46" s="84">
-        <v>9.2035113125460555</v>
+        <v>8.35</v>
       </c>
       <c r="R46" s="82">
         <v>0</v>
       </c>
       <c r="S46" s="82">
-        <v>4961.7646224600085</v>
+        <v>4961.7645</v>
       </c>
       <c r="T46" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="U46" s="86">
-        <v>13581.772842458753</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
@@ -9879,46 +9882,46 @@
       <c r="F47" s="69"/>
       <c r="G47" s="69"/>
       <c r="H47" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I47" s="83">
         <v>0</v>
       </c>
       <c r="J47" s="84">
-        <v>9.27836584001722</v>
+        <v>8.175</v>
       </c>
       <c r="K47" s="82">
         <v>0</v>
       </c>
       <c r="L47" s="82">
-        <v>12249.285870629532</v>
+        <v>12249.28575</v>
       </c>
       <c r="M47" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N47" s="86">
-        <v>13472.199970912983</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O47" s="87">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="P47" s="83">
         <v>0</v>
       </c>
       <c r="Q47" s="84">
-        <v>9.2035113125460555</v>
+        <v>8.35</v>
       </c>
       <c r="R47" s="82">
         <v>0</v>
       </c>
       <c r="S47" s="82">
-        <v>4961.7646224600085</v>
+        <v>4961.7645</v>
       </c>
       <c r="T47" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="U47" s="86">
-        <v>13581.772842458753</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
@@ -9930,19 +9933,19 @@
         <v>38</v>
       </c>
       <c r="J48" s="68">
-        <v>18.556731680034439</v>
+        <v>16.35</v>
       </c>
       <c r="K48" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L48" s="50">
-        <v>24498.571741259064</v>
+        <v>24498.5715</v>
       </c>
       <c r="M48" s="46">
-        <v>10.204676527283597</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N48" s="42">
-        <v>13472.199970913012</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O48" s="44" t="s">
         <v>38</v>
@@ -9951,19 +9954,19 @@
         <v>38</v>
       </c>
       <c r="Q48" s="68">
-        <v>18.407022625092111</v>
+        <v>16.7</v>
       </c>
       <c r="R48" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S48" s="50">
-        <v>9923.5292449200169</v>
+        <v>9923.529</v>
       </c>
       <c r="T48" s="46">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="U48" s="42">
-        <v>13581.772842458771</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="50" ht="24" customHeight="1">
@@ -10013,25 +10016,25 @@
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="109">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="I52" s="83">
         <v>0</v>
       </c>
       <c r="J52" s="84">
-        <v>9.0290705417449413</v>
+        <v>8.3</v>
       </c>
       <c r="K52" s="82">
         <v>0</v>
       </c>
       <c r="L52" s="82">
-        <v>17819.581121403866</v>
+        <v>17819.581</v>
       </c>
       <c r="M52" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="N52" s="86">
-        <v>13844.171381990636</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="53" ht="24" customHeight="1">
@@ -10045,25 +10048,25 @@
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="109">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="I53" s="83">
         <v>0</v>
       </c>
       <c r="J53" s="84">
-        <v>9.0290705417449413</v>
+        <v>8.3</v>
       </c>
       <c r="K53" s="82">
         <v>0</v>
       </c>
       <c r="L53" s="82">
-        <v>17819.581121403866</v>
+        <v>17819.581</v>
       </c>
       <c r="M53" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="N53" s="86">
-        <v>13844.171381990636</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="54" ht="24" customHeight="1">
@@ -10075,19 +10078,19 @@
         <v>38</v>
       </c>
       <c r="J54" s="68">
-        <v>18.058141083489883</v>
+        <v>16.6</v>
       </c>
       <c r="K54" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="50">
-        <v>35639.162242807732</v>
+        <v>35639.162</v>
       </c>
       <c r="M54" s="46">
-        <v>7.0147552374201005</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="N54" s="42">
-        <v>13844.171381990622</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="56">
@@ -10218,26 +10221,26 @@
         <v>0</v>
       </c>
       <c r="G60" s="88">
-        <v>125000</v>
+        <v>250000</v>
       </c>
       <c r="H60" s="76"/>
       <c r="I60" s="110">
         <v>0</v>
       </c>
       <c r="J60" s="78">
-        <v>8.291873963515755</v>
+        <v>16.55</v>
       </c>
       <c r="K60" s="74">
         <v>0</v>
       </c>
       <c r="L60" s="74">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M60" s="79">
         <v>12.5</v>
       </c>
       <c r="N60" s="76">
-        <v>15074.999999999991</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O60" s="80">
         <v>0.5</v>
@@ -10246,19 +10249,19 @@
         <v>0</v>
       </c>
       <c r="Q60" s="78">
-        <v>37.361500916104</v>
+        <v>62.6</v>
       </c>
       <c r="R60" s="74">
         <v>0</v>
       </c>
       <c r="S60" s="74">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="T60" s="79">
         <v>25</v>
       </c>
       <c r="U60" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="61" ht="24" customHeight="1">
@@ -10267,10 +10270,10 @@
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="10" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="74">
         <v>0</v>
@@ -10286,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="78">
-        <v>8.291873963515755</v>
+        <v>8.275</v>
       </c>
       <c r="K61" s="74">
         <v>0</v>
@@ -10298,7 +10301,7 @@
         <v>12.5</v>
       </c>
       <c r="N61" s="76">
-        <v>15074.999999999991</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O61" s="80">
         <v>0.5</v>
@@ -10307,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="78">
-        <v>37.361500916104</v>
+        <v>31.3</v>
       </c>
       <c r="R61" s="74">
         <v>0</v>
@@ -10319,7 +10322,7 @@
         <v>25</v>
       </c>
       <c r="U61" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="62" ht="24" customHeight="1">
@@ -10328,7 +10331,7 @@
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="10" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>90</v>
@@ -10347,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="78">
-        <v>16.58374792703151</v>
+        <v>16.55</v>
       </c>
       <c r="K62" s="74">
         <v>0</v>
@@ -10359,7 +10362,7 @@
         <v>12.5</v>
       </c>
       <c r="N62" s="76">
-        <v>15075.000000000009</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O62" s="80">
         <v>0.5</v>
@@ -10368,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="78">
-        <v>74.723001832208</v>
+        <v>62.6</v>
       </c>
       <c r="R62" s="74">
         <v>0</v>
@@ -10380,7 +10383,7 @@
         <v>25</v>
       </c>
       <c r="U62" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="63" ht="24" customHeight="1">
@@ -10389,10 +10392,10 @@
       </c>
       <c r="B63" s="27"/>
       <c r="C63" s="10" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63" s="74">
         <v>0</v>
@@ -10401,26 +10404,26 @@
         <v>0</v>
       </c>
       <c r="G63" s="88">
-        <v>250000</v>
+        <v>125000</v>
       </c>
       <c r="H63" s="76"/>
       <c r="I63" s="110">
         <v>0</v>
       </c>
       <c r="J63" s="78">
-        <v>18.145836637387756</v>
+        <v>8.275</v>
       </c>
       <c r="K63" s="74">
         <v>0</v>
       </c>
       <c r="L63" s="74">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M63" s="79">
         <v>12.5</v>
       </c>
       <c r="N63" s="76">
-        <v>13777.264999999967</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O63" s="80">
         <v>0.5</v>
@@ -10429,19 +10432,19 @@
         <v>0</v>
       </c>
       <c r="Q63" s="78">
-        <v>74.723001832208</v>
+        <v>31.3</v>
       </c>
       <c r="R63" s="74">
         <v>0</v>
       </c>
       <c r="S63" s="74">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="T63" s="79">
         <v>25</v>
       </c>
       <c r="U63" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="64" ht="24" customHeight="1">
@@ -10450,10 +10453,10 @@
       </c>
       <c r="B64" s="27"/>
       <c r="C64" s="10" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="74">
         <v>0</v>
@@ -10469,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="78">
-        <v>18.145836637387756</v>
+        <v>16.55</v>
       </c>
       <c r="K64" s="74">
         <v>0</v>
@@ -10481,7 +10484,7 @@
         <v>12.5</v>
       </c>
       <c r="N64" s="76">
-        <v>13777.264999999967</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O64" s="80">
         <v>0.5</v>
@@ -10490,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="78">
-        <v>74.723001832208</v>
+        <v>62.6</v>
       </c>
       <c r="R64" s="74">
         <v>0</v>
@@ -10502,7 +10505,7 @@
         <v>25</v>
       </c>
       <c r="U64" s="76">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="65" ht="24" customHeight="1">
@@ -10525,7 +10528,7 @@
         <v>38</v>
       </c>
       <c r="J65" s="68">
-        <v>69.459169128838539</v>
+        <v>66.2</v>
       </c>
       <c r="K65" s="50" t="s">
         <v>38</v>
@@ -10537,7 +10540,7 @@
         <v>12.5</v>
       </c>
       <c r="N65" s="42">
-        <v>14396.947336716898</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="O65" s="44" t="s">
         <v>38</v>
@@ -10546,7 +10549,7 @@
         <v>38</v>
       </c>
       <c r="Q65" s="68">
-        <v>298.892007328832</v>
+        <v>250.4</v>
       </c>
       <c r="R65" s="50" t="s">
         <v>38</v>
@@ -10558,7 +10561,7 @@
         <v>25</v>
       </c>
       <c r="U65" s="42">
-        <v>3345.69</v>
+        <v>3993.6102236421725</v>
       </c>
     </row>
     <row r="66">
@@ -10647,46 +10650,46 @@
       <c r="F70" s="69"/>
       <c r="G70" s="69"/>
       <c r="H70" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I70" s="83">
         <v>0</v>
       </c>
       <c r="J70" s="84">
-        <v>8.1776392754052551</v>
+        <v>16.35</v>
       </c>
       <c r="K70" s="82">
         <v>0</v>
       </c>
       <c r="L70" s="82">
-        <v>12249.285870629532</v>
+        <v>24498.5715</v>
       </c>
       <c r="M70" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N70" s="86">
-        <v>15285.584970218115</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O70" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P70" s="83">
         <v>0</v>
       </c>
       <c r="Q70" s="84">
-        <v>8.3043998142435758</v>
+        <v>16.6</v>
       </c>
       <c r="R70" s="82">
         <v>0</v>
       </c>
       <c r="S70" s="82">
-        <v>17819.581121403866</v>
+        <v>35639.162</v>
       </c>
       <c r="T70" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U70" s="86">
-        <v>15052.261788456031</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="71" ht="24" customHeight="1">
@@ -10700,46 +10703,46 @@
       <c r="F71" s="69"/>
       <c r="G71" s="69"/>
       <c r="H71" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I71" s="83">
         <v>0</v>
       </c>
       <c r="J71" s="84">
-        <v>8.1776392754052551</v>
+        <v>8.175</v>
       </c>
       <c r="K71" s="82">
         <v>0</v>
       </c>
       <c r="L71" s="82">
-        <v>12249.285870629532</v>
+        <v>12249.28575</v>
       </c>
       <c r="M71" s="85">
-        <v>10.204676527283638</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N71" s="86">
-        <v>15285.584970218115</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O71" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P71" s="83">
         <v>0</v>
       </c>
       <c r="Q71" s="84">
-        <v>8.3043998142435758</v>
+        <v>8.3</v>
       </c>
       <c r="R71" s="82">
         <v>0</v>
       </c>
       <c r="S71" s="82">
-        <v>17819.581121403866</v>
+        <v>17819.581</v>
       </c>
       <c r="T71" s="85">
-        <v>7.014755237420081</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U71" s="86">
-        <v>15052.261788456031</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="72" ht="24" customHeight="1">
@@ -10753,46 +10756,46 @@
       <c r="F72" s="69"/>
       <c r="G72" s="69"/>
       <c r="H72" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I72" s="83">
         <v>0</v>
       </c>
       <c r="J72" s="84">
-        <v>16.35527855081051</v>
+        <v>16.35</v>
       </c>
       <c r="K72" s="82">
         <v>0</v>
       </c>
       <c r="L72" s="82">
-        <v>24498.571741259064</v>
+        <v>24498.5715</v>
       </c>
       <c r="M72" s="85">
-        <v>10.204676527283597</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N72" s="86">
-        <v>15285.584970218135</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O72" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P72" s="83">
         <v>0</v>
       </c>
       <c r="Q72" s="84">
-        <v>16.608799628487152</v>
+        <v>16.6</v>
       </c>
       <c r="R72" s="82">
         <v>0</v>
       </c>
       <c r="S72" s="82">
-        <v>35639.162242807732</v>
+        <v>35639.162</v>
       </c>
       <c r="T72" s="85">
-        <v>7.0147552374201005</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U72" s="86">
-        <v>15052.261788455995</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="73" ht="24" customHeight="1">
@@ -10806,46 +10809,46 @@
       <c r="F73" s="69"/>
       <c r="G73" s="69"/>
       <c r="H73" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I73" s="83">
         <v>0</v>
       </c>
       <c r="J73" s="84">
-        <v>18.556731680034439</v>
+        <v>8.175</v>
       </c>
       <c r="K73" s="82">
         <v>0</v>
       </c>
       <c r="L73" s="82">
-        <v>24498.571741259064</v>
+        <v>12249.28575</v>
       </c>
       <c r="M73" s="85">
-        <v>10.204676527283597</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N73" s="86">
-        <v>13472.199970913012</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O73" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P73" s="83">
         <v>0</v>
       </c>
       <c r="Q73" s="84">
-        <v>18.058141083489883</v>
+        <v>8.3</v>
       </c>
       <c r="R73" s="82">
         <v>0</v>
       </c>
       <c r="S73" s="82">
-        <v>35639.162242807732</v>
+        <v>17819.581</v>
       </c>
       <c r="T73" s="85">
-        <v>7.0147552374201005</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U73" s="86">
-        <v>13844.171381990622</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="74" ht="24" customHeight="1">
@@ -10859,46 +10862,46 @@
       <c r="F74" s="69"/>
       <c r="G74" s="69"/>
       <c r="H74" s="109">
-        <v>1.2249285870629532</v>
+        <v>1.2249285749999999</v>
       </c>
       <c r="I74" s="83">
         <v>0</v>
       </c>
       <c r="J74" s="84">
-        <v>18.556731680034439</v>
+        <v>16.35</v>
       </c>
       <c r="K74" s="82">
         <v>0</v>
       </c>
       <c r="L74" s="82">
-        <v>24498.571741259064</v>
+        <v>24498.5715</v>
       </c>
       <c r="M74" s="85">
-        <v>10.204676527283597</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N74" s="86">
-        <v>13472.199970913012</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O74" s="87">
-        <v>1.7819581121403867</v>
+        <v>1.7819580999999998</v>
       </c>
       <c r="P74" s="83">
         <v>0</v>
       </c>
       <c r="Q74" s="84">
-        <v>18.058141083489883</v>
+        <v>16.6</v>
       </c>
       <c r="R74" s="82">
         <v>0</v>
       </c>
       <c r="S74" s="82">
-        <v>35639.162242807732</v>
+        <v>35639.162</v>
       </c>
       <c r="T74" s="85">
-        <v>7.0147552374201005</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U74" s="86">
-        <v>13844.171381990622</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="75" ht="24" customHeight="1">
@@ -10910,19 +10913,19 @@
         <v>38</v>
       </c>
       <c r="J75" s="68">
-        <v>69.8240204616899</v>
+        <v>65.4</v>
       </c>
       <c r="K75" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L75" s="50">
-        <v>97994.286965036255</v>
+        <v>97994.286</v>
       </c>
       <c r="M75" s="46">
-        <v>10.204676527283619</v>
+        <v>10.204676627778074</v>
       </c>
       <c r="N75" s="42">
-        <v>14321.718992802291</v>
+        <v>15290.519877675841</v>
       </c>
       <c r="O75" s="44" t="s">
         <v>38</v>
@@ -10931,19 +10934,19 @@
         <v>38</v>
       </c>
       <c r="Q75" s="68">
-        <v>69.333881423954068</v>
+        <v>66.4</v>
       </c>
       <c r="R75" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S75" s="50">
-        <v>142556.64897123093</v>
+        <v>142556.648</v>
       </c>
       <c r="T75" s="46">
-        <v>7.01475523742009</v>
+        <v>7.014755285211252</v>
       </c>
       <c r="U75" s="42">
-        <v>14422.962907345771</v>
+        <v>15060.240963855422</v>
       </c>
     </row>
     <row r="77" ht="24" customHeight="1">
@@ -10993,25 +10996,25 @@
       <c r="F79" s="69"/>
       <c r="G79" s="69"/>
       <c r="H79" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I79" s="83">
         <v>0</v>
       </c>
       <c r="J79" s="84">
-        <v>8.35173307938059</v>
+        <v>16.7</v>
       </c>
       <c r="K79" s="82">
         <v>0</v>
       </c>
       <c r="L79" s="82">
-        <v>4961.7646224600085</v>
+        <v>9923.529</v>
       </c>
       <c r="M79" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N79" s="86">
-        <v>14966.953422949991</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="80" ht="24" customHeight="1">
@@ -11025,25 +11028,25 @@
       <c r="F80" s="69"/>
       <c r="G80" s="69"/>
       <c r="H80" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I80" s="83">
         <v>0</v>
       </c>
       <c r="J80" s="84">
-        <v>8.35173307938059</v>
+        <v>8.35</v>
       </c>
       <c r="K80" s="82">
         <v>0</v>
       </c>
       <c r="L80" s="82">
-        <v>4961.7646224600085</v>
+        <v>4961.7645</v>
       </c>
       <c r="M80" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N80" s="86">
-        <v>14966.953422949991</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="81" ht="24" customHeight="1">
@@ -11057,25 +11060,25 @@
       <c r="F81" s="69"/>
       <c r="G81" s="69"/>
       <c r="H81" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I81" s="83">
         <v>0</v>
       </c>
       <c r="J81" s="84">
-        <v>16.703466158761181</v>
+        <v>16.7</v>
       </c>
       <c r="K81" s="82">
         <v>0</v>
       </c>
       <c r="L81" s="82">
-        <v>9923.5292449200169</v>
+        <v>9923.529</v>
       </c>
       <c r="M81" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N81" s="86">
-        <v>14966.953422949975</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="82" ht="24" customHeight="1">
@@ -11089,25 +11092,25 @@
       <c r="F82" s="69"/>
       <c r="G82" s="69"/>
       <c r="H82" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I82" s="83">
         <v>0</v>
       </c>
       <c r="J82" s="84">
-        <v>18.407022625092111</v>
+        <v>8.35</v>
       </c>
       <c r="K82" s="82">
         <v>0</v>
       </c>
       <c r="L82" s="82">
-        <v>9923.5292449200169</v>
+        <v>4961.7645</v>
       </c>
       <c r="M82" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N82" s="86">
-        <v>13581.772842458771</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="83" ht="24" customHeight="1">
@@ -11121,25 +11124,25 @@
       <c r="F83" s="69"/>
       <c r="G83" s="69"/>
       <c r="H83" s="109">
-        <v>0.49617646224600087</v>
+        <v>0.49617645000000005</v>
       </c>
       <c r="I83" s="83">
         <v>0</v>
       </c>
       <c r="J83" s="84">
-        <v>18.407022625092111</v>
+        <v>16.7</v>
       </c>
       <c r="K83" s="82">
         <v>0</v>
       </c>
       <c r="L83" s="82">
-        <v>9923.5292449200169</v>
+        <v>9923.529</v>
       </c>
       <c r="M83" s="85">
-        <v>25.192650097542479</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N83" s="86">
-        <v>13581.772842458771</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="84" ht="24" customHeight="1">
@@ -11151,19 +11154,19 @@
         <v>38</v>
       </c>
       <c r="J84" s="68">
-        <v>70.220977567706584</v>
+        <v>66.8</v>
       </c>
       <c r="K84" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L84" s="50">
-        <v>39694.116979680068</v>
+        <v>39694.116</v>
       </c>
       <c r="M84" s="46">
-        <v>25.192650097542469</v>
+        <v>25.192650719315679</v>
       </c>
       <c r="N84" s="42">
-        <v>14240.758739591836</v>
+        <v>14970.05988023952</v>
       </c>
     </row>
     <row r="85" ht="24" customHeight="1" s="10" customFormat="1"/>
@@ -11373,6 +11376,14 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="F94:U94"/>
     <mergeCell ref="F86:U86"/>
     <mergeCell ref="H17:N17"/>
@@ -11381,14 +11392,6 @@
     <mergeCell ref="F90:U90"/>
     <mergeCell ref="F92:U92"/>
     <mergeCell ref="O17:U17"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="I37:N37"/>
     <mergeCell ref="O37:U37"/>
     <mergeCell ref="H44:N44"/>
@@ -11424,15 +11427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000192CE90DA120240A67EE82BE1FBFF43" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623d129459d6fae29ac2c5d491c3782f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e2beb7e-37df-4602-aab8-4f6673c75e9a" xmlns:ns4="eaec1813-26bf-4c98-9021-907af21e1945" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd2e6b22ac1ad737273b5b960116aad" ns3:_="" ns4:_="">
     <xsd:import namespace="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
@@ -11655,6 +11649,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11662,14 +11665,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53520415-44BC-4FFA-B7D1-C1B985B55107}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11684,6 +11679,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_SecondaryAudiences_MultiplePlans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{218018CF-6366-42FE-BA2A-5D89B5843371}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA99B150-1A51-4C43-B164-FFBC06E7FD5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27360" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
@@ -274,7 +274,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 06/17/20</t>
+    <t>Created 08/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -286,7 +286,7 @@
     <t>12/23/19 - 01/05/20</t>
   </si>
   <si>
-    <t>A21-24</t>
+    <t>A18+</t>
   </si>
   <si>
     <t>:15 eq., :30</t>
@@ -677,384 +677,384 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="129">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1063,35 +1063,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1668,7 +1640,7 @@
       <c r="K2" s="7"/>
       <c r="P2" s="8" t="str">
         <f>'PROPOSAL'!U2</f>
-        <v>Created 06/17/20</v>
+        <v>Created 08/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1686,54 +1658,54 @@
     <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
       <c r="B5" s="65" t="str">
         <f>'PROPOSAL'!K5</f>
-        <v>A21-24</v>
+        <v>A18+</v>
       </c>
       <c r="C5" s="65" t="str">
         <f>'PROPOSAL'!O5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
     </row>
     <row r="6" ht="24" customHeight="1">
       <c r="P6" s="57"/>
     </row>
     <row r="7">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122" t="s">
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="121" t="s">
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="124"/>
       <c r="P7" s="32"/>
     </row>
     <row r="8" ht="24" customHeight="1">
@@ -1822,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="59">
-        <v>0.125</v>
+        <v>0.11111111111111111</v>
       </c>
       <c r="P9" s="103">
-        <v>0.125</v>
+        <v>0.11111111111111111</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -1869,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P10" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -2036,28 +2008,28 @@
       <c r="P14" s="116"/>
     </row>
     <row r="16">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="122" t="s">
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="121" t="s">
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="124"/>
       <c r="P16" s="32"/>
     </row>
     <row r="17" ht="24" customHeight="1">
@@ -2146,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="59">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="P18" s="103">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -2193,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P19" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -2240,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="96">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="P20" s="96">
-        <v>5000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -2287,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="105">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P21" s="105">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
@@ -2360,28 +2332,28 @@
       <c r="P23" s="116"/>
     </row>
     <row r="25">
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="122" t="s">
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="121" t="s">
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="124"/>
       <c r="P25" s="32"/>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -2517,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="O28" s="97">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="P28" s="97">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -2564,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="96">
-        <v>10000</v>
+        <v>11250</v>
       </c>
       <c r="P29" s="96">
-        <v>10000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -2611,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="105">
-        <v>25</v>
+        <v>22.222222222222225</v>
       </c>
       <c r="P30" s="105">
-        <v>25</v>
+        <v>22.222222222222225</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
@@ -2684,28 +2656,28 @@
       <c r="P32" s="116"/>
     </row>
     <row r="34">
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="121" t="s">
+      <c r="C34" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="122" t="s">
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="121" t="s">
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="124"/>
       <c r="P34" s="32"/>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -2794,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="O36" s="59">
-        <v>0.125</v>
+        <v>0.11111111111111111</v>
       </c>
       <c r="P36" s="103">
-        <v>0.125</v>
+        <v>0.11111111111111111</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1">
@@ -2841,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="O37" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P37" s="97">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1">
@@ -3008,28 +2980,28 @@
       <c r="P41" s="116"/>
     </row>
     <row r="43">
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="121" t="s">
+      <c r="C43" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="122" t="s">
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="121" t="s">
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="124"/>
       <c r="P43" s="32"/>
     </row>
     <row r="44" ht="24" customHeight="1">
@@ -3118,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="O45" s="59">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="P45" s="103">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="46" ht="24" customHeight="1">
@@ -3165,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P46" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
@@ -3212,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="96">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="P47" s="96">
-        <v>5000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
@@ -3259,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="105">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P48" s="105">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="24" customHeight="1">
@@ -3332,28 +3304,28 @@
       <c r="P50" s="116"/>
     </row>
     <row r="52">
-      <c r="B52" s="128" t="s">
+      <c r="B52" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="121" t="s">
+      <c r="C52" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="122" t="s">
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="121" t="s">
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L52" s="122"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="123"/>
+      <c r="L52" s="123"/>
+      <c r="M52" s="123"/>
+      <c r="N52" s="123"/>
+      <c r="O52" s="124"/>
       <c r="P52" s="32"/>
     </row>
     <row r="53" ht="24" customHeight="1">
@@ -3489,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="O55" s="97">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="P55" s="97">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="56" ht="24" customHeight="1">
@@ -3536,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="O56" s="96">
-        <v>10000</v>
+        <v>11250</v>
       </c>
       <c r="P56" s="96">
-        <v>10000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="57" ht="24" customHeight="1">
@@ -3583,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="O57" s="105">
-        <v>25</v>
+        <v>22.222222222222225</v>
       </c>
       <c r="P57" s="105">
-        <v>25</v>
+        <v>22.222222222222225</v>
       </c>
     </row>
     <row r="58" ht="24" customHeight="1">
@@ -3656,28 +3628,28 @@
       <c r="P59" s="116"/>
     </row>
     <row r="61">
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="121" t="s">
+      <c r="C61" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="122" t="s">
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="123"/>
-      <c r="K61" s="121" t="s">
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="124"/>
+      <c r="K61" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L61" s="122"/>
-      <c r="M61" s="122"/>
-      <c r="N61" s="122"/>
-      <c r="O61" s="123"/>
+      <c r="L61" s="123"/>
+      <c r="M61" s="123"/>
+      <c r="N61" s="123"/>
+      <c r="O61" s="124"/>
       <c r="P61" s="32"/>
     </row>
     <row r="62" ht="24" customHeight="1">
@@ -3766,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="59">
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="P63" s="103">
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="64" ht="24" customHeight="1">
@@ -3813,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="O64" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P64" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="65" ht="24" customHeight="1">
@@ -3980,28 +3952,28 @@
       <c r="P68" s="116"/>
     </row>
     <row r="70">
-      <c r="B70" s="128" t="s">
+      <c r="B70" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="121" t="s">
+      <c r="C70" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="122"/>
-      <c r="E70" s="122"/>
-      <c r="F70" s="123"/>
-      <c r="G70" s="122" t="s">
+      <c r="D70" s="123"/>
+      <c r="E70" s="123"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H70" s="122"/>
-      <c r="I70" s="122"/>
-      <c r="J70" s="123"/>
-      <c r="K70" s="121" t="s">
+      <c r="H70" s="123"/>
+      <c r="I70" s="123"/>
+      <c r="J70" s="124"/>
+      <c r="K70" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="L70" s="122"/>
-      <c r="M70" s="122"/>
-      <c r="N70" s="122"/>
-      <c r="O70" s="123"/>
+      <c r="L70" s="123"/>
+      <c r="M70" s="123"/>
+      <c r="N70" s="123"/>
+      <c r="O70" s="124"/>
       <c r="P70" s="32"/>
     </row>
     <row r="71" ht="24" customHeight="1">
@@ -4090,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="O72" s="59">
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="P72" s="103">
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="73" ht="24" customHeight="1">
@@ -4137,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="O73" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P73" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="74" ht="24" customHeight="1">
@@ -4304,28 +4276,28 @@
       <c r="P77" s="116"/>
     </row>
     <row r="79">
-      <c r="B79" s="128" t="s">
+      <c r="B79" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="121" t="s">
+      <c r="C79" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="122"/>
-      <c r="E79" s="122"/>
-      <c r="F79" s="123"/>
-      <c r="G79" s="122" t="s">
+      <c r="D79" s="123"/>
+      <c r="E79" s="123"/>
+      <c r="F79" s="124"/>
+      <c r="G79" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="H79" s="122"/>
-      <c r="I79" s="122"/>
-      <c r="J79" s="123"/>
-      <c r="K79" s="121" t="s">
+      <c r="H79" s="123"/>
+      <c r="I79" s="123"/>
+      <c r="J79" s="124"/>
+      <c r="K79" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="L79" s="122"/>
-      <c r="M79" s="122"/>
-      <c r="N79" s="122"/>
-      <c r="O79" s="123"/>
+      <c r="L79" s="123"/>
+      <c r="M79" s="123"/>
+      <c r="N79" s="123"/>
+      <c r="O79" s="124"/>
       <c r="P79" s="32"/>
     </row>
     <row r="80" ht="24" customHeight="1">
@@ -4378,7 +4350,7 @@
         <v>59</v>
       </c>
       <c r="C81" s="99">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="D81" s="100">
         <v>0</v>
@@ -4417,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="103">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="82" ht="24" customHeight="1">
@@ -4425,7 +4397,7 @@
         <v>23</v>
       </c>
       <c r="C82" s="102">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D82" s="94">
         <v>0</v>
@@ -4464,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="83" ht="24" customHeight="1">
@@ -4472,7 +4444,7 @@
         <v>28</v>
       </c>
       <c r="C83" s="101">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="D83" s="93">
         <v>0</v>
@@ -4511,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="96">
-        <v>5000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="84" ht="24" customHeight="1">
@@ -4519,7 +4491,7 @@
         <v>30</v>
       </c>
       <c r="C84" s="104">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D84" s="95">
         <v>0</v>
@@ -4558,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="105">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24" customHeight="1">
@@ -4628,28 +4600,28 @@
       <c r="P86" s="116"/>
     </row>
     <row r="88">
-      <c r="B88" s="128" t="s">
+      <c r="B88" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="121" t="s">
+      <c r="C88" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="D88" s="122"/>
-      <c r="E88" s="122"/>
-      <c r="F88" s="123"/>
-      <c r="G88" s="122" t="s">
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="124"/>
+      <c r="G88" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="H88" s="122"/>
-      <c r="I88" s="122"/>
-      <c r="J88" s="123"/>
-      <c r="K88" s="121" t="s">
+      <c r="H88" s="123"/>
+      <c r="I88" s="123"/>
+      <c r="J88" s="124"/>
+      <c r="K88" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="L88" s="122"/>
-      <c r="M88" s="122"/>
-      <c r="N88" s="122"/>
-      <c r="O88" s="123"/>
+      <c r="L88" s="123"/>
+      <c r="M88" s="123"/>
+      <c r="N88" s="123"/>
+      <c r="O88" s="124"/>
       <c r="P88" s="32"/>
     </row>
     <row r="89" ht="24" customHeight="1">
@@ -4702,7 +4674,7 @@
         <v>59</v>
       </c>
       <c r="C90" s="99">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="D90" s="100">
         <v>0</v>
@@ -4741,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="P90" s="103">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="91" ht="24" customHeight="1">
@@ -4749,7 +4721,7 @@
         <v>23</v>
       </c>
       <c r="C91" s="102">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D91" s="94">
         <v>0</v>
@@ -4788,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="92" ht="24" customHeight="1">
@@ -4796,7 +4768,7 @@
         <v>28</v>
       </c>
       <c r="C92" s="101">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="D92" s="93">
         <v>0</v>
@@ -4835,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="P92" s="96">
-        <v>5000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1">
@@ -4843,7 +4815,7 @@
         <v>30</v>
       </c>
       <c r="C93" s="104">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D93" s="95">
         <v>0</v>
@@ -4882,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="P93" s="105">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="24" customHeight="1">
@@ -4952,28 +4924,28 @@
       <c r="P95" s="116"/>
     </row>
     <row r="97">
-      <c r="B97" s="128" t="s">
+      <c r="B97" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="C97" s="121" t="s">
+      <c r="C97" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="D97" s="122"/>
-      <c r="E97" s="122"/>
-      <c r="F97" s="123"/>
-      <c r="G97" s="122" t="s">
+      <c r="D97" s="123"/>
+      <c r="E97" s="123"/>
+      <c r="F97" s="124"/>
+      <c r="G97" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="H97" s="122"/>
-      <c r="I97" s="122"/>
-      <c r="J97" s="123"/>
-      <c r="K97" s="121" t="s">
+      <c r="H97" s="123"/>
+      <c r="I97" s="123"/>
+      <c r="J97" s="124"/>
+      <c r="K97" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="L97" s="122"/>
-      <c r="M97" s="122"/>
-      <c r="N97" s="122"/>
-      <c r="O97" s="123"/>
+      <c r="L97" s="123"/>
+      <c r="M97" s="123"/>
+      <c r="N97" s="123"/>
+      <c r="O97" s="124"/>
       <c r="P97" s="32"/>
     </row>
     <row r="98" ht="24" customHeight="1">
@@ -5026,7 +4998,7 @@
         <v>59</v>
       </c>
       <c r="C99" s="99">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="D99" s="100">
         <v>0</v>
@@ -5065,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="103">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="100" ht="24" customHeight="1">
@@ -5073,7 +5045,7 @@
         <v>23</v>
       </c>
       <c r="C100" s="102">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D100" s="94">
         <v>0</v>
@@ -5112,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="101" ht="24" customHeight="1">
@@ -5120,7 +5092,7 @@
         <v>28</v>
       </c>
       <c r="C101" s="101">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="D101" s="93">
         <v>0</v>
@@ -5159,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="96">
-        <v>5000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="102" ht="24" customHeight="1">
@@ -5167,7 +5139,7 @@
         <v>30</v>
       </c>
       <c r="C102" s="104">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D102" s="95">
         <v>0</v>
@@ -5206,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="105">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24" customHeight="1">
@@ -5276,28 +5248,28 @@
       <c r="P104" s="116"/>
     </row>
     <row r="106">
-      <c r="B106" s="128" t="s">
+      <c r="B106" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="C106" s="121" t="s">
+      <c r="C106" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="D106" s="122"/>
-      <c r="E106" s="122"/>
-      <c r="F106" s="123"/>
-      <c r="G106" s="122" t="s">
+      <c r="D106" s="123"/>
+      <c r="E106" s="123"/>
+      <c r="F106" s="124"/>
+      <c r="G106" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="H106" s="122"/>
-      <c r="I106" s="122"/>
-      <c r="J106" s="123"/>
-      <c r="K106" s="121" t="s">
+      <c r="H106" s="123"/>
+      <c r="I106" s="123"/>
+      <c r="J106" s="124"/>
+      <c r="K106" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="L106" s="122"/>
-      <c r="M106" s="122"/>
-      <c r="N106" s="122"/>
-      <c r="O106" s="123"/>
+      <c r="L106" s="123"/>
+      <c r="M106" s="123"/>
+      <c r="N106" s="123"/>
+      <c r="O106" s="124"/>
       <c r="P106" s="32"/>
     </row>
     <row r="107" ht="24" customHeight="1">
@@ -5350,7 +5322,7 @@
         <v>59</v>
       </c>
       <c r="C108" s="99">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="D108" s="100">
         <v>0</v>
@@ -5389,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="103">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="109" ht="24" customHeight="1">
@@ -5397,7 +5369,7 @@
         <v>23</v>
       </c>
       <c r="C109" s="102">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D109" s="94">
         <v>0</v>
@@ -5436,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="97">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="110" ht="24" customHeight="1">
@@ -5444,7 +5416,7 @@
         <v>28</v>
       </c>
       <c r="C110" s="101">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="D110" s="93">
         <v>0</v>
@@ -5483,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="96">
-        <v>5000</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="111" ht="24" customHeight="1">
@@ -5491,7 +5463,7 @@
         <v>30</v>
       </c>
       <c r="C111" s="104">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D111" s="95">
         <v>0</v>
@@ -5530,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="P111" s="105">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="24" customHeight="1">
@@ -5796,24 +5768,24 @@
       <c r="D7" s="9"/>
       <c r="E7" s="23"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="124" t="s">
+      <c r="G7" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="124" t="s">
+      <c r="N7" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="126"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="27"/>
@@ -6014,13 +5986,13 @@
         <f>SUM(J9:J10)</f>
         <v>27669</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="46" t="e">
         <f>E11/J11</f>
-        <v>3.6914958979363188</v>
-      </c>
-      <c r="L11" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="42" t="e">
         <f>E11/H11</f>
-        <v>4426.1035816256463</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="44" t="s">
@@ -6040,13 +6012,13 @@
         <f>SUM(R9:R10)</f>
         <v>8189.91</v>
       </c>
-      <c r="S11" s="46">
+      <c r="S11" s="46" t="e">
         <f>E11/R11</f>
-        <v>12.471443520136363</v>
-      </c>
-      <c r="T11" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="42" t="e">
         <f>E11/P11</f>
-        <v>12482.667819304488</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -6057,24 +6029,24 @@
       <c r="D13" s="9"/>
       <c r="E13" s="23"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="121" t="s">
+      <c r="G13" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="121" t="s">
+      <c r="N13" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="124"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="38" t="s">
@@ -6271,13 +6243,13 @@
         <f>SUM(J15:J16)</f>
         <v>24004</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="46" t="e">
         <f>E17/J17</f>
-        <v>4.78253624395934</v>
-      </c>
-      <c r="L17" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" s="42" t="e">
         <f>E17/H17</f>
-        <v>5734.2609565072489</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="44" t="s">
@@ -6297,13 +6269,13 @@
         <f>SUM(R15:R16)</f>
         <v>7099.380000000001</v>
       </c>
-      <c r="S17" s="46">
+      <c r="S17" s="46" t="e">
         <f>E17/R17</f>
-        <v>16.170426149889142</v>
-      </c>
-      <c r="T17" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" s="42" t="e">
         <f>E17/P17</f>
-        <v>16184.979533424046</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -6314,24 +6286,24 @@
       <c r="D19" s="9"/>
       <c r="E19" s="23"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="121" t="s">
+      <c r="G19" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="121" t="s">
+      <c r="N19" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="124"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="38" t="s">
@@ -6601,25 +6573,25 @@
       <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
     </row>
     <row r="26" ht="8.1" customHeight="1">
       <c r="B26" s="4"/>
@@ -6645,25 +6617,25 @@
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="127"/>
     </row>
     <row r="28" ht="8.1" customHeight="1">
       <c r="B28" s="4"/>
@@ -6689,25 +6661,25 @@
       <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="126" t="s">
+      <c r="D29" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
     </row>
     <row r="30" ht="8.1" customHeight="1">
       <c r="B30" s="4"/>
@@ -6733,25 +6705,25 @@
       <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="126" t="s">
+      <c r="D31" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="4"/>
@@ -6777,25 +6749,25 @@
       <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="126" t="s">
+      <c r="D33" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="4"/>
@@ -6821,25 +6793,25 @@
       <c r="B35" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="120"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="121"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="121"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -6982,24 +6954,24 @@
       <c r="D7" s="9"/>
       <c r="E7" s="23"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="124" t="s">
+      <c r="G7" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="124" t="s">
+      <c r="N7" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="126"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="27"/>
@@ -7241,24 +7213,24 @@
       <c r="D13" s="9"/>
       <c r="E13" s="23"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="121" t="s">
+      <c r="G13" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="124"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="121" t="s">
+      <c r="N13" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="124"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="38" t="s">
@@ -7496,24 +7468,24 @@
       <c r="D19" s="9"/>
       <c r="E19" s="23"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="121" t="s">
+      <c r="G19" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="121" t="s">
+      <c r="N19" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="124"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="38" t="s">
@@ -7751,24 +7723,24 @@
       <c r="D25" s="9"/>
       <c r="E25" s="23"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="121" t="s">
+      <c r="G25" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="124"/>
       <c r="M25" s="33"/>
-      <c r="N25" s="121" t="s">
+      <c r="N25" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="124"/>
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="B26" s="38" t="s">
@@ -8006,26 +7978,26 @@
       <c r="B31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="117" t="s">
+      <c r="C31" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="118"/>
+      <c r="T31" s="118"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="4"/>
@@ -8052,26 +8024,26 @@
       <c r="B33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="117"/>
-      <c r="R33" s="117"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="4"/>
@@ -8098,26 +8070,26 @@
       <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="117"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="118"/>
+      <c r="R35" s="118"/>
+      <c r="S35" s="118"/>
+      <c r="T35" s="118"/>
     </row>
     <row r="36" ht="8.1" customHeight="1">
       <c r="B36" s="4"/>
@@ -8144,26 +8116,26 @@
       <c r="B37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="117" t="s">
+      <c r="C37" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="117"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="118"/>
+      <c r="R37" s="118"/>
+      <c r="S37" s="118"/>
+      <c r="T37" s="118"/>
     </row>
     <row r="38" ht="8.1" customHeight="1">
       <c r="B38" s="4"/>
@@ -8190,26 +8162,26 @@
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="117" t="s">
+      <c r="C39" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="117"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="117"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="117"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="118"/>
+      <c r="S39" s="118"/>
+      <c r="T39" s="118"/>
     </row>
     <row r="40" ht="8.1" customHeight="1">
       <c r="B40" s="4"/>
@@ -8236,29 +8208,34 @@
       <c r="B41" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="118" t="s">
+      <c r="C41" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="118"/>
-      <c r="Q41" s="118"/>
-      <c r="R41" s="118"/>
-      <c r="S41" s="118"/>
-      <c r="T41" s="118"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="119"/>
+      <c r="O41" s="119"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="119"/>
+      <c r="T41" s="119"/>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -8268,11 +8245,6 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8288,7 +8260,7 @@
   </sheetPr>
   <dimension ref="A2:V94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScalePageLayoutView="90" workbookViewId="0" tabSelected="1">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScalePageLayoutView="90" workbookViewId="0" tabSelected="0">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -8351,36 +8323,36 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117" t="s">
+      <c r="D5" s="118"/>
+      <c r="E5" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="70"/>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117" t="s">
+      <c r="J5" s="118"/>
+      <c r="K5" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117" t="s">
+      <c r="L5" s="118"/>
+      <c r="M5" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
       <c r="U5" s="5" t="s">
         <v>19</v>
       </c>
@@ -8409,23 +8381,23 @@
       <c r="F7" s="9"/>
       <c r="G7" s="23"/>
       <c r="H7" s="58"/>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="121" t="s">
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="124"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="69" t="s">
@@ -8500,53 +8472,53 @@
         <v>90</v>
       </c>
       <c r="E9" s="74">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="75">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G9" s="88">
         <v>125000</v>
       </c>
       <c r="H9" s="76"/>
       <c r="I9" s="110">
-        <v>0</v>
+        <v>1.781992195974027</v>
       </c>
       <c r="J9" s="78">
-        <v>8.275</v>
+        <v>4.4549804899350676</v>
       </c>
       <c r="K9" s="74">
-        <v>0</v>
+        <v>2153.3161068044787</v>
       </c>
       <c r="L9" s="74">
-        <v>10000</v>
+        <v>5383.2902670111971</v>
       </c>
       <c r="M9" s="79">
-        <v>12.5</v>
+        <v>23.219999999999988</v>
       </c>
       <c r="N9" s="76">
-        <v>15105.740181268882</v>
+        <v>28058.484269999986</v>
       </c>
       <c r="O9" s="80">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="P9" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="78">
-        <v>31.3</v>
+        <v>2.5</v>
       </c>
       <c r="R9" s="74">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S9" s="74">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="T9" s="79">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U9" s="76">
-        <v>3993.6102236421725</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -8561,44 +8533,44 @@
         <v>92</v>
       </c>
       <c r="E10" s="74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F10" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G10" s="88">
         <v>125000</v>
       </c>
       <c r="H10" s="76"/>
       <c r="I10" s="110">
-        <v>0</v>
+        <v>2.8456219814462562</v>
       </c>
       <c r="J10" s="78">
-        <v>8.275</v>
+        <v>3.5570274768078205</v>
       </c>
       <c r="K10" s="74">
-        <v>0</v>
+        <v>3445.3057708871661</v>
       </c>
       <c r="L10" s="74">
-        <v>10000</v>
+        <v>4306.6322136089575</v>
       </c>
       <c r="M10" s="79">
-        <v>12.5</v>
+        <v>29.024999999999988</v>
       </c>
       <c r="N10" s="76">
-        <v>15105.740181268882</v>
+        <v>35141.702113636369</v>
       </c>
       <c r="O10" s="80">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="P10" s="77">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q10" s="78">
-        <v>31.3</v>
+        <v>2</v>
       </c>
       <c r="R10" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S10" s="74">
         <v>5000</v>
@@ -8607,7 +8579,7 @@
         <v>25</v>
       </c>
       <c r="U10" s="76">
-        <v>3993.6102236421725</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -8622,53 +8594,53 @@
         <v>90</v>
       </c>
       <c r="E11" s="74">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="75">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G11" s="88">
         <v>125000</v>
       </c>
       <c r="H11" s="76"/>
       <c r="I11" s="110">
-        <v>0</v>
+        <v>1.8180078554708661</v>
       </c>
       <c r="J11" s="78">
-        <v>8.275</v>
+        <v>4.5450196386771653</v>
       </c>
       <c r="K11" s="74">
-        <v>0</v>
+        <v>2196.8365553602816</v>
       </c>
       <c r="L11" s="74">
-        <v>10000</v>
+        <v>5492.0913884007041</v>
       </c>
       <c r="M11" s="79">
-        <v>12.5</v>
+        <v>22.760000000000012</v>
       </c>
       <c r="N11" s="76">
-        <v>15105.740181268882</v>
+        <v>27502.631437777807</v>
       </c>
       <c r="O11" s="80">
-        <v>0.5</v>
+        <v>1.1379999999999997</v>
       </c>
       <c r="P11" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="78">
-        <v>31.3</v>
+        <v>2.5</v>
       </c>
       <c r="R11" s="74">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S11" s="74">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="T11" s="79">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U11" s="76">
-        <v>3993.6102236421725</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -8683,44 +8655,44 @@
         <v>92</v>
       </c>
       <c r="E12" s="74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F12" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G12" s="88">
         <v>125000</v>
       </c>
       <c r="H12" s="76"/>
       <c r="I12" s="110">
-        <v>0</v>
+        <v>2.9031345522487735</v>
       </c>
       <c r="J12" s="78">
-        <v>8.275</v>
+        <v>3.6289181903109666</v>
       </c>
       <c r="K12" s="74">
-        <v>0</v>
+        <v>3514.93848857645</v>
       </c>
       <c r="L12" s="74">
-        <v>10000</v>
+        <v>4393.6731107205624</v>
       </c>
       <c r="M12" s="79">
-        <v>12.5</v>
+        <v>28.450000000000017</v>
       </c>
       <c r="N12" s="76">
-        <v>15105.740181268882</v>
+        <v>34445.5271363636</v>
       </c>
       <c r="O12" s="80">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="P12" s="77">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q12" s="78">
-        <v>31.3</v>
+        <v>2</v>
       </c>
       <c r="R12" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S12" s="74">
         <v>5000</v>
@@ -8729,7 +8701,7 @@
         <v>25</v>
       </c>
       <c r="U12" s="76">
-        <v>3993.6102236421725</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -8744,44 +8716,44 @@
         <v>92</v>
       </c>
       <c r="E13" s="74">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F13" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G13" s="88">
         <v>250000</v>
       </c>
       <c r="H13" s="76"/>
       <c r="I13" s="110">
-        <v>0</v>
+        <v>2.8456219814462562</v>
       </c>
       <c r="J13" s="78">
-        <v>16.55</v>
+        <v>7.114054953615641</v>
       </c>
       <c r="K13" s="74">
-        <v>0</v>
+        <v>3445.3057708871661</v>
       </c>
       <c r="L13" s="74">
-        <v>20000</v>
+        <v>8613.264427217915</v>
       </c>
       <c r="M13" s="79">
-        <v>12.5</v>
+        <v>29.024999999999988</v>
       </c>
       <c r="N13" s="76">
-        <v>15105.740181268882</v>
+        <v>35141.702113636369</v>
       </c>
       <c r="O13" s="80">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="P13" s="77">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" s="78">
-        <v>62.6</v>
+        <v>4.1</v>
       </c>
       <c r="R13" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S13" s="74">
         <v>10000</v>
@@ -8790,7 +8762,7 @@
         <v>25</v>
       </c>
       <c r="U13" s="76">
-        <v>3993.6102236421725</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1">
@@ -8800,7 +8772,7 @@
         <v>94</v>
       </c>
       <c r="E14" s="50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>38</v>
@@ -8813,19 +8785,19 @@
         <v>38</v>
       </c>
       <c r="J14" s="68">
-        <v>49.650000000000006</v>
+        <v>23.300000749346658</v>
       </c>
       <c r="K14" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L14" s="50">
-        <v>60000</v>
+        <v>28188.951406959335</v>
       </c>
       <c r="M14" s="46">
-        <v>12.5</v>
+        <v>26.60616882027189</v>
       </c>
       <c r="N14" s="42">
-        <v>15105.740181268882</v>
+        <v>32188.840166497808</v>
       </c>
       <c r="O14" s="44" t="s">
         <v>38</v>
@@ -8834,19 +8806,19 @@
         <v>38</v>
       </c>
       <c r="Q14" s="68">
-        <v>187.8</v>
+        <v>13.1</v>
       </c>
       <c r="R14" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S14" s="50">
-        <v>30000</v>
+        <v>32500</v>
       </c>
       <c r="T14" s="46">
-        <v>25</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="U14" s="42">
-        <v>3993.6102236421725</v>
+        <v>57251.908396946565</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" s="71" customFormat="1">
@@ -8860,24 +8832,24 @@
     </row>
     <row r="17" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B17" s="57"/>
-      <c r="H17" s="121" t="s">
+      <c r="H17" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="121" t="s">
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="124"/>
     </row>
     <row r="18" ht="24" customHeight="1" s="71" customFormat="1">
       <c r="B18" s="57"/>
@@ -8935,46 +8907,46 @@
       <c r="F19" s="71"/>
       <c r="G19" s="71"/>
       <c r="H19" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.52199999999999991</v>
       </c>
       <c r="I19" s="83">
-        <v>0</v>
+        <v>0.75439729075989048</v>
       </c>
       <c r="J19" s="84">
-        <v>8.175</v>
+        <v>1.8859932268997262</v>
       </c>
       <c r="K19" s="82">
-        <v>0</v>
+        <v>1124.0310077519378</v>
       </c>
       <c r="L19" s="82">
-        <v>12249.28575</v>
+        <v>2810.0775193798445</v>
       </c>
       <c r="M19" s="85">
-        <v>10.204676627778074</v>
+        <v>44.482758620689729</v>
       </c>
       <c r="N19" s="86">
-        <v>15290.519877675841</v>
+        <v>66278.074712643545</v>
       </c>
       <c r="O19" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.1200000000000003</v>
       </c>
       <c r="P19" s="83">
-        <v>0</v>
+        <v>1.1222371901671531</v>
       </c>
       <c r="Q19" s="84">
-        <v>8.3</v>
+        <v>2.8055929754178828</v>
       </c>
       <c r="R19" s="82">
-        <v>0</v>
+        <v>2411.714039621017</v>
       </c>
       <c r="S19" s="82">
-        <v>17819.581</v>
+        <v>6029.2850990525421</v>
       </c>
       <c r="T19" s="85">
-        <v>7.014755285211252</v>
+        <v>20.732142857142861</v>
       </c>
       <c r="U19" s="86">
-        <v>15060.240963855422</v>
+        <v>44553.861196270584</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -8988,46 +8960,46 @@
       <c r="F20" s="69"/>
       <c r="G20" s="69"/>
       <c r="H20" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.52199999999999991</v>
       </c>
       <c r="I20" s="83">
-        <v>0</v>
+        <v>1.2075290857040377</v>
       </c>
       <c r="J20" s="84">
-        <v>8.175</v>
+        <v>1.5094113571300472</v>
       </c>
       <c r="K20" s="82">
-        <v>0</v>
+        <v>1798.4496124031005</v>
       </c>
       <c r="L20" s="82">
-        <v>12249.28575</v>
+        <v>2248.0620155038755</v>
       </c>
       <c r="M20" s="85">
-        <v>10.204676627778074</v>
+        <v>55.603448275861965</v>
       </c>
       <c r="N20" s="86">
-        <v>15290.519877675841</v>
+        <v>82813.74021040315</v>
       </c>
       <c r="O20" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.12</v>
       </c>
       <c r="P20" s="83">
-        <v>0</v>
+        <v>1.7937959355753677</v>
       </c>
       <c r="Q20" s="84">
-        <v>8.3</v>
+        <v>2.2422449194692096</v>
       </c>
       <c r="R20" s="82">
-        <v>0</v>
+        <v>3858.7424633936266</v>
       </c>
       <c r="S20" s="82">
-        <v>17819.581</v>
+        <v>4823.4280792420332</v>
       </c>
       <c r="T20" s="85">
-        <v>7.014755285211252</v>
+        <v>25.915178571428587</v>
       </c>
       <c r="U20" s="86">
-        <v>15060.240963855422</v>
+        <v>55747.701294642837</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -9041,46 +9013,46 @@
       <c r="F21" s="69"/>
       <c r="G21" s="69"/>
       <c r="H21" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.46499999999999997</v>
       </c>
       <c r="I21" s="83">
-        <v>0</v>
+        <v>0.685602713263318</v>
       </c>
       <c r="J21" s="84">
-        <v>8.175</v>
+        <v>1.714006783158295</v>
       </c>
       <c r="K21" s="82">
-        <v>0</v>
+        <v>1021.5289982425309</v>
       </c>
       <c r="L21" s="82">
-        <v>12249.28575</v>
+        <v>2553.8224956063273</v>
       </c>
       <c r="M21" s="85">
-        <v>10.204676627778074</v>
+        <v>48.946236559139727</v>
       </c>
       <c r="N21" s="86">
-        <v>15290.519877675841</v>
+        <v>72928.532855435857</v>
       </c>
       <c r="O21" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.1129999999999998</v>
       </c>
       <c r="P21" s="83">
-        <v>0</v>
+        <v>1.1377628683417524</v>
       </c>
       <c r="Q21" s="84">
-        <v>8.3</v>
+        <v>2.8444071708543812</v>
       </c>
       <c r="R21" s="82">
-        <v>0</v>
+        <v>2445.079086115993</v>
       </c>
       <c r="S21" s="82">
-        <v>17819.581</v>
+        <v>6112.6977152899826</v>
       </c>
       <c r="T21" s="85">
-        <v>7.014755285211252</v>
+        <v>20.449236298292909</v>
       </c>
       <c r="U21" s="86">
-        <v>15060.240963855422</v>
+        <v>43945.888366767656</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
@@ -9094,46 +9066,46 @@
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
       <c r="H22" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.465</v>
       </c>
       <c r="I22" s="83">
-        <v>0</v>
+        <v>1.0974127659832242</v>
       </c>
       <c r="J22" s="84">
-        <v>8.175</v>
+        <v>1.3717659574790304</v>
       </c>
       <c r="K22" s="82">
-        <v>0</v>
+        <v>1634.4463971880493</v>
       </c>
       <c r="L22" s="82">
-        <v>12249.28575</v>
+        <v>2043.0579964850617</v>
       </c>
       <c r="M22" s="85">
-        <v>10.204676627778074</v>
+        <v>61.182795698924771</v>
       </c>
       <c r="N22" s="86">
-        <v>15290.519877675841</v>
+        <v>91123.416001458012</v>
       </c>
       <c r="O22" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.113</v>
       </c>
       <c r="P22" s="83">
-        <v>0</v>
+        <v>1.8186123457341676</v>
       </c>
       <c r="Q22" s="84">
-        <v>8.3</v>
+        <v>2.2732654321677095</v>
       </c>
       <c r="R22" s="82">
-        <v>0</v>
+        <v>3912.1265377855889</v>
       </c>
       <c r="S22" s="82">
-        <v>17819.581</v>
+        <v>4890.1581722319861</v>
       </c>
       <c r="T22" s="85">
-        <v>7.014755285211252</v>
+        <v>25.561545372866103</v>
       </c>
       <c r="U22" s="86">
-        <v>15060.240963855422</v>
+        <v>54986.9796246381</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1">
@@ -9147,46 +9119,46 @@
       <c r="F23" s="69"/>
       <c r="G23" s="69"/>
       <c r="H23" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.52199999999999991</v>
       </c>
       <c r="I23" s="83">
-        <v>0</v>
+        <v>1.2075290857040377</v>
       </c>
       <c r="J23" s="84">
-        <v>16.35</v>
+        <v>3.0188227142600943</v>
       </c>
       <c r="K23" s="82">
-        <v>0</v>
+        <v>1798.4496124031005</v>
       </c>
       <c r="L23" s="82">
-        <v>24498.5715</v>
+        <v>4496.124031007751</v>
       </c>
       <c r="M23" s="85">
-        <v>10.204676627778074</v>
+        <v>55.603448275862085</v>
       </c>
       <c r="N23" s="86">
-        <v>15290.519877675841</v>
+        <v>82813.740210403412</v>
       </c>
       <c r="O23" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.12</v>
       </c>
       <c r="P23" s="83">
-        <v>0</v>
+        <v>1.7937959355753677</v>
       </c>
       <c r="Q23" s="84">
-        <v>16.6</v>
+        <v>4.4844898389384191</v>
       </c>
       <c r="R23" s="82">
-        <v>0</v>
+        <v>3858.7424633936266</v>
       </c>
       <c r="S23" s="82">
-        <v>35639.162</v>
+        <v>9646.8561584840663</v>
       </c>
       <c r="T23" s="85">
-        <v>7.014755285211252</v>
+        <v>25.915178571428587</v>
       </c>
       <c r="U23" s="86">
-        <v>15060.240963855422</v>
+        <v>55747.701294642837</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1" s="71" customFormat="1">
@@ -9198,19 +9170,19 @@
         <v>38</v>
       </c>
       <c r="J24" s="68">
-        <v>49.050000000000004</v>
+        <v>9.5000000389271921</v>
       </c>
       <c r="K24" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L24" s="50">
-        <v>73495.7145</v>
+        <v>14151.14405798286</v>
       </c>
       <c r="M24" s="46">
-        <v>10.204676627778074</v>
+        <v>52.999248465491547</v>
       </c>
       <c r="N24" s="42">
-        <v>15290.519877675841</v>
+        <v>78947.368097557977</v>
       </c>
       <c r="O24" s="44" t="s">
         <v>38</v>
@@ -9219,32 +9191,32 @@
         <v>38</v>
       </c>
       <c r="Q24" s="68">
-        <v>49.800000000000004</v>
+        <v>14.650000336847603</v>
       </c>
       <c r="R24" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S24" s="50">
-        <v>106917.48599999999</v>
+        <v>31502.425224300612</v>
       </c>
       <c r="T24" s="46">
-        <v>7.014755285211252</v>
+        <v>23.807690825703755</v>
       </c>
       <c r="U24" s="42">
-        <v>15060.240963855422</v>
+        <v>51194.53807203022</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="B26" s="57"/>
-      <c r="H26" s="121" t="s">
+      <c r="H26" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="124"/>
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="B27" s="57"/>
@@ -9281,25 +9253,25 @@
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.24500000000000008</v>
       </c>
       <c r="I28" s="83">
-        <v>0</v>
+        <v>0.88501110876905165</v>
       </c>
       <c r="J28" s="84">
-        <v>8.35</v>
+        <v>2.2125277719226291</v>
       </c>
       <c r="K28" s="82">
-        <v>0</v>
+        <v>527.56244616709751</v>
       </c>
       <c r="L28" s="82">
-        <v>4961.7645</v>
+        <v>1318.9061154177437</v>
       </c>
       <c r="M28" s="85">
-        <v>25.192650719315679</v>
+        <v>94.775510204081868</v>
       </c>
       <c r="N28" s="86">
-        <v>14970.05988023952</v>
+        <v>56496.465981703</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -9313,25 +9285,25 @@
       <c r="F29" s="69"/>
       <c r="G29" s="69"/>
       <c r="H29" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.24500000000000005</v>
       </c>
       <c r="I29" s="83">
-        <v>0</v>
+        <v>1.4119747951400865</v>
       </c>
       <c r="J29" s="84">
-        <v>8.35</v>
+        <v>1.7649684939251082</v>
       </c>
       <c r="K29" s="82">
-        <v>0</v>
+        <v>844.09991386735578</v>
       </c>
       <c r="L29" s="82">
-        <v>4961.7645</v>
+        <v>1055.1248923341948</v>
       </c>
       <c r="M29" s="85">
-        <v>25.192650719315679</v>
+        <v>118.46938775510256</v>
       </c>
       <c r="N29" s="86">
-        <v>14970.05988023952</v>
+        <v>70822.7939650145</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -9345,25 +9317,25 @@
       <c r="F30" s="69"/>
       <c r="G30" s="69"/>
       <c r="H30" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.23199999999999998</v>
       </c>
       <c r="I30" s="83">
-        <v>0</v>
+        <v>0.85498910429741259</v>
       </c>
       <c r="J30" s="84">
-        <v>8.35</v>
+        <v>2.1374727607435315</v>
       </c>
       <c r="K30" s="82">
-        <v>0</v>
+        <v>509.66608084358529</v>
       </c>
       <c r="L30" s="82">
-        <v>4961.7645</v>
+        <v>1274.1652021089633</v>
       </c>
       <c r="M30" s="85">
-        <v>25.192650719315679</v>
+        <v>98.1034482758623</v>
       </c>
       <c r="N30" s="86">
-        <v>14970.05988023952</v>
+        <v>58480.27740784784</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
@@ -9377,25 +9349,25 @@
       <c r="F31" s="69"/>
       <c r="G31" s="69"/>
       <c r="H31" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.23200000000000004</v>
       </c>
       <c r="I31" s="83">
-        <v>0</v>
+        <v>1.3640767369196678</v>
       </c>
       <c r="J31" s="84">
-        <v>8.35</v>
+        <v>1.7050959211495846</v>
       </c>
       <c r="K31" s="82">
-        <v>0</v>
+        <v>815.46572934973642</v>
       </c>
       <c r="L31" s="82">
-        <v>4961.7645</v>
+        <v>1019.3321616871706</v>
       </c>
       <c r="M31" s="85">
-        <v>25.192650719315679</v>
+        <v>122.62931034482763</v>
       </c>
       <c r="N31" s="86">
-        <v>14970.05988023952</v>
+        <v>73309.6586822662</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1">
@@ -9409,25 +9381,25 @@
       <c r="F32" s="69"/>
       <c r="G32" s="69"/>
       <c r="H32" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.24500000000000005</v>
       </c>
       <c r="I32" s="83">
-        <v>0</v>
+        <v>1.4119747951400865</v>
       </c>
       <c r="J32" s="84">
-        <v>16.7</v>
+        <v>3.5299369878502165</v>
       </c>
       <c r="K32" s="82">
-        <v>0</v>
+        <v>844.09991386735578</v>
       </c>
       <c r="L32" s="82">
-        <v>9923.529</v>
+        <v>2110.2497846683896</v>
       </c>
       <c r="M32" s="85">
-        <v>25.192650719315679</v>
+        <v>118.469387755102</v>
       </c>
       <c r="N32" s="86">
-        <v>14970.05988023952</v>
+        <v>70822.7939650145</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1">
@@ -9439,19 +9411,19 @@
         <v>38</v>
       </c>
       <c r="J33" s="68">
-        <v>50.099999999999994</v>
+        <v>11.35000193559107</v>
       </c>
       <c r="K33" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L33" s="50">
-        <v>29770.587</v>
+        <v>6777.7781562164619</v>
       </c>
       <c r="M33" s="46">
-        <v>25.192650719315679</v>
+        <v>110.65573152643142</v>
       </c>
       <c r="N33" s="42">
-        <v>14970.05988023952</v>
+        <v>66079.2838852446</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1" s="108" customFormat="1"/>
@@ -9486,23 +9458,23 @@
       <c r="F37" s="9"/>
       <c r="G37" s="23"/>
       <c r="H37" s="58"/>
-      <c r="I37" s="121" t="s">
+      <c r="I37" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="122"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="122"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="121" t="s">
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="122"/>
-      <c r="T37" s="122"/>
-      <c r="U37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="123"/>
+      <c r="U37" s="124"/>
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="A38" s="69" t="s">
@@ -9577,53 +9549,53 @@
         <v>90</v>
       </c>
       <c r="E39" s="74">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F39" s="75">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G39" s="88">
         <v>125000</v>
       </c>
       <c r="H39" s="76"/>
       <c r="I39" s="110">
-        <v>0</v>
+        <v>1.781992195974027</v>
       </c>
       <c r="J39" s="78">
-        <v>8.275</v>
+        <v>4.4549804899350676</v>
       </c>
       <c r="K39" s="74">
-        <v>0</v>
+        <v>2153.3161068044787</v>
       </c>
       <c r="L39" s="74">
-        <v>10000</v>
+        <v>5383.2902670111971</v>
       </c>
       <c r="M39" s="79">
-        <v>12.5</v>
+        <v>23.219999999999988</v>
       </c>
       <c r="N39" s="76">
-        <v>15105.740181268882</v>
+        <v>28058.484269999986</v>
       </c>
       <c r="O39" s="80">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="P39" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="78">
-        <v>31.3</v>
+        <v>2.5</v>
       </c>
       <c r="R39" s="74">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S39" s="74">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="T39" s="79">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U39" s="76">
-        <v>3993.6102236421725</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1">
@@ -9638,53 +9610,53 @@
         <v>90</v>
       </c>
       <c r="E40" s="74">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F40" s="75">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G40" s="88">
         <v>125000</v>
       </c>
       <c r="H40" s="76"/>
       <c r="I40" s="110">
-        <v>0</v>
+        <v>1.8180078554708661</v>
       </c>
       <c r="J40" s="78">
-        <v>8.275</v>
+        <v>4.5450196386771653</v>
       </c>
       <c r="K40" s="74">
-        <v>0</v>
+        <v>2196.8365553602816</v>
       </c>
       <c r="L40" s="74">
-        <v>10000</v>
+        <v>5492.0913884007041</v>
       </c>
       <c r="M40" s="79">
-        <v>12.5</v>
+        <v>22.760000000000012</v>
       </c>
       <c r="N40" s="76">
-        <v>15105.740181268882</v>
+        <v>27502.631437777807</v>
       </c>
       <c r="O40" s="80">
-        <v>0.5</v>
+        <v>1.1379999999999997</v>
       </c>
       <c r="P40" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="78">
-        <v>31.3</v>
+        <v>2.5</v>
       </c>
       <c r="R40" s="74">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S40" s="74">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="T40" s="79">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U40" s="76">
-        <v>3993.6102236421725</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="41" ht="24" customHeight="1">
@@ -9694,7 +9666,7 @@
         <v>94</v>
       </c>
       <c r="E41" s="50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41" s="41" t="s">
         <v>38</v>
@@ -9707,19 +9679,19 @@
         <v>38</v>
       </c>
       <c r="J41" s="68">
-        <v>16.55</v>
+        <v>9.000000128612232</v>
       </c>
       <c r="K41" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L41" s="50">
-        <v>20000</v>
+        <v>10875.3816554119</v>
       </c>
       <c r="M41" s="46">
-        <v>12.5</v>
+        <v>22.98769899956503</v>
       </c>
       <c r="N41" s="42">
-        <v>15105.740181268882</v>
+        <v>27777.777380826454</v>
       </c>
       <c r="O41" s="44" t="s">
         <v>38</v>
@@ -9728,19 +9700,19 @@
         <v>38</v>
       </c>
       <c r="Q41" s="68">
-        <v>62.6</v>
+        <v>5</v>
       </c>
       <c r="R41" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S41" s="50">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="T41" s="46">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U41" s="42">
-        <v>3993.6102236421725</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="42">
@@ -9754,24 +9726,24 @@
     </row>
     <row r="44" ht="24" customHeight="1">
       <c r="B44" s="57"/>
-      <c r="H44" s="121" t="s">
+      <c r="H44" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="123"/>
-      <c r="O44" s="121" t="s">
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
+      <c r="N44" s="124"/>
+      <c r="O44" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="122"/>
-      <c r="U44" s="123"/>
+      <c r="P44" s="123"/>
+      <c r="Q44" s="123"/>
+      <c r="R44" s="123"/>
+      <c r="S44" s="123"/>
+      <c r="T44" s="123"/>
+      <c r="U44" s="124"/>
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="B45" s="57"/>
@@ -9829,46 +9801,46 @@
       <c r="F46" s="69"/>
       <c r="G46" s="69"/>
       <c r="H46" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.52199999999999991</v>
       </c>
       <c r="I46" s="83">
-        <v>0</v>
+        <v>0.75439729075989048</v>
       </c>
       <c r="J46" s="84">
-        <v>8.175</v>
+        <v>1.8859932268997262</v>
       </c>
       <c r="K46" s="82">
-        <v>0</v>
+        <v>1124.0310077519378</v>
       </c>
       <c r="L46" s="82">
-        <v>12249.28575</v>
+        <v>2810.0775193798445</v>
       </c>
       <c r="M46" s="85">
-        <v>10.204676627778074</v>
+        <v>44.482758620689729</v>
       </c>
       <c r="N46" s="86">
-        <v>15290.519877675841</v>
+        <v>66278.074712643545</v>
       </c>
       <c r="O46" s="87">
-        <v>0.49617645000000005</v>
+        <v>0.24500000000000008</v>
       </c>
       <c r="P46" s="83">
-        <v>0</v>
+        <v>0.88501110876905165</v>
       </c>
       <c r="Q46" s="84">
-        <v>8.35</v>
+        <v>2.2125277719226291</v>
       </c>
       <c r="R46" s="82">
-        <v>0</v>
+        <v>527.56244616709751</v>
       </c>
       <c r="S46" s="82">
-        <v>4961.7645</v>
+        <v>1318.9061154177437</v>
       </c>
       <c r="T46" s="85">
-        <v>25.192650719315679</v>
+        <v>94.775510204081868</v>
       </c>
       <c r="U46" s="86">
-        <v>14970.05988023952</v>
+        <v>56496.465981703</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
@@ -9882,46 +9854,46 @@
       <c r="F47" s="69"/>
       <c r="G47" s="69"/>
       <c r="H47" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.46499999999999997</v>
       </c>
       <c r="I47" s="83">
-        <v>0</v>
+        <v>0.685602713263318</v>
       </c>
       <c r="J47" s="84">
-        <v>8.175</v>
+        <v>1.714006783158295</v>
       </c>
       <c r="K47" s="82">
-        <v>0</v>
+        <v>1021.5289982425309</v>
       </c>
       <c r="L47" s="82">
-        <v>12249.28575</v>
+        <v>2553.8224956063273</v>
       </c>
       <c r="M47" s="85">
-        <v>10.204676627778074</v>
+        <v>48.946236559139727</v>
       </c>
       <c r="N47" s="86">
-        <v>15290.519877675841</v>
+        <v>72928.532855435857</v>
       </c>
       <c r="O47" s="87">
-        <v>0.49617645000000005</v>
+        <v>0.23199999999999998</v>
       </c>
       <c r="P47" s="83">
-        <v>0</v>
+        <v>0.85498910429741259</v>
       </c>
       <c r="Q47" s="84">
-        <v>8.35</v>
+        <v>2.1374727607435315</v>
       </c>
       <c r="R47" s="82">
-        <v>0</v>
+        <v>509.66608084358529</v>
       </c>
       <c r="S47" s="82">
-        <v>4961.7645</v>
+        <v>1274.1652021089633</v>
       </c>
       <c r="T47" s="85">
-        <v>25.192650719315679</v>
+        <v>98.1034482758623</v>
       </c>
       <c r="U47" s="86">
-        <v>14970.05988023952</v>
+        <v>58480.27740784784</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
@@ -9933,19 +9905,19 @@
         <v>38</v>
       </c>
       <c r="J48" s="68">
-        <v>16.35</v>
+        <v>3.6000000100580212</v>
       </c>
       <c r="K48" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L48" s="50">
-        <v>24498.5715</v>
+        <v>5363.9000149861713</v>
       </c>
       <c r="M48" s="46">
-        <v>10.204676627778074</v>
+        <v>46.607878465580342</v>
       </c>
       <c r="N48" s="42">
-        <v>15290.519877675841</v>
+        <v>69444.444250424</v>
       </c>
       <c r="O48" s="44" t="s">
         <v>38</v>
@@ -9954,32 +9926,32 @@
         <v>38</v>
       </c>
       <c r="Q48" s="68">
-        <v>16.7</v>
+        <v>4.3500005326661606</v>
       </c>
       <c r="R48" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S48" s="50">
-        <v>9923.529</v>
+        <v>2593.0713175267069</v>
       </c>
       <c r="T48" s="46">
-        <v>25.192650719315679</v>
+        <v>96.410769079213665</v>
       </c>
       <c r="U48" s="42">
-        <v>14970.05988023952</v>
+        <v>57471.25733034622</v>
       </c>
     </row>
     <row r="50" ht="24" customHeight="1">
       <c r="B50" s="57"/>
-      <c r="H50" s="121" t="s">
+      <c r="H50" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="123"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="123"/>
+      <c r="L50" s="123"/>
+      <c r="M50" s="123"/>
+      <c r="N50" s="124"/>
     </row>
     <row r="51" ht="24" customHeight="1">
       <c r="B51" s="57"/>
@@ -10016,25 +9988,25 @@
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="109">
-        <v>1.7819580999999998</v>
+        <v>1.1200000000000003</v>
       </c>
       <c r="I52" s="83">
-        <v>0</v>
+        <v>1.1222371901671531</v>
       </c>
       <c r="J52" s="84">
-        <v>8.3</v>
+        <v>2.8055929754178828</v>
       </c>
       <c r="K52" s="82">
-        <v>0</v>
+        <v>2411.714039621017</v>
       </c>
       <c r="L52" s="82">
-        <v>17819.581</v>
+        <v>6029.2850990525421</v>
       </c>
       <c r="M52" s="85">
-        <v>7.014755285211252</v>
+        <v>20.732142857142861</v>
       </c>
       <c r="N52" s="86">
-        <v>15060.240963855422</v>
+        <v>44553.861196270584</v>
       </c>
     </row>
     <row r="53" ht="24" customHeight="1">
@@ -10048,25 +10020,25 @@
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="109">
-        <v>1.7819580999999998</v>
+        <v>1.1129999999999998</v>
       </c>
       <c r="I53" s="83">
-        <v>0</v>
+        <v>1.1377628683417524</v>
       </c>
       <c r="J53" s="84">
-        <v>8.3</v>
+        <v>2.8444071708543812</v>
       </c>
       <c r="K53" s="82">
-        <v>0</v>
+        <v>2445.079086115993</v>
       </c>
       <c r="L53" s="82">
-        <v>17819.581</v>
+        <v>6112.6977152899826</v>
       </c>
       <c r="M53" s="85">
-        <v>7.014755285211252</v>
+        <v>20.449236298292909</v>
       </c>
       <c r="N53" s="86">
-        <v>15060.240963855422</v>
+        <v>43945.888366767656</v>
       </c>
     </row>
     <row r="54" ht="24" customHeight="1">
@@ -10078,19 +10050,19 @@
         <v>38</v>
       </c>
       <c r="J54" s="68">
-        <v>16.6</v>
+        <v>5.650000146272264</v>
       </c>
       <c r="K54" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="50">
-        <v>35639.162</v>
+        <v>12141.982814342526</v>
       </c>
       <c r="M54" s="46">
-        <v>7.014755285211252</v>
+        <v>20.58971782637445</v>
       </c>
       <c r="N54" s="42">
-        <v>15060.240963855422</v>
+        <v>44247.786465093151</v>
       </c>
     </row>
     <row r="56">
@@ -10124,23 +10096,23 @@
       <c r="F58" s="9"/>
       <c r="G58" s="23"/>
       <c r="H58" s="58"/>
-      <c r="I58" s="121" t="s">
+      <c r="I58" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
-      <c r="M58" s="122"/>
-      <c r="N58" s="123"/>
-      <c r="O58" s="121" t="s">
+      <c r="J58" s="123"/>
+      <c r="K58" s="123"/>
+      <c r="L58" s="123"/>
+      <c r="M58" s="123"/>
+      <c r="N58" s="124"/>
+      <c r="O58" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="P58" s="122"/>
-      <c r="Q58" s="122"/>
-      <c r="R58" s="122"/>
-      <c r="S58" s="122"/>
-      <c r="T58" s="122"/>
-      <c r="U58" s="123"/>
+      <c r="P58" s="123"/>
+      <c r="Q58" s="123"/>
+      <c r="R58" s="123"/>
+      <c r="S58" s="123"/>
+      <c r="T58" s="123"/>
+      <c r="U58" s="124"/>
     </row>
     <row r="59" ht="24" customHeight="1">
       <c r="A59" s="69" t="s">
@@ -10215,53 +10187,53 @@
         <v>90</v>
       </c>
       <c r="E60" s="74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60" s="75">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G60" s="88">
         <v>250000</v>
       </c>
       <c r="H60" s="76"/>
       <c r="I60" s="110">
-        <v>0</v>
+        <v>3.5639843919480541</v>
       </c>
       <c r="J60" s="78">
-        <v>16.55</v>
+        <v>8.9099609798701351</v>
       </c>
       <c r="K60" s="74">
-        <v>0</v>
+        <v>4306.6322136089575</v>
       </c>
       <c r="L60" s="74">
-        <v>20000</v>
+        <v>10766.580534022394</v>
       </c>
       <c r="M60" s="79">
-        <v>12.5</v>
+        <v>23.219999999999988</v>
       </c>
       <c r="N60" s="76">
-        <v>15105.740181268882</v>
+        <v>28058.484269999986</v>
       </c>
       <c r="O60" s="80">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="P60" s="77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q60" s="78">
-        <v>62.6</v>
+        <v>5</v>
       </c>
       <c r="R60" s="74">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="S60" s="74">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="T60" s="79">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U60" s="76">
-        <v>3993.6102236421725</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="61" ht="24" customHeight="1">
@@ -10276,44 +10248,44 @@
         <v>92</v>
       </c>
       <c r="E61" s="74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F61" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G61" s="88">
         <v>125000</v>
       </c>
       <c r="H61" s="76"/>
       <c r="I61" s="110">
-        <v>0</v>
+        <v>2.8456219814462562</v>
       </c>
       <c r="J61" s="78">
-        <v>8.275</v>
+        <v>3.5570274768078205</v>
       </c>
       <c r="K61" s="74">
-        <v>0</v>
+        <v>3445.3057708871661</v>
       </c>
       <c r="L61" s="74">
-        <v>10000</v>
+        <v>4306.6322136089575</v>
       </c>
       <c r="M61" s="79">
-        <v>12.5</v>
+        <v>29.024999999999988</v>
       </c>
       <c r="N61" s="76">
-        <v>15105.740181268882</v>
+        <v>35141.702113636369</v>
       </c>
       <c r="O61" s="80">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="P61" s="77">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q61" s="78">
-        <v>31.3</v>
+        <v>2</v>
       </c>
       <c r="R61" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S61" s="74">
         <v>5000</v>
@@ -10322,7 +10294,7 @@
         <v>25</v>
       </c>
       <c r="U61" s="76">
-        <v>3993.6102236421725</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="62" ht="24" customHeight="1">
@@ -10337,53 +10309,53 @@
         <v>90</v>
       </c>
       <c r="E62" s="74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F62" s="75">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G62" s="88">
         <v>250000</v>
       </c>
       <c r="H62" s="76"/>
       <c r="I62" s="110">
-        <v>0</v>
+        <v>3.6360157109417321</v>
       </c>
       <c r="J62" s="78">
-        <v>16.55</v>
+        <v>9.09003927735433</v>
       </c>
       <c r="K62" s="74">
-        <v>0</v>
+        <v>4393.6731107205633</v>
       </c>
       <c r="L62" s="74">
-        <v>20000</v>
+        <v>10984.182776801408</v>
       </c>
       <c r="M62" s="79">
-        <v>12.5</v>
+        <v>22.760000000000012</v>
       </c>
       <c r="N62" s="76">
-        <v>15105.740181268882</v>
+        <v>27502.631437777778</v>
       </c>
       <c r="O62" s="80">
-        <v>0.5</v>
+        <v>1.1379999999999997</v>
       </c>
       <c r="P62" s="77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q62" s="78">
-        <v>62.6</v>
+        <v>5</v>
       </c>
       <c r="R62" s="74">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="S62" s="74">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="T62" s="79">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U62" s="76">
-        <v>3993.6102236421725</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="63" ht="24" customHeight="1">
@@ -10398,44 +10370,44 @@
         <v>92</v>
       </c>
       <c r="E63" s="74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F63" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G63" s="88">
         <v>125000</v>
       </c>
       <c r="H63" s="76"/>
       <c r="I63" s="110">
-        <v>0</v>
+        <v>2.9031345522487735</v>
       </c>
       <c r="J63" s="78">
-        <v>8.275</v>
+        <v>3.6289181903109666</v>
       </c>
       <c r="K63" s="74">
-        <v>0</v>
+        <v>3514.93848857645</v>
       </c>
       <c r="L63" s="74">
-        <v>10000</v>
+        <v>4393.6731107205624</v>
       </c>
       <c r="M63" s="79">
-        <v>12.5</v>
+        <v>28.450000000000017</v>
       </c>
       <c r="N63" s="76">
-        <v>15105.740181268882</v>
+        <v>34445.5271363636</v>
       </c>
       <c r="O63" s="80">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="P63" s="77">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q63" s="78">
-        <v>31.3</v>
+        <v>2</v>
       </c>
       <c r="R63" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S63" s="74">
         <v>5000</v>
@@ -10444,7 +10416,7 @@
         <v>25</v>
       </c>
       <c r="U63" s="76">
-        <v>3993.6102236421725</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="64" ht="24" customHeight="1">
@@ -10459,44 +10431,44 @@
         <v>92</v>
       </c>
       <c r="E64" s="74">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F64" s="75">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G64" s="88">
         <v>250000</v>
       </c>
       <c r="H64" s="76"/>
       <c r="I64" s="110">
-        <v>0</v>
+        <v>2.8456219814462562</v>
       </c>
       <c r="J64" s="78">
-        <v>16.55</v>
+        <v>7.114054953615641</v>
       </c>
       <c r="K64" s="74">
-        <v>0</v>
+        <v>3445.3057708871661</v>
       </c>
       <c r="L64" s="74">
-        <v>20000</v>
+        <v>8613.264427217915</v>
       </c>
       <c r="M64" s="79">
-        <v>12.5</v>
+        <v>29.024999999999988</v>
       </c>
       <c r="N64" s="76">
-        <v>15105.740181268882</v>
+        <v>35141.702113636369</v>
       </c>
       <c r="O64" s="80">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="P64" s="77">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q64" s="78">
-        <v>62.6</v>
+        <v>4.1</v>
       </c>
       <c r="R64" s="74">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="S64" s="74">
         <v>10000</v>
@@ -10505,7 +10477,7 @@
         <v>25</v>
       </c>
       <c r="U64" s="76">
-        <v>3993.6102236421725</v>
+        <v>60975.609756097569</v>
       </c>
     </row>
     <row r="65" ht="24" customHeight="1">
@@ -10515,7 +10487,7 @@
         <v>94</v>
       </c>
       <c r="E65" s="50">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F65" s="41" t="s">
         <v>38</v>
@@ -10528,19 +10500,19 @@
         <v>38</v>
       </c>
       <c r="J65" s="68">
-        <v>66.2</v>
+        <v>32.300000877958894</v>
       </c>
       <c r="K65" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L65" s="50">
-        <v>80000</v>
+        <v>39064.333062371239</v>
       </c>
       <c r="M65" s="46">
-        <v>12.5</v>
+        <v>25.598798740615187</v>
       </c>
       <c r="N65" s="42">
-        <v>15105.740181268882</v>
+        <v>30959.751480452342</v>
       </c>
       <c r="O65" s="44" t="s">
         <v>38</v>
@@ -10549,19 +10521,19 @@
         <v>38</v>
       </c>
       <c r="Q65" s="68">
-        <v>250.4</v>
+        <v>18.1</v>
       </c>
       <c r="R65" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S65" s="50">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="T65" s="46">
-        <v>25</v>
+        <v>22.222222222222225</v>
       </c>
       <c r="U65" s="42">
-        <v>3993.6102236421725</v>
+        <v>55248.618784530387</v>
       </c>
     </row>
     <row r="66">
@@ -10575,24 +10547,24 @@
     </row>
     <row r="68" ht="24" customHeight="1">
       <c r="B68" s="57"/>
-      <c r="H68" s="121" t="s">
+      <c r="H68" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="I68" s="122"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="122"/>
-      <c r="L68" s="122"/>
-      <c r="M68" s="122"/>
-      <c r="N68" s="123"/>
-      <c r="O68" s="121" t="s">
+      <c r="I68" s="123"/>
+      <c r="J68" s="123"/>
+      <c r="K68" s="123"/>
+      <c r="L68" s="123"/>
+      <c r="M68" s="123"/>
+      <c r="N68" s="124"/>
+      <c r="O68" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="P68" s="122"/>
-      <c r="Q68" s="122"/>
-      <c r="R68" s="122"/>
-      <c r="S68" s="122"/>
-      <c r="T68" s="122"/>
-      <c r="U68" s="123"/>
+      <c r="P68" s="123"/>
+      <c r="Q68" s="123"/>
+      <c r="R68" s="123"/>
+      <c r="S68" s="123"/>
+      <c r="T68" s="123"/>
+      <c r="U68" s="124"/>
     </row>
     <row r="69" ht="24" customHeight="1">
       <c r="B69" s="57"/>
@@ -10650,46 +10622,46 @@
       <c r="F70" s="69"/>
       <c r="G70" s="69"/>
       <c r="H70" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.52199999999999991</v>
       </c>
       <c r="I70" s="83">
-        <v>0</v>
+        <v>0.75439729075989048</v>
       </c>
       <c r="J70" s="84">
-        <v>16.35</v>
+        <v>3.7719864537994523</v>
       </c>
       <c r="K70" s="82">
-        <v>0</v>
+        <v>1124.0310077519378</v>
       </c>
       <c r="L70" s="82">
-        <v>24498.5715</v>
+        <v>5620.155038759689</v>
       </c>
       <c r="M70" s="85">
-        <v>10.204676627778074</v>
+        <v>44.482758620689651</v>
       </c>
       <c r="N70" s="86">
-        <v>15290.519877675841</v>
+        <v>66278.07471264372</v>
       </c>
       <c r="O70" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.1200000000000003</v>
       </c>
       <c r="P70" s="83">
-        <v>0</v>
+        <v>1.1222371901671531</v>
       </c>
       <c r="Q70" s="84">
-        <v>16.6</v>
+        <v>5.6111859508357655</v>
       </c>
       <c r="R70" s="82">
-        <v>0</v>
+        <v>2411.714039621017</v>
       </c>
       <c r="S70" s="82">
-        <v>35639.162</v>
+        <v>12058.570198105084</v>
       </c>
       <c r="T70" s="85">
-        <v>7.014755285211252</v>
+        <v>20.732142857142826</v>
       </c>
       <c r="U70" s="86">
-        <v>15060.240963855422</v>
+        <v>44553.8611962705</v>
       </c>
     </row>
     <row r="71" ht="24" customHeight="1">
@@ -10703,46 +10675,46 @@
       <c r="F71" s="69"/>
       <c r="G71" s="69"/>
       <c r="H71" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.52199999999999991</v>
       </c>
       <c r="I71" s="83">
-        <v>0</v>
+        <v>1.2075290857040377</v>
       </c>
       <c r="J71" s="84">
-        <v>8.175</v>
+        <v>1.5094113571300472</v>
       </c>
       <c r="K71" s="82">
-        <v>0</v>
+        <v>1798.4496124031005</v>
       </c>
       <c r="L71" s="82">
-        <v>12249.28575</v>
+        <v>2248.0620155038755</v>
       </c>
       <c r="M71" s="85">
-        <v>10.204676627778074</v>
+        <v>55.603448275861965</v>
       </c>
       <c r="N71" s="86">
-        <v>15290.519877675841</v>
+        <v>82813.74021040315</v>
       </c>
       <c r="O71" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.12</v>
       </c>
       <c r="P71" s="83">
-        <v>0</v>
+        <v>1.7937959355753677</v>
       </c>
       <c r="Q71" s="84">
-        <v>8.3</v>
+        <v>2.2422449194692096</v>
       </c>
       <c r="R71" s="82">
-        <v>0</v>
+        <v>3858.7424633936266</v>
       </c>
       <c r="S71" s="82">
-        <v>17819.581</v>
+        <v>4823.4280792420332</v>
       </c>
       <c r="T71" s="85">
-        <v>7.014755285211252</v>
+        <v>25.915178571428587</v>
       </c>
       <c r="U71" s="86">
-        <v>15060.240963855422</v>
+        <v>55747.701294642837</v>
       </c>
     </row>
     <row r="72" ht="24" customHeight="1">
@@ -10756,46 +10728,46 @@
       <c r="F72" s="69"/>
       <c r="G72" s="69"/>
       <c r="H72" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.46499999999999997</v>
       </c>
       <c r="I72" s="83">
-        <v>0</v>
+        <v>0.685602713263318</v>
       </c>
       <c r="J72" s="84">
-        <v>16.35</v>
+        <v>3.42801356631659</v>
       </c>
       <c r="K72" s="82">
-        <v>0</v>
+        <v>1021.5289982425309</v>
       </c>
       <c r="L72" s="82">
-        <v>24498.5715</v>
+        <v>5107.6449912126545</v>
       </c>
       <c r="M72" s="85">
-        <v>10.204676627778074</v>
+        <v>48.946236559139827</v>
       </c>
       <c r="N72" s="86">
-        <v>15290.519877675841</v>
+        <v>72928.532855436075</v>
       </c>
       <c r="O72" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.1129999999999998</v>
       </c>
       <c r="P72" s="83">
-        <v>0</v>
+        <v>1.1377628683417524</v>
       </c>
       <c r="Q72" s="84">
-        <v>16.6</v>
+        <v>5.6888143417087624</v>
       </c>
       <c r="R72" s="82">
-        <v>0</v>
+        <v>2445.079086115993</v>
       </c>
       <c r="S72" s="82">
-        <v>35639.162</v>
+        <v>12225.395430579965</v>
       </c>
       <c r="T72" s="85">
-        <v>7.014755285211252</v>
+        <v>20.449236298292842</v>
       </c>
       <c r="U72" s="86">
-        <v>15060.240963855422</v>
+        <v>43945.888366767656</v>
       </c>
     </row>
     <row r="73" ht="24" customHeight="1">
@@ -10809,46 +10781,46 @@
       <c r="F73" s="69"/>
       <c r="G73" s="69"/>
       <c r="H73" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.465</v>
       </c>
       <c r="I73" s="83">
-        <v>0</v>
+        <v>1.0974127659832242</v>
       </c>
       <c r="J73" s="84">
-        <v>8.175</v>
+        <v>1.3717659574790304</v>
       </c>
       <c r="K73" s="82">
-        <v>0</v>
+        <v>1634.4463971880493</v>
       </c>
       <c r="L73" s="82">
-        <v>12249.28575</v>
+        <v>2043.0579964850617</v>
       </c>
       <c r="M73" s="85">
-        <v>10.204676627778074</v>
+        <v>61.182795698924771</v>
       </c>
       <c r="N73" s="86">
-        <v>15290.519877675841</v>
+        <v>91123.416001458012</v>
       </c>
       <c r="O73" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.113</v>
       </c>
       <c r="P73" s="83">
-        <v>0</v>
+        <v>1.8186123457341676</v>
       </c>
       <c r="Q73" s="84">
-        <v>8.3</v>
+        <v>2.2732654321677095</v>
       </c>
       <c r="R73" s="82">
-        <v>0</v>
+        <v>3912.1265377855889</v>
       </c>
       <c r="S73" s="82">
-        <v>17819.581</v>
+        <v>4890.1581722319861</v>
       </c>
       <c r="T73" s="85">
-        <v>7.014755285211252</v>
+        <v>25.561545372866103</v>
       </c>
       <c r="U73" s="86">
-        <v>15060.240963855422</v>
+        <v>54986.9796246381</v>
       </c>
     </row>
     <row r="74" ht="24" customHeight="1">
@@ -10862,46 +10834,46 @@
       <c r="F74" s="69"/>
       <c r="G74" s="69"/>
       <c r="H74" s="109">
-        <v>1.2249285749999999</v>
+        <v>0.52199999999999991</v>
       </c>
       <c r="I74" s="83">
-        <v>0</v>
+        <v>1.2075290857040377</v>
       </c>
       <c r="J74" s="84">
-        <v>16.35</v>
+        <v>3.0188227142600943</v>
       </c>
       <c r="K74" s="82">
-        <v>0</v>
+        <v>1798.4496124031005</v>
       </c>
       <c r="L74" s="82">
-        <v>24498.5715</v>
+        <v>4496.124031007751</v>
       </c>
       <c r="M74" s="85">
-        <v>10.204676627778074</v>
+        <v>55.603448275862085</v>
       </c>
       <c r="N74" s="86">
-        <v>15290.519877675841</v>
+        <v>82813.740210403412</v>
       </c>
       <c r="O74" s="87">
-        <v>1.7819580999999998</v>
+        <v>1.12</v>
       </c>
       <c r="P74" s="83">
-        <v>0</v>
+        <v>1.7937959355753677</v>
       </c>
       <c r="Q74" s="84">
-        <v>16.6</v>
+        <v>4.4844898389384191</v>
       </c>
       <c r="R74" s="82">
-        <v>0</v>
+        <v>3858.7424633936266</v>
       </c>
       <c r="S74" s="82">
-        <v>35639.162</v>
+        <v>9646.8561584840663</v>
       </c>
       <c r="T74" s="85">
-        <v>7.014755285211252</v>
+        <v>25.915178571428587</v>
       </c>
       <c r="U74" s="86">
-        <v>15060.240963855422</v>
+        <v>55747.701294642837</v>
       </c>
     </row>
     <row r="75" ht="24" customHeight="1">
@@ -10913,19 +10885,19 @@
         <v>38</v>
       </c>
       <c r="J75" s="68">
-        <v>65.4</v>
+        <v>13.100000048985216</v>
       </c>
       <c r="K75" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L75" s="50">
-        <v>97994.286</v>
+        <v>19515.044072969034</v>
       </c>
       <c r="M75" s="46">
-        <v>10.204676627778074</v>
+        <v>51.242518144508651</v>
       </c>
       <c r="N75" s="42">
-        <v>15290.519877675841</v>
+        <v>76335.877577150517</v>
       </c>
       <c r="O75" s="44" t="s">
         <v>38</v>
@@ -10934,32 +10906,32 @@
         <v>38</v>
       </c>
       <c r="Q75" s="68">
-        <v>66.4</v>
+        <v>20.300000483119867</v>
       </c>
       <c r="R75" s="50" t="s">
         <v>38</v>
       </c>
       <c r="S75" s="50">
-        <v>142556.648</v>
+        <v>43644.408038643131</v>
       </c>
       <c r="T75" s="46">
-        <v>7.014755285211252</v>
+        <v>22.912442737557402</v>
       </c>
       <c r="U75" s="42">
-        <v>15060.240963855422</v>
+        <v>49261.082571477375</v>
       </c>
     </row>
     <row r="77" ht="24" customHeight="1">
       <c r="B77" s="57"/>
-      <c r="H77" s="121" t="s">
+      <c r="H77" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="I77" s="122"/>
-      <c r="J77" s="122"/>
-      <c r="K77" s="122"/>
-      <c r="L77" s="122"/>
-      <c r="M77" s="122"/>
-      <c r="N77" s="123"/>
+      <c r="I77" s="123"/>
+      <c r="J77" s="123"/>
+      <c r="K77" s="123"/>
+      <c r="L77" s="123"/>
+      <c r="M77" s="123"/>
+      <c r="N77" s="124"/>
     </row>
     <row r="78" ht="24" customHeight="1">
       <c r="B78" s="57"/>
@@ -10996,25 +10968,25 @@
       <c r="F79" s="69"/>
       <c r="G79" s="69"/>
       <c r="H79" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.24500000000000008</v>
       </c>
       <c r="I79" s="83">
-        <v>0</v>
+        <v>0.88501110876905165</v>
       </c>
       <c r="J79" s="84">
-        <v>16.7</v>
+        <v>4.4250555438452581</v>
       </c>
       <c r="K79" s="82">
-        <v>0</v>
+        <v>527.56244616709751</v>
       </c>
       <c r="L79" s="82">
-        <v>9923.529</v>
+        <v>2637.8122308354873</v>
       </c>
       <c r="M79" s="85">
-        <v>25.192650719315679</v>
+        <v>94.7755102040815</v>
       </c>
       <c r="N79" s="86">
-        <v>14970.05988023952</v>
+        <v>56496.465981703</v>
       </c>
     </row>
     <row r="80" ht="24" customHeight="1">
@@ -11028,25 +11000,25 @@
       <c r="F80" s="69"/>
       <c r="G80" s="69"/>
       <c r="H80" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.24500000000000005</v>
       </c>
       <c r="I80" s="83">
-        <v>0</v>
+        <v>1.4119747951400865</v>
       </c>
       <c r="J80" s="84">
-        <v>8.35</v>
+        <v>1.7649684939251082</v>
       </c>
       <c r="K80" s="82">
-        <v>0</v>
+        <v>844.09991386735578</v>
       </c>
       <c r="L80" s="82">
-        <v>4961.7645</v>
+        <v>1055.1248923341948</v>
       </c>
       <c r="M80" s="85">
-        <v>25.192650719315679</v>
+        <v>118.46938775510256</v>
       </c>
       <c r="N80" s="86">
-        <v>14970.05988023952</v>
+        <v>70822.7939650145</v>
       </c>
     </row>
     <row r="81" ht="24" customHeight="1">
@@ -11060,25 +11032,25 @@
       <c r="F81" s="69"/>
       <c r="G81" s="69"/>
       <c r="H81" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.23199999999999998</v>
       </c>
       <c r="I81" s="83">
-        <v>0</v>
+        <v>0.85498910429741259</v>
       </c>
       <c r="J81" s="84">
-        <v>16.7</v>
+        <v>4.2749455214870631</v>
       </c>
       <c r="K81" s="82">
-        <v>0</v>
+        <v>509.66608084358529</v>
       </c>
       <c r="L81" s="82">
-        <v>9923.529</v>
+        <v>2548.3304042179266</v>
       </c>
       <c r="M81" s="85">
-        <v>25.192650719315679</v>
+        <v>98.103448275861922</v>
       </c>
       <c r="N81" s="86">
-        <v>14970.05988023952</v>
+        <v>58480.27740784784</v>
       </c>
     </row>
     <row r="82" ht="24" customHeight="1">
@@ -11092,25 +11064,25 @@
       <c r="F82" s="69"/>
       <c r="G82" s="69"/>
       <c r="H82" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.23200000000000004</v>
       </c>
       <c r="I82" s="83">
-        <v>0</v>
+        <v>1.3640767369196678</v>
       </c>
       <c r="J82" s="84">
-        <v>8.35</v>
+        <v>1.7050959211495846</v>
       </c>
       <c r="K82" s="82">
-        <v>0</v>
+        <v>815.46572934973642</v>
       </c>
       <c r="L82" s="82">
-        <v>4961.7645</v>
+        <v>1019.3321616871706</v>
       </c>
       <c r="M82" s="85">
-        <v>25.192650719315679</v>
+        <v>122.62931034482763</v>
       </c>
       <c r="N82" s="86">
-        <v>14970.05988023952</v>
+        <v>73309.6586822662</v>
       </c>
     </row>
     <row r="83" ht="24" customHeight="1">
@@ -11124,25 +11096,25 @@
       <c r="F83" s="69"/>
       <c r="G83" s="69"/>
       <c r="H83" s="109">
-        <v>0.49617645000000005</v>
+        <v>0.24500000000000005</v>
       </c>
       <c r="I83" s="83">
-        <v>0</v>
+        <v>1.4119747951400865</v>
       </c>
       <c r="J83" s="84">
-        <v>16.7</v>
+        <v>3.5299369878502165</v>
       </c>
       <c r="K83" s="82">
-        <v>0</v>
+        <v>844.09991386735578</v>
       </c>
       <c r="L83" s="82">
-        <v>9923.529</v>
+        <v>2110.2497846683896</v>
       </c>
       <c r="M83" s="85">
-        <v>25.192650719315679</v>
+        <v>118.469387755102</v>
       </c>
       <c r="N83" s="86">
-        <v>14970.05988023952</v>
+        <v>70822.7939650145</v>
       </c>
     </row>
     <row r="84" ht="24" customHeight="1">
@@ -11154,19 +11126,19 @@
         <v>38</v>
       </c>
       <c r="J84" s="68">
-        <v>66.8</v>
+        <v>15.700002468257232</v>
       </c>
       <c r="K84" s="50" t="s">
         <v>38</v>
       </c>
       <c r="L84" s="50">
-        <v>39694.116</v>
+        <v>9370.8494737431683</v>
       </c>
       <c r="M84" s="46">
-        <v>25.192650719315679</v>
+        <v>106.71391134837552</v>
       </c>
       <c r="N84" s="42">
-        <v>14970.05988023952</v>
+        <v>63694.257502305118</v>
       </c>
     </row>
     <row r="85" ht="24" customHeight="1" s="10" customFormat="1"/>
@@ -11176,24 +11148,24 @@
       </c>
       <c r="D86" s="54"/>
       <c r="E86" s="72"/>
-      <c r="F86" s="127" t="s">
+      <c r="F86" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="G86" s="127"/>
-      <c r="H86" s="127"/>
-      <c r="I86" s="127"/>
-      <c r="J86" s="127"/>
-      <c r="K86" s="127"/>
-      <c r="L86" s="127"/>
-      <c r="M86" s="127"/>
-      <c r="N86" s="127"/>
-      <c r="O86" s="127"/>
-      <c r="P86" s="127"/>
-      <c r="Q86" s="127"/>
-      <c r="R86" s="127"/>
-      <c r="S86" s="127"/>
-      <c r="T86" s="127"/>
-      <c r="U86" s="127"/>
+      <c r="G86" s="128"/>
+      <c r="H86" s="128"/>
+      <c r="I86" s="128"/>
+      <c r="J86" s="128"/>
+      <c r="K86" s="128"/>
+      <c r="L86" s="128"/>
+      <c r="M86" s="128"/>
+      <c r="N86" s="128"/>
+      <c r="O86" s="128"/>
+      <c r="P86" s="128"/>
+      <c r="Q86" s="128"/>
+      <c r="R86" s="128"/>
+      <c r="S86" s="128"/>
+      <c r="T86" s="128"/>
+      <c r="U86" s="128"/>
     </row>
     <row r="87" ht="8.1" customHeight="1" s="90" customFormat="1">
       <c r="C87" s="4"/>
@@ -11222,24 +11194,24 @@
         <v>22</v>
       </c>
       <c r="D88" s="54"/>
-      <c r="F88" s="127" t="s">
+      <c r="F88" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="G88" s="127"/>
-      <c r="H88" s="127"/>
-      <c r="I88" s="127"/>
-      <c r="J88" s="127"/>
-      <c r="K88" s="127"/>
-      <c r="L88" s="127"/>
-      <c r="M88" s="127"/>
-      <c r="N88" s="127"/>
-      <c r="O88" s="127"/>
-      <c r="P88" s="127"/>
-      <c r="Q88" s="127"/>
-      <c r="R88" s="127"/>
-      <c r="S88" s="127"/>
-      <c r="T88" s="127"/>
-      <c r="U88" s="127"/>
+      <c r="G88" s="128"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="128"/>
+      <c r="J88" s="128"/>
+      <c r="K88" s="128"/>
+      <c r="L88" s="128"/>
+      <c r="M88" s="128"/>
+      <c r="N88" s="128"/>
+      <c r="O88" s="128"/>
+      <c r="P88" s="128"/>
+      <c r="Q88" s="128"/>
+      <c r="R88" s="128"/>
+      <c r="S88" s="128"/>
+      <c r="T88" s="128"/>
+      <c r="U88" s="128"/>
       <c r="V88" s="90"/>
     </row>
     <row r="89" ht="8.1" customHeight="1" s="90" customFormat="1">
@@ -11268,22 +11240,22 @@
       </c>
       <c r="D90" s="54"/>
       <c r="E90" s="72"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="127"/>
-      <c r="H90" s="127"/>
-      <c r="I90" s="127"/>
-      <c r="J90" s="127"/>
-      <c r="K90" s="127"/>
-      <c r="L90" s="127"/>
-      <c r="M90" s="127"/>
-      <c r="N90" s="127"/>
-      <c r="O90" s="127"/>
-      <c r="P90" s="127"/>
-      <c r="Q90" s="127"/>
-      <c r="R90" s="127"/>
-      <c r="S90" s="127"/>
-      <c r="T90" s="127"/>
-      <c r="U90" s="127"/>
+      <c r="F90" s="128"/>
+      <c r="G90" s="128"/>
+      <c r="H90" s="128"/>
+      <c r="I90" s="128"/>
+      <c r="J90" s="128"/>
+      <c r="K90" s="128"/>
+      <c r="L90" s="128"/>
+      <c r="M90" s="128"/>
+      <c r="N90" s="128"/>
+      <c r="O90" s="128"/>
+      <c r="P90" s="128"/>
+      <c r="Q90" s="128"/>
+      <c r="R90" s="128"/>
+      <c r="S90" s="128"/>
+      <c r="T90" s="128"/>
+      <c r="U90" s="128"/>
     </row>
     <row r="91" ht="8.1" customHeight="1" s="90" customFormat="1">
       <c r="C91" s="4"/>
@@ -11312,22 +11284,22 @@
         <v>49</v>
       </c>
       <c r="D92" s="54"/>
-      <c r="F92" s="119"/>
-      <c r="G92" s="119"/>
-      <c r="H92" s="119"/>
-      <c r="I92" s="119"/>
-      <c r="J92" s="119"/>
-      <c r="K92" s="119"/>
-      <c r="L92" s="119"/>
-      <c r="M92" s="119"/>
-      <c r="N92" s="119"/>
-      <c r="O92" s="119"/>
-      <c r="P92" s="119"/>
-      <c r="Q92" s="119"/>
-      <c r="R92" s="119"/>
-      <c r="S92" s="119"/>
-      <c r="T92" s="119"/>
-      <c r="U92" s="119"/>
+      <c r="F92" s="120"/>
+      <c r="G92" s="120"/>
+      <c r="H92" s="120"/>
+      <c r="I92" s="120"/>
+      <c r="J92" s="120"/>
+      <c r="K92" s="120"/>
+      <c r="L92" s="120"/>
+      <c r="M92" s="120"/>
+      <c r="N92" s="120"/>
+      <c r="O92" s="120"/>
+      <c r="P92" s="120"/>
+      <c r="Q92" s="120"/>
+      <c r="R92" s="120"/>
+      <c r="S92" s="120"/>
+      <c r="T92" s="120"/>
+      <c r="U92" s="120"/>
       <c r="V92" s="90"/>
     </row>
     <row r="93" ht="8.1" customHeight="1" s="90" customFormat="1">
@@ -11355,27 +11327,35 @@
         <v>51</v>
       </c>
       <c r="D94" s="54"/>
-      <c r="F94" s="118" t="s">
+      <c r="F94" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="G94" s="118"/>
-      <c r="H94" s="118"/>
-      <c r="I94" s="118"/>
-      <c r="J94" s="118"/>
-      <c r="K94" s="118"/>
-      <c r="L94" s="118"/>
-      <c r="M94" s="118"/>
-      <c r="N94" s="118"/>
-      <c r="O94" s="118"/>
-      <c r="P94" s="118"/>
-      <c r="Q94" s="118"/>
-      <c r="R94" s="118"/>
-      <c r="S94" s="118"/>
-      <c r="T94" s="118"/>
-      <c r="U94" s="118"/>
+      <c r="G94" s="119"/>
+      <c r="H94" s="119"/>
+      <c r="I94" s="119"/>
+      <c r="J94" s="119"/>
+      <c r="K94" s="119"/>
+      <c r="L94" s="119"/>
+      <c r="M94" s="119"/>
+      <c r="N94" s="119"/>
+      <c r="O94" s="119"/>
+      <c r="P94" s="119"/>
+      <c r="Q94" s="119"/>
+      <c r="R94" s="119"/>
+      <c r="S94" s="119"/>
+      <c r="T94" s="119"/>
+      <c r="U94" s="119"/>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="F94:U94"/>
+    <mergeCell ref="F86:U86"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="F88:U88"/>
+    <mergeCell ref="F90:U90"/>
+    <mergeCell ref="F92:U92"/>
+    <mergeCell ref="O17:U17"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="E5:G5"/>
@@ -11384,14 +11364,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="F94:U94"/>
-    <mergeCell ref="F86:U86"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="F88:U88"/>
-    <mergeCell ref="F90:U90"/>
-    <mergeCell ref="F92:U92"/>
-    <mergeCell ref="O17:U17"/>
     <mergeCell ref="I37:N37"/>
     <mergeCell ref="O37:U37"/>
     <mergeCell ref="H44:N44"/>
@@ -11427,6 +11399,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000192CE90DA120240A67EE82BE1FBFF43" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623d129459d6fae29ac2c5d491c3782f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e2beb7e-37df-4602-aab8-4f6673c75e9a" xmlns:ns4="eaec1813-26bf-4c98-9021-907af21e1945" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd2e6b22ac1ad737273b5b960116aad" ns3:_="" ns4:_="">
     <xsd:import namespace="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
@@ -11649,22 +11636,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10A51B4-5AFB-478C-ADEC-6221B89FD95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="eaec1813-26bf-4c98-9021-907af21e1945"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53520415-44BC-4FFA-B7D1-C1B985B55107}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11681,29 +11678,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB68F43B-E0EF-42BE-BAC3-92E4E861A7D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10A51B4-5AFB-478C-ADEC-6221B89FD95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0e2beb7e-37df-4602-aab8-4f6673c75e9a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="eaec1813-26bf-4c98-9021-907af21e1945"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>